--- a/Linear Reg Results.xlsx
+++ b/Linear Reg Results.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/spencerzeigler/Documents/Flowers Lab/Apatite Nano-CT Project_Feb 2019_June 2020/Step 8- Statistics/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/spencerzeigler/Documents/Flowers Lab/Apatite Nano-CT Project_Feb 2019_June 2020/apatite-project-git/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41D420FF-21CE-1D43-9313-07AFF30B124C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A324C12B-A3FB-8944-ADDD-D2C0D3172B78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38740" yWindow="-1140" windowWidth="32820" windowHeight="17240" activeTab="1" xr2:uid="{1F4BBB5C-D696-084E-A23E-1931277E5F2D}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16060" xr2:uid="{1F4BBB5C-D696-084E-A23E-1931277E5F2D}"/>
   </bookViews>
   <sheets>
-    <sheet name="ft.reg.master" sheetId="1" r:id="rId1"/>
-    <sheet name="ft.comp" sheetId="3" r:id="rId2"/>
-    <sheet name="vol.reg.master" sheetId="2" r:id="rId3"/>
+    <sheet name="comp" sheetId="4" r:id="rId1"/>
+    <sheet name="ft.reg.master" sheetId="1" r:id="rId2"/>
+    <sheet name="ft.comp" sheetId="3" r:id="rId3"/>
+    <sheet name="vol.reg.master" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1174" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1344" uniqueCount="42">
   <si>
     <t>gem</t>
   </si>
@@ -144,6 +145,24 @@
   </si>
   <si>
     <t>v.100</t>
+  </si>
+  <si>
+    <t>category</t>
+  </si>
+  <si>
+    <t>parameter</t>
+  </si>
+  <si>
+    <t>ft</t>
+  </si>
+  <si>
+    <t>compare</t>
+  </si>
+  <si>
+    <t>f</t>
+  </si>
+  <si>
+    <t>volume</t>
   </si>
 </sst>
 </file>
@@ -534,6 +553,974 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C39293A-6B04-6F45-BB06-32CE19F4B4C3}">
+  <dimension ref="A1:K28"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I24" sqref="I24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="10">
+        <v>0.97874839999999996</v>
+      </c>
+      <c r="E2" s="10">
+        <v>8.9148569999999996E-2</v>
+      </c>
+      <c r="F2" s="10">
+        <v>0</v>
+      </c>
+      <c r="G2" s="10">
+        <v>0</v>
+      </c>
+      <c r="H2" s="10">
+        <v>3.9468969999999999E-2</v>
+      </c>
+      <c r="I2" s="10">
+        <v>2.2118390000000002E-2</v>
+      </c>
+      <c r="J2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="10">
+        <v>0.9771048</v>
+      </c>
+      <c r="E3" s="10">
+        <v>5.7398869999999998E-2</v>
+      </c>
+      <c r="F3" s="10">
+        <v>0</v>
+      </c>
+      <c r="G3" s="10">
+        <v>0</v>
+      </c>
+      <c r="H3" s="10">
+        <v>3.3166359999999999E-2</v>
+      </c>
+      <c r="I3" s="10">
+        <v>1.9641570000000001E-2</v>
+      </c>
+      <c r="J3" t="s">
+        <v>13</v>
+      </c>
+      <c r="K3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="10">
+        <v>0.96703380000000005</v>
+      </c>
+      <c r="E4" s="10">
+        <v>0.1215118</v>
+      </c>
+      <c r="F4" s="10">
+        <v>0</v>
+      </c>
+      <c r="G4" s="10">
+        <v>0</v>
+      </c>
+      <c r="H4" s="10">
+        <v>5.0990269999999997E-2</v>
+      </c>
+      <c r="I4" s="10">
+        <v>2.616982E-2</v>
+      </c>
+      <c r="J4" t="s">
+        <v>13</v>
+      </c>
+      <c r="K4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="10">
+        <v>0.97536990000000001</v>
+      </c>
+      <c r="E5" s="10">
+        <v>4.4346900000000002E-2</v>
+      </c>
+      <c r="F5" s="10">
+        <v>0</v>
+      </c>
+      <c r="G5" s="10">
+        <v>0</v>
+      </c>
+      <c r="H5" s="10">
+        <v>3.8303839999999999E-2</v>
+      </c>
+      <c r="I5" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="J5" t="s">
+        <v>13</v>
+      </c>
+      <c r="K5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="10">
+        <v>0.98030289999999998</v>
+      </c>
+      <c r="E6" s="10">
+        <v>5.7729389999999998E-2</v>
+      </c>
+      <c r="F6" s="10">
+        <v>0</v>
+      </c>
+      <c r="G6" s="10">
+        <v>0</v>
+      </c>
+      <c r="H6" s="10">
+        <v>3.5186820000000001E-2</v>
+      </c>
+      <c r="I6" s="10">
+        <v>1.9630539999999998E-2</v>
+      </c>
+      <c r="J6" t="s">
+        <v>13</v>
+      </c>
+      <c r="K6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="10">
+        <v>0.97410620000000003</v>
+      </c>
+      <c r="E7" s="10">
+        <v>7.2101689999999996E-2</v>
+      </c>
+      <c r="F7" s="10">
+        <v>0</v>
+      </c>
+      <c r="G7" s="10">
+        <v>0</v>
+      </c>
+      <c r="H7" s="10">
+        <v>3.8765269999999998E-2</v>
+      </c>
+      <c r="I7" s="10">
+        <v>2.311305E-2</v>
+      </c>
+      <c r="J7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="10">
+        <v>0.96659629999999996</v>
+      </c>
+      <c r="E8" s="10">
+        <v>0.23584659999999999</v>
+      </c>
+      <c r="F8" s="10">
+        <v>0</v>
+      </c>
+      <c r="G8" s="10">
+        <v>0</v>
+      </c>
+      <c r="H8" s="10">
+        <v>6.3703869999999996E-2</v>
+      </c>
+      <c r="I8" s="10">
+        <v>3.6133390000000001E-2</v>
+      </c>
+      <c r="J8" t="s">
+        <v>13</v>
+      </c>
+      <c r="K8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="10">
+        <v>0.97459070000000003</v>
+      </c>
+      <c r="E9" s="10">
+        <v>4.8481719999999999E-2</v>
+      </c>
+      <c r="F9" s="10">
+        <v>0</v>
+      </c>
+      <c r="G9" s="10">
+        <v>0</v>
+      </c>
+      <c r="H9" s="10">
+        <v>4.335833E-2</v>
+      </c>
+      <c r="I9" s="10">
+        <v>2.5181100000000001E-2</v>
+      </c>
+      <c r="J9" t="s">
+        <v>13</v>
+      </c>
+      <c r="K9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="10">
+        <v>0.97488839999999999</v>
+      </c>
+      <c r="E10" s="10">
+        <v>3.3324560000000003E-2</v>
+      </c>
+      <c r="F10" s="10">
+        <v>0</v>
+      </c>
+      <c r="G10" s="10">
+        <v>0</v>
+      </c>
+      <c r="H10" s="10">
+        <v>4.1278629999999997E-2</v>
+      </c>
+      <c r="I10" s="10">
+        <v>2.382768E-2</v>
+      </c>
+      <c r="J10" t="s">
+        <v>13</v>
+      </c>
+      <c r="K10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>34</v>
+      </c>
+      <c r="B11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" s="10">
+        <v>0.92894489999999996</v>
+      </c>
+      <c r="E11" s="10">
+        <v>0.36221769999999998</v>
+      </c>
+      <c r="F11" s="10">
+        <v>0</v>
+      </c>
+      <c r="G11" s="10">
+        <v>0</v>
+      </c>
+      <c r="H11" s="10">
+        <v>3.441893E-2</v>
+      </c>
+      <c r="I11" s="10">
+        <v>1.7391859999999999E-2</v>
+      </c>
+      <c r="J11" t="s">
+        <v>23</v>
+      </c>
+      <c r="K11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12" t="s">
+        <v>38</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" s="10">
+        <v>0.95129520000000001</v>
+      </c>
+      <c r="E12" s="10">
+        <v>0.10272679999999999</v>
+      </c>
+      <c r="F12" s="10">
+        <v>0</v>
+      </c>
+      <c r="G12" s="10">
+        <v>0</v>
+      </c>
+      <c r="H12" s="10">
+        <v>3.7500739999999998E-2</v>
+      </c>
+      <c r="I12" s="10">
+        <v>2.1374629999999999E-2</v>
+      </c>
+      <c r="J12" t="s">
+        <v>23</v>
+      </c>
+      <c r="K12" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>34</v>
+      </c>
+      <c r="B13" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" s="10">
+        <v>0.90117579999999997</v>
+      </c>
+      <c r="E13" s="10">
+        <v>0.13307430000000001</v>
+      </c>
+      <c r="F13" s="10">
+        <v>0</v>
+      </c>
+      <c r="G13" s="10">
+        <v>0</v>
+      </c>
+      <c r="H13" s="10">
+        <v>3.0836579999999999E-2</v>
+      </c>
+      <c r="I13" s="10">
+        <v>1.767939E-2</v>
+      </c>
+      <c r="J13" t="s">
+        <v>23</v>
+      </c>
+      <c r="K13" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>34</v>
+      </c>
+      <c r="B14" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14" t="s">
+        <v>23</v>
+      </c>
+      <c r="D14" s="10">
+        <v>0.9283981</v>
+      </c>
+      <c r="E14" s="10">
+        <v>9.3615500000000004E-2</v>
+      </c>
+      <c r="F14" s="10">
+        <v>0</v>
+      </c>
+      <c r="G14" s="10">
+        <v>0</v>
+      </c>
+      <c r="H14" s="10">
+        <v>4.1644519999999997E-2</v>
+      </c>
+      <c r="I14" s="10">
+        <v>2.4525160000000001E-2</v>
+      </c>
+      <c r="J14" t="s">
+        <v>23</v>
+      </c>
+      <c r="K14" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>34</v>
+      </c>
+      <c r="B15" t="s">
+        <v>41</v>
+      </c>
+      <c r="C15" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" s="10">
+        <v>0.86122670000000001</v>
+      </c>
+      <c r="E15" s="10">
+        <v>7.4891079999999999E-2</v>
+      </c>
+      <c r="F15" s="10">
+        <v>0</v>
+      </c>
+      <c r="G15" s="10">
+        <v>0</v>
+      </c>
+      <c r="H15" s="10">
+        <v>0.20309530000000001</v>
+      </c>
+      <c r="I15" s="10">
+        <v>91925.91</v>
+      </c>
+      <c r="J15" t="s">
+        <v>13</v>
+      </c>
+      <c r="K15" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>34</v>
+      </c>
+      <c r="B16" t="s">
+        <v>41</v>
+      </c>
+      <c r="C16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D16" s="10">
+        <v>0.83327399999999996</v>
+      </c>
+      <c r="E16" s="10">
+        <v>3.5344319999999999E-2</v>
+      </c>
+      <c r="F16" s="10">
+        <v>0</v>
+      </c>
+      <c r="G16" s="10">
+        <v>0</v>
+      </c>
+      <c r="H16" s="10">
+        <v>0.16486999999999999</v>
+      </c>
+      <c r="I16" s="10">
+        <v>55532.49</v>
+      </c>
+      <c r="J16" t="s">
+        <v>13</v>
+      </c>
+      <c r="K16" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>34</v>
+      </c>
+      <c r="B17" t="s">
+        <v>41</v>
+      </c>
+      <c r="C17" t="s">
+        <v>15</v>
+      </c>
+      <c r="D17" s="10">
+        <v>0.86044790000000004</v>
+      </c>
+      <c r="E17" s="10">
+        <v>5.7664590000000002E-2</v>
+      </c>
+      <c r="F17" s="10">
+        <v>0</v>
+      </c>
+      <c r="G17" s="10">
+        <v>0</v>
+      </c>
+      <c r="H17" s="10">
+        <v>0.17925869999999999</v>
+      </c>
+      <c r="I17" s="10">
+        <v>50617.4</v>
+      </c>
+      <c r="J17" t="s">
+        <v>13</v>
+      </c>
+      <c r="K17" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>34</v>
+      </c>
+      <c r="B18" t="s">
+        <v>41</v>
+      </c>
+      <c r="C18" t="s">
+        <v>16</v>
+      </c>
+      <c r="D18" s="10">
+        <v>0.8459508</v>
+      </c>
+      <c r="E18" s="10">
+        <v>2.8658110000000001E-2</v>
+      </c>
+      <c r="F18" s="10">
+        <v>0</v>
+      </c>
+      <c r="G18" s="10">
+        <v>0</v>
+      </c>
+      <c r="H18" s="10">
+        <v>0.16873730000000001</v>
+      </c>
+      <c r="I18" s="10">
+        <v>64400.89</v>
+      </c>
+      <c r="J18" t="s">
+        <v>13</v>
+      </c>
+      <c r="K18" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>34</v>
+      </c>
+      <c r="B19" t="s">
+        <v>41</v>
+      </c>
+      <c r="C19" t="s">
+        <v>17</v>
+      </c>
+      <c r="D19" s="10">
+        <v>0.89983329999999995</v>
+      </c>
+      <c r="E19" s="10">
+        <v>2.9619980000000001E-2</v>
+      </c>
+      <c r="F19" s="10">
+        <v>0</v>
+      </c>
+      <c r="G19" s="10">
+        <v>0</v>
+      </c>
+      <c r="H19" s="10">
+        <v>0.13763040000000001</v>
+      </c>
+      <c r="I19" s="10">
+        <v>43313.93</v>
+      </c>
+      <c r="J19" t="s">
+        <v>13</v>
+      </c>
+      <c r="K19" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>34</v>
+      </c>
+      <c r="B20" t="s">
+        <v>41</v>
+      </c>
+      <c r="C20" t="s">
+        <v>18</v>
+      </c>
+      <c r="D20" s="10">
+        <v>0.85242379999999995</v>
+      </c>
+      <c r="E20" s="10">
+        <v>4.6803789999999998E-2</v>
+      </c>
+      <c r="F20" s="10">
+        <v>0</v>
+      </c>
+      <c r="G20" s="10">
+        <v>0</v>
+      </c>
+      <c r="H20" s="10">
+        <v>0.17839669999999999</v>
+      </c>
+      <c r="I20" s="10">
+        <v>77275.259999999995</v>
+      </c>
+      <c r="J20" t="s">
+        <v>13</v>
+      </c>
+      <c r="K20" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>34</v>
+      </c>
+      <c r="B21" t="s">
+        <v>41</v>
+      </c>
+      <c r="C21" t="s">
+        <v>19</v>
+      </c>
+      <c r="D21" s="10">
+        <v>0.84098810000000002</v>
+      </c>
+      <c r="E21" s="10">
+        <v>0.1163207</v>
+      </c>
+      <c r="F21" s="10">
+        <v>0</v>
+      </c>
+      <c r="G21" s="10">
+        <v>0</v>
+      </c>
+      <c r="H21" s="10">
+        <v>0.37666230000000001</v>
+      </c>
+      <c r="I21" s="10">
+        <v>87907.92</v>
+      </c>
+      <c r="J21" t="s">
+        <v>13</v>
+      </c>
+      <c r="K21" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>34</v>
+      </c>
+      <c r="B22" t="s">
+        <v>41</v>
+      </c>
+      <c r="C22" t="s">
+        <v>20</v>
+      </c>
+      <c r="D22" s="10">
+        <v>0.8643535</v>
+      </c>
+      <c r="E22" s="10">
+        <v>2.9077550000000001E-2</v>
+      </c>
+      <c r="F22" s="10">
+        <v>0</v>
+      </c>
+      <c r="G22" s="10">
+        <v>0</v>
+      </c>
+      <c r="H22" s="10">
+        <v>0.22421199999999999</v>
+      </c>
+      <c r="I22" s="10">
+        <v>70170.149999999994</v>
+      </c>
+      <c r="J22" t="s">
+        <v>13</v>
+      </c>
+      <c r="K22" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>34</v>
+      </c>
+      <c r="B23" t="s">
+        <v>41</v>
+      </c>
+      <c r="C23" t="s">
+        <v>13</v>
+      </c>
+      <c r="D23" s="10">
+        <v>0.85624199999999995</v>
+      </c>
+      <c r="E23" s="10">
+        <v>2.046276E-2</v>
+      </c>
+      <c r="F23" s="10">
+        <v>0</v>
+      </c>
+      <c r="G23" s="10">
+        <v>0</v>
+      </c>
+      <c r="H23" s="10">
+        <v>0.2029608</v>
+      </c>
+      <c r="I23" s="10">
+        <v>68007.19</v>
+      </c>
+      <c r="J23" t="s">
+        <v>13</v>
+      </c>
+      <c r="K23" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>34</v>
+      </c>
+      <c r="B24" t="s">
+        <v>41</v>
+      </c>
+      <c r="C24" t="s">
+        <v>21</v>
+      </c>
+      <c r="D24" s="10">
+        <v>0.73908750000000001</v>
+      </c>
+      <c r="E24" s="10">
+        <v>0.19909389999999999</v>
+      </c>
+      <c r="F24" s="10">
+        <v>0</v>
+      </c>
+      <c r="G24" s="10">
+        <v>0</v>
+      </c>
+      <c r="H24" s="10">
+        <v>0.15190629999999999</v>
+      </c>
+      <c r="I24" s="10">
+        <v>23918.63</v>
+      </c>
+      <c r="J24" t="s">
+        <v>23</v>
+      </c>
+      <c r="K24" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>34</v>
+      </c>
+      <c r="B25" t="s">
+        <v>41</v>
+      </c>
+      <c r="C25" t="s">
+        <v>24</v>
+      </c>
+      <c r="D25" s="10">
+        <v>0.85115810000000003</v>
+      </c>
+      <c r="E25" s="10">
+        <v>6.2930680000000003E-2</v>
+      </c>
+      <c r="F25" s="10">
+        <v>0</v>
+      </c>
+      <c r="G25" s="10">
+        <v>0</v>
+      </c>
+      <c r="H25" s="10">
+        <v>0.15509880000000001</v>
+      </c>
+      <c r="I25" s="10">
+        <v>34306.04</v>
+      </c>
+      <c r="J25" t="s">
+        <v>23</v>
+      </c>
+      <c r="K25" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>34</v>
+      </c>
+      <c r="B26" t="s">
+        <v>41</v>
+      </c>
+      <c r="C26" t="s">
+        <v>25</v>
+      </c>
+      <c r="D26" s="10">
+        <v>0.63076960000000004</v>
+      </c>
+      <c r="E26" s="10">
+        <v>8.7562310000000004E-2</v>
+      </c>
+      <c r="F26" s="10">
+        <v>0</v>
+      </c>
+      <c r="G26" s="10">
+        <v>0</v>
+      </c>
+      <c r="H26" s="10">
+        <v>0.15978400000000001</v>
+      </c>
+      <c r="I26" s="10">
+        <v>44012.18</v>
+      </c>
+      <c r="J26" t="s">
+        <v>23</v>
+      </c>
+      <c r="K26" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>34</v>
+      </c>
+      <c r="B27" t="s">
+        <v>41</v>
+      </c>
+      <c r="C27" t="s">
+        <v>23</v>
+      </c>
+      <c r="D27" s="10">
+        <v>0.74320370000000002</v>
+      </c>
+      <c r="E27" s="10">
+        <v>6.7392880000000002E-2</v>
+      </c>
+      <c r="F27" s="10">
+        <v>0</v>
+      </c>
+      <c r="G27" s="10">
+        <v>0</v>
+      </c>
+      <c r="H27" s="10">
+        <v>0.18870110000000001</v>
+      </c>
+      <c r="I27" s="10">
+        <v>52774.79</v>
+      </c>
+      <c r="J27" t="s">
+        <v>23</v>
+      </c>
+      <c r="K27" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="14"/>
+      <c r="G28" s="14"/>
+      <c r="H28" s="4"/>
+      <c r="I28" s="14"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E76DD058-857C-664B-9CE3-61361CE9BAB5}">
   <dimension ref="A1:J131"/>
   <sheetViews>
@@ -4746,12 +5733,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD6E9ED3-B118-FB4D-941A-232D422450BC}">
-  <dimension ref="A1:J27"/>
+  <dimension ref="A1:K28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView zoomScale="125" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4759,12 +5746,12 @@
     <col min="2" max="2" width="23.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>36</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
@@ -4790,8 +5777,11 @@
       <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K1" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -4822,8 +5812,11 @@
       <c r="J2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -4854,8 +5847,11 @@
       <c r="J3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -4886,8 +5882,11 @@
       <c r="J4" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -4912,14 +5911,17 @@
       <c r="H5" s="10">
         <v>3.8303839999999999E-2</v>
       </c>
-      <c r="I5" s="10">
-        <v>2.162478E-2</v>
+      <c r="I5" s="10" t="s">
+        <v>40</v>
       </c>
       <c r="J5" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -4950,8 +5952,11 @@
       <c r="J6" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>18</v>
       </c>
@@ -4982,8 +5987,11 @@
       <c r="J7" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>19</v>
       </c>
@@ -5014,8 +6022,11 @@
       <c r="J8" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>20</v>
       </c>
@@ -5046,8 +6057,11 @@
       <c r="J9" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -5078,8 +6092,11 @@
       <c r="J10" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K10" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>21</v>
       </c>
@@ -5110,8 +6127,11 @@
       <c r="J11" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K11" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>24</v>
       </c>
@@ -5142,8 +6162,11 @@
       <c r="J12" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K12" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>25</v>
       </c>
@@ -5174,8 +6197,11 @@
       <c r="J13" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K13" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>23</v>
       </c>
@@ -5206,8 +6232,11 @@
       <c r="J14" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K14" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>10</v>
       </c>
@@ -5238,8 +6267,11 @@
       <c r="J15" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K15" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -5270,8 +6302,11 @@
       <c r="J16" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K16" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -5302,8 +6337,11 @@
       <c r="J17" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K17" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -5334,8 +6372,11 @@
       <c r="J18" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -5366,8 +6407,11 @@
       <c r="J19" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K19" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>18</v>
       </c>
@@ -5398,8 +6442,11 @@
       <c r="J20" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K20" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>19</v>
       </c>
@@ -5430,8 +6477,11 @@
       <c r="J21" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K21" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>20</v>
       </c>
@@ -5462,8 +6512,11 @@
       <c r="J22" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K22" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>13</v>
       </c>
@@ -5494,8 +6547,11 @@
       <c r="J23" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K23" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>21</v>
       </c>
@@ -5526,8 +6582,11 @@
       <c r="J24" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K24" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>24</v>
       </c>
@@ -5558,8 +6617,11 @@
       <c r="J25" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K25" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>25</v>
       </c>
@@ -5590,8 +6652,11 @@
       <c r="J26" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K26" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>23</v>
       </c>
@@ -5622,18 +6687,29 @@
       <c r="J27" t="s">
         <v>23</v>
       </c>
+      <c r="K27" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="D28" s="10"/>
+      <c r="E28" s="10"/>
+      <c r="F28" s="10"/>
+      <c r="G28" s="10"/>
+      <c r="H28" s="10"/>
+      <c r="I28" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9808F33F-C525-D948-8003-82AA40F8E7ED}">
   <dimension ref="A1:J131"/>
   <sheetViews>
-    <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1:J1048576"/>
+    <sheetView topLeftCell="A115" zoomScale="150" workbookViewId="0">
+      <selection activeCell="A119" sqref="A119:J132"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/Linear Reg Results.xlsx
+++ b/Linear Reg Results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/spencerzeigler/Documents/Flowers Lab/Apatite Nano-CT Project_Feb 2019_June 2020/apatite-project-git/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A324C12B-A3FB-8944-ADDD-D2C0D3172B78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF13CE32-6D3B-9348-997F-DB26F3DE00DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16060" xr2:uid="{1F4BBB5C-D696-084E-A23E-1931277E5F2D}"/>
+    <workbookView xWindow="4800" yWindow="500" windowWidth="28800" windowHeight="15800" xr2:uid="{1F4BBB5C-D696-084E-A23E-1931277E5F2D}"/>
   </bookViews>
   <sheets>
     <sheet name="comp" sheetId="4" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1344" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1715" uniqueCount="51">
   <si>
     <t>gem</t>
   </si>
@@ -164,6 +164,33 @@
   <si>
     <t>volume</t>
   </si>
+  <si>
+    <t>term0</t>
+  </si>
+  <si>
+    <t>term1</t>
+  </si>
+  <si>
+    <t>term2</t>
+  </si>
+  <si>
+    <t>wrong uncert?</t>
+  </si>
+  <si>
+    <t>switched uncert</t>
+  </si>
+  <si>
+    <t>switched.uncertainty</t>
+  </si>
+  <si>
+    <t>switched.uncertainty.all</t>
+  </si>
+  <si>
+    <t>switched.uncertainty.common.boots</t>
+  </si>
+  <si>
+    <t>bootstrapped.common</t>
+  </si>
 </sst>
 </file>
 
@@ -222,7 +249,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -240,6 +267,7 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -554,15 +582,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C39293A-6B04-6F45-BB06-32CE19F4B4C3}">
-  <dimension ref="A1:K28"/>
+  <dimension ref="A1:P152"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
+    <sheetView tabSelected="1" topLeftCell="A114" workbookViewId="0">
+      <selection activeCell="A37" sqref="A37:XFD37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="31.5" customWidth="1"/>
+    <col min="11" max="11" width="15.5" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>36</v>
       </c>
@@ -585,10 +617,10 @@
         <v>6</v>
       </c>
       <c r="H1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="3" t="s">
         <v>7</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>9</v>
@@ -597,7 +629,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>34</v>
       </c>
@@ -620,11 +652,11 @@
         <v>0</v>
       </c>
       <c r="H2" s="10">
+        <v>2.2118390000000002E-2</v>
+      </c>
+      <c r="I2" s="10">
         <v>3.9468969999999999E-2</v>
       </c>
-      <c r="I2" s="10">
-        <v>2.2118390000000002E-2</v>
-      </c>
       <c r="J2" t="s">
         <v>13</v>
       </c>
@@ -632,7 +664,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>34</v>
       </c>
@@ -655,11 +687,11 @@
         <v>0</v>
       </c>
       <c r="H3" s="10">
+        <v>1.9641570000000001E-2</v>
+      </c>
+      <c r="I3" s="10">
         <v>3.3166359999999999E-2</v>
       </c>
-      <c r="I3" s="10">
-        <v>1.9641570000000001E-2</v>
-      </c>
       <c r="J3" t="s">
         <v>13</v>
       </c>
@@ -667,7 +699,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>34</v>
       </c>
@@ -690,11 +722,11 @@
         <v>0</v>
       </c>
       <c r="H4" s="10">
+        <v>2.616982E-2</v>
+      </c>
+      <c r="I4" s="10">
         <v>5.0990269999999997E-2</v>
       </c>
-      <c r="I4" s="10">
-        <v>2.616982E-2</v>
-      </c>
       <c r="J4" t="s">
         <v>13</v>
       </c>
@@ -702,7 +734,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>34</v>
       </c>
@@ -724,12 +756,10 @@
       <c r="G5" s="10">
         <v>0</v>
       </c>
-      <c r="H5" s="10">
+      <c r="H5" s="10"/>
+      <c r="I5" s="10">
         <v>3.8303839999999999E-2</v>
       </c>
-      <c r="I5" s="10" t="s">
-        <v>40</v>
-      </c>
       <c r="J5" t="s">
         <v>13</v>
       </c>
@@ -737,7 +767,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>34</v>
       </c>
@@ -760,11 +790,11 @@
         <v>0</v>
       </c>
       <c r="H6" s="10">
+        <v>1.9630539999999998E-2</v>
+      </c>
+      <c r="I6" s="10">
         <v>3.5186820000000001E-2</v>
       </c>
-      <c r="I6" s="10">
-        <v>1.9630539999999998E-2</v>
-      </c>
       <c r="J6" t="s">
         <v>13</v>
       </c>
@@ -772,7 +802,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>34</v>
       </c>
@@ -795,11 +825,11 @@
         <v>0</v>
       </c>
       <c r="H7" s="10">
+        <v>2.311305E-2</v>
+      </c>
+      <c r="I7" s="10">
         <v>3.8765269999999998E-2</v>
       </c>
-      <c r="I7" s="10">
-        <v>2.311305E-2</v>
-      </c>
       <c r="J7" t="s">
         <v>13</v>
       </c>
@@ -807,7 +837,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>34</v>
       </c>
@@ -830,11 +860,11 @@
         <v>0</v>
       </c>
       <c r="H8" s="10">
+        <v>3.6133390000000001E-2</v>
+      </c>
+      <c r="I8" s="10">
         <v>6.3703869999999996E-2</v>
       </c>
-      <c r="I8" s="10">
-        <v>3.6133390000000001E-2</v>
-      </c>
       <c r="J8" t="s">
         <v>13</v>
       </c>
@@ -842,7 +872,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>34</v>
       </c>
@@ -865,19 +895,24 @@
         <v>0</v>
       </c>
       <c r="H9" s="10">
+        <v>2.5181100000000001E-2</v>
+      </c>
+      <c r="I9" s="10">
         <v>4.335833E-2</v>
       </c>
-      <c r="I9" s="10">
-        <v>2.5181100000000001E-2</v>
-      </c>
       <c r="J9" t="s">
         <v>13</v>
       </c>
       <c r="K9" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L9" s="10"/>
+      <c r="M9" s="10"/>
+      <c r="N9" s="10"/>
+      <c r="O9" s="10"/>
+      <c r="P9" s="10"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>34</v>
       </c>
@@ -900,11 +935,11 @@
         <v>0</v>
       </c>
       <c r="H10" s="10">
+        <v>2.382768E-2</v>
+      </c>
+      <c r="I10" s="10">
         <v>4.1278629999999997E-2</v>
       </c>
-      <c r="I10" s="10">
-        <v>2.382768E-2</v>
-      </c>
       <c r="J10" t="s">
         <v>13</v>
       </c>
@@ -912,7 +947,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>34</v>
       </c>
@@ -935,10 +970,10 @@
         <v>0</v>
       </c>
       <c r="H11" s="10">
+        <v>1.7391859999999999E-2</v>
+      </c>
+      <c r="I11" s="10">
         <v>3.441893E-2</v>
-      </c>
-      <c r="I11" s="10">
-        <v>1.7391859999999999E-2</v>
       </c>
       <c r="J11" t="s">
         <v>23</v>
@@ -947,7 +982,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>34</v>
       </c>
@@ -970,10 +1005,10 @@
         <v>0</v>
       </c>
       <c r="H12" s="10">
+        <v>2.1374629999999999E-2</v>
+      </c>
+      <c r="I12" s="10">
         <v>3.7500739999999998E-2</v>
-      </c>
-      <c r="I12" s="10">
-        <v>2.1374629999999999E-2</v>
       </c>
       <c r="J12" t="s">
         <v>23</v>
@@ -982,7 +1017,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>34</v>
       </c>
@@ -1005,10 +1040,10 @@
         <v>0</v>
       </c>
       <c r="H13" s="10">
+        <v>1.767939E-2</v>
+      </c>
+      <c r="I13" s="10">
         <v>3.0836579999999999E-2</v>
-      </c>
-      <c r="I13" s="10">
-        <v>1.767939E-2</v>
       </c>
       <c r="J13" t="s">
         <v>23</v>
@@ -1017,7 +1052,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>34</v>
       </c>
@@ -1040,10 +1075,10 @@
         <v>0</v>
       </c>
       <c r="H14" s="10">
+        <v>2.4525160000000001E-2</v>
+      </c>
+      <c r="I14" s="10">
         <v>4.1644519999999997E-2</v>
-      </c>
-      <c r="I14" s="10">
-        <v>2.4525160000000001E-2</v>
       </c>
       <c r="J14" t="s">
         <v>23</v>
@@ -1052,7 +1087,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>34</v>
       </c>
@@ -1075,11 +1110,11 @@
         <v>0</v>
       </c>
       <c r="H15" s="10">
+        <v>91925.91</v>
+      </c>
+      <c r="I15" s="10">
         <v>0.20309530000000001</v>
       </c>
-      <c r="I15" s="10">
-        <v>91925.91</v>
-      </c>
       <c r="J15" t="s">
         <v>13</v>
       </c>
@@ -1087,7 +1122,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>34</v>
       </c>
@@ -1110,10 +1145,10 @@
         <v>0</v>
       </c>
       <c r="H16" s="10">
+        <v>55532.49</v>
+      </c>
+      <c r="I16" s="10">
         <v>0.16486999999999999</v>
-      </c>
-      <c r="I16" s="10">
-        <v>55532.49</v>
       </c>
       <c r="J16" t="s">
         <v>13</v>
@@ -1145,10 +1180,10 @@
         <v>0</v>
       </c>
       <c r="H17" s="10">
+        <v>50617.4</v>
+      </c>
+      <c r="I17" s="10">
         <v>0.17925869999999999</v>
-      </c>
-      <c r="I17" s="10">
-        <v>50617.4</v>
       </c>
       <c r="J17" t="s">
         <v>13</v>
@@ -1180,10 +1215,10 @@
         <v>0</v>
       </c>
       <c r="H18" s="10">
+        <v>64400.89</v>
+      </c>
+      <c r="I18" s="10">
         <v>0.16873730000000001</v>
-      </c>
-      <c r="I18" s="10">
-        <v>64400.89</v>
       </c>
       <c r="J18" t="s">
         <v>13</v>
@@ -1215,10 +1250,10 @@
         <v>0</v>
       </c>
       <c r="H19" s="10">
+        <v>43313.93</v>
+      </c>
+      <c r="I19" s="10">
         <v>0.13763040000000001</v>
-      </c>
-      <c r="I19" s="10">
-        <v>43313.93</v>
       </c>
       <c r="J19" t="s">
         <v>13</v>
@@ -1250,10 +1285,10 @@
         <v>0</v>
       </c>
       <c r="H20" s="10">
+        <v>77275.259999999995</v>
+      </c>
+      <c r="I20" s="10">
         <v>0.17839669999999999</v>
-      </c>
-      <c r="I20" s="10">
-        <v>77275.259999999995</v>
       </c>
       <c r="J20" t="s">
         <v>13</v>
@@ -1285,10 +1320,10 @@
         <v>0</v>
       </c>
       <c r="H21" s="10">
+        <v>87907.92</v>
+      </c>
+      <c r="I21" s="10">
         <v>0.37666230000000001</v>
-      </c>
-      <c r="I21" s="10">
-        <v>87907.92</v>
       </c>
       <c r="J21" t="s">
         <v>13</v>
@@ -1320,10 +1355,10 @@
         <v>0</v>
       </c>
       <c r="H22" s="10">
+        <v>70170.149999999994</v>
+      </c>
+      <c r="I22" s="10">
         <v>0.22421199999999999</v>
-      </c>
-      <c r="I22" s="10">
-        <v>70170.149999999994</v>
       </c>
       <c r="J22" t="s">
         <v>13</v>
@@ -1355,10 +1390,10 @@
         <v>0</v>
       </c>
       <c r="H23" s="10">
+        <v>68007.19</v>
+      </c>
+      <c r="I23" s="10">
         <v>0.2029608</v>
-      </c>
-      <c r="I23" s="10">
-        <v>68007.19</v>
       </c>
       <c r="J23" t="s">
         <v>13</v>
@@ -1390,10 +1425,10 @@
         <v>0</v>
       </c>
       <c r="H24" s="10">
+        <v>23918.63</v>
+      </c>
+      <c r="I24" s="10">
         <v>0.15190629999999999</v>
-      </c>
-      <c r="I24" s="10">
-        <v>23918.63</v>
       </c>
       <c r="J24" t="s">
         <v>23</v>
@@ -1425,10 +1460,10 @@
         <v>0</v>
       </c>
       <c r="H25" s="10">
+        <v>34306.04</v>
+      </c>
+      <c r="I25" s="10">
         <v>0.15509880000000001</v>
-      </c>
-      <c r="I25" s="10">
-        <v>34306.04</v>
       </c>
       <c r="J25" t="s">
         <v>23</v>
@@ -1460,10 +1495,10 @@
         <v>0</v>
       </c>
       <c r="H26" s="10">
+        <v>44012.18</v>
+      </c>
+      <c r="I26" s="10">
         <v>0.15978400000000001</v>
-      </c>
-      <c r="I26" s="10">
-        <v>44012.18</v>
       </c>
       <c r="J26" t="s">
         <v>23</v>
@@ -1495,10 +1530,10 @@
         <v>0</v>
       </c>
       <c r="H27" s="10">
+        <v>52774.79</v>
+      </c>
+      <c r="I27" s="10">
         <v>0.18870110000000001</v>
-      </c>
-      <c r="I27" s="10">
-        <v>52774.79</v>
       </c>
       <c r="J27" t="s">
         <v>23</v>
@@ -1508,15 +1543,2275 @@
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="D28" s="4"/>
-      <c r="E28" s="4"/>
-      <c r="F28" s="14"/>
-      <c r="G28" s="14"/>
-      <c r="H28" s="4"/>
-      <c r="I28" s="14"/>
+      <c r="A28" t="s">
+        <v>34</v>
+      </c>
+      <c r="B28" t="s">
+        <v>41</v>
+      </c>
+      <c r="C28" t="s">
+        <v>42</v>
+      </c>
+      <c r="D28" s="10">
+        <v>0.72591519999999998</v>
+      </c>
+      <c r="E28" s="10">
+        <v>5.4824900000000003E-2</v>
+      </c>
+      <c r="F28" s="10">
+        <v>0</v>
+      </c>
+      <c r="G28" s="10">
+        <v>0</v>
+      </c>
+      <c r="H28" s="10">
+        <v>71040.17</v>
+      </c>
+      <c r="K28" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>34</v>
+      </c>
+      <c r="B29" t="s">
+        <v>41</v>
+      </c>
+      <c r="C29" t="s">
+        <v>43</v>
+      </c>
+      <c r="D29" s="10">
+        <v>0.8286192</v>
+      </c>
+      <c r="E29" s="10">
+        <v>2.3192460000000002E-2</v>
+      </c>
+      <c r="F29" s="10">
+        <v>0</v>
+      </c>
+      <c r="G29" s="10">
+        <v>0</v>
+      </c>
+      <c r="H29" s="10">
+        <v>50085.98</v>
+      </c>
+      <c r="K29" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>34</v>
+      </c>
+      <c r="B30" t="s">
+        <v>41</v>
+      </c>
+      <c r="C30" t="s">
+        <v>44</v>
+      </c>
+      <c r="D30" s="10">
+        <v>0.91434890000000002</v>
+      </c>
+      <c r="E30" s="10">
+        <v>2.676079E-2</v>
+      </c>
+      <c r="F30" s="10">
+        <v>0</v>
+      </c>
+      <c r="G30" s="10">
+        <v>0</v>
+      </c>
+      <c r="H30" s="10">
+        <v>62173.23</v>
+      </c>
+      <c r="K30" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>47</v>
+      </c>
+      <c r="B31" t="s">
+        <v>41</v>
+      </c>
+      <c r="C31" t="s">
+        <v>42</v>
+      </c>
+      <c r="D31" s="10">
+        <v>0.72591519999999998</v>
+      </c>
+      <c r="E31" s="10">
+        <v>0.28742410000000002</v>
+      </c>
+      <c r="F31" s="10">
+        <v>0</v>
+      </c>
+      <c r="G31" s="10">
+        <v>0</v>
+      </c>
+      <c r="H31" s="10">
+        <v>71040.17</v>
+      </c>
+      <c r="J31" s="17"/>
+      <c r="K31" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>47</v>
+      </c>
+      <c r="B32" t="s">
+        <v>41</v>
+      </c>
+      <c r="C32" t="s">
+        <v>43</v>
+      </c>
+      <c r="D32" s="10">
+        <v>0.8286192</v>
+      </c>
+      <c r="E32" s="10">
+        <v>8.6988499999999996E-2</v>
+      </c>
+      <c r="F32" s="10">
+        <v>0</v>
+      </c>
+      <c r="G32" s="10">
+        <v>0</v>
+      </c>
+      <c r="H32" s="10">
+        <v>50085.98</v>
+      </c>
+      <c r="J32" s="17"/>
+      <c r="K32" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>47</v>
+      </c>
+      <c r="B33" t="s">
+        <v>41</v>
+      </c>
+      <c r="C33" t="s">
+        <v>44</v>
+      </c>
+      <c r="D33" s="10">
+        <v>0.91434890000000002</v>
+      </c>
+      <c r="E33" s="10">
+        <v>4.4133690000000003E-2</v>
+      </c>
+      <c r="F33" s="10">
+        <v>0</v>
+      </c>
+      <c r="G33" s="10">
+        <v>0</v>
+      </c>
+      <c r="H33" s="10">
+        <v>62173.23</v>
+      </c>
+      <c r="J33" s="17"/>
+      <c r="K33" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>47</v>
+      </c>
+      <c r="B34" t="s">
+        <v>38</v>
+      </c>
+      <c r="C34" t="s">
+        <v>42</v>
+      </c>
+      <c r="K34" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>47</v>
+      </c>
+      <c r="B35" t="s">
+        <v>38</v>
+      </c>
+      <c r="C35" t="s">
+        <v>43</v>
+      </c>
+      <c r="K35" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>47</v>
+      </c>
+      <c r="B36" t="s">
+        <v>38</v>
+      </c>
+      <c r="C36" t="s">
+        <v>44</v>
+      </c>
+      <c r="K36" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>47</v>
+      </c>
+      <c r="B37" t="s">
+        <v>38</v>
+      </c>
+      <c r="C37" t="s">
+        <v>10</v>
+      </c>
+      <c r="D37" s="10">
+        <v>0.97874839999999996</v>
+      </c>
+      <c r="E37" s="10">
+        <v>0.13455600000000001</v>
+      </c>
+      <c r="F37" s="10">
+        <v>0</v>
+      </c>
+      <c r="G37" s="10">
+        <v>0</v>
+      </c>
+      <c r="H37" s="10">
+        <v>2.2118390000000002E-2</v>
+      </c>
+      <c r="I37" s="17"/>
+      <c r="J37" t="s">
+        <v>13</v>
+      </c>
+      <c r="K37" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>47</v>
+      </c>
+      <c r="B38" t="s">
+        <v>38</v>
+      </c>
+      <c r="C38" t="s">
+        <v>14</v>
+      </c>
+      <c r="D38" s="10">
+        <v>0.9771048</v>
+      </c>
+      <c r="E38" s="10">
+        <v>0.1094456</v>
+      </c>
+      <c r="F38" s="10">
+        <v>0</v>
+      </c>
+      <c r="G38" s="10">
+        <v>0</v>
+      </c>
+      <c r="H38" s="10">
+        <v>1.9641570000000001E-2</v>
+      </c>
+      <c r="I38" s="17"/>
+      <c r="J38" t="s">
+        <v>13</v>
+      </c>
+      <c r="K38" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>47</v>
+      </c>
+      <c r="B39" t="s">
+        <v>38</v>
+      </c>
+      <c r="C39" t="s">
+        <v>15</v>
+      </c>
+      <c r="D39" s="10">
+        <v>0.96703380000000005</v>
+      </c>
+      <c r="E39" s="10">
+        <v>0.1881873</v>
+      </c>
+      <c r="F39" s="10">
+        <v>0</v>
+      </c>
+      <c r="G39" s="10">
+        <v>0</v>
+      </c>
+      <c r="H39" s="10">
+        <v>2.616982E-2</v>
+      </c>
+      <c r="I39" s="17"/>
+      <c r="J39" t="s">
+        <v>13</v>
+      </c>
+      <c r="K39" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>47</v>
+      </c>
+      <c r="B40" t="s">
+        <v>38</v>
+      </c>
+      <c r="C40" t="s">
+        <v>16</v>
+      </c>
+      <c r="D40" s="10">
+        <v>0.97536990000000001</v>
+      </c>
+      <c r="E40" s="10">
+        <v>7.4261030000000006E-2</v>
+      </c>
+      <c r="F40" s="10">
+        <v>0</v>
+      </c>
+      <c r="G40" s="10">
+        <v>0</v>
+      </c>
+      <c r="H40" s="10">
+        <v>2.162478E-2</v>
+      </c>
+      <c r="I40" s="17"/>
+      <c r="J40" t="s">
+        <v>13</v>
+      </c>
+      <c r="K40" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>47</v>
+      </c>
+      <c r="B41" t="s">
+        <v>38</v>
+      </c>
+      <c r="C41" t="s">
+        <v>17</v>
+      </c>
+      <c r="D41" s="10">
+        <v>0.98030289999999998</v>
+      </c>
+      <c r="E41" s="10">
+        <v>8.6276549999999994E-2</v>
+      </c>
+      <c r="F41" s="10">
+        <v>0</v>
+      </c>
+      <c r="G41" s="10">
+        <v>0</v>
+      </c>
+      <c r="H41" s="10">
+        <v>1.9630539999999998E-2</v>
+      </c>
+      <c r="I41" s="17"/>
+      <c r="J41" t="s">
+        <v>13</v>
+      </c>
+      <c r="K41" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>47</v>
+      </c>
+      <c r="B42" t="s">
+        <v>38</v>
+      </c>
+      <c r="C42" t="s">
+        <v>18</v>
+      </c>
+      <c r="D42" s="10">
+        <v>0.97410620000000003</v>
+      </c>
+      <c r="E42" s="10">
+        <v>0.117481</v>
+      </c>
+      <c r="F42" s="10">
+        <v>0</v>
+      </c>
+      <c r="G42" s="10">
+        <v>0</v>
+      </c>
+      <c r="H42" s="10">
+        <v>2.311305E-2</v>
+      </c>
+      <c r="I42" s="17"/>
+      <c r="J42" t="s">
+        <v>13</v>
+      </c>
+      <c r="K42" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>47</v>
+      </c>
+      <c r="B43" t="s">
+        <v>38</v>
+      </c>
+      <c r="C43" t="s">
+        <v>19</v>
+      </c>
+      <c r="D43" s="10">
+        <v>0.96659629999999996</v>
+      </c>
+      <c r="E43" s="10">
+        <v>0.2325632</v>
+      </c>
+      <c r="F43" s="10">
+        <v>0</v>
+      </c>
+      <c r="G43" s="10">
+        <v>0</v>
+      </c>
+      <c r="H43" s="10">
+        <v>3.6133390000000001E-2</v>
+      </c>
+      <c r="I43" s="17"/>
+      <c r="J43" t="s">
+        <v>13</v>
+      </c>
+      <c r="K43" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>47</v>
+      </c>
+      <c r="B44" t="s">
+        <v>38</v>
+      </c>
+      <c r="C44" t="s">
+        <v>20</v>
+      </c>
+      <c r="D44" s="10">
+        <v>0.97459070000000003</v>
+      </c>
+      <c r="E44" s="10">
+        <v>7.0521909999999993E-2</v>
+      </c>
+      <c r="F44" s="10">
+        <v>0</v>
+      </c>
+      <c r="G44" s="10">
+        <v>0</v>
+      </c>
+      <c r="H44" s="10">
+        <v>2.5181100000000001E-2</v>
+      </c>
+      <c r="I44" s="17"/>
+      <c r="J44" t="s">
+        <v>13</v>
+      </c>
+      <c r="K44" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>47</v>
+      </c>
+      <c r="B45" t="s">
+        <v>38</v>
+      </c>
+      <c r="C45" t="s">
+        <v>13</v>
+      </c>
+      <c r="D45" s="10">
+        <v>0.97488839999999999</v>
+      </c>
+      <c r="E45" s="10">
+        <v>5.1114119999999999E-2</v>
+      </c>
+      <c r="F45" s="10">
+        <v>0</v>
+      </c>
+      <c r="G45" s="10">
+        <v>0</v>
+      </c>
+      <c r="H45" s="10">
+        <v>2.382768E-2</v>
+      </c>
+      <c r="I45" s="17"/>
+      <c r="J45" t="s">
+        <v>13</v>
+      </c>
+      <c r="K45" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>47</v>
+      </c>
+      <c r="B46" t="s">
+        <v>38</v>
+      </c>
+      <c r="C46" t="s">
+        <v>21</v>
+      </c>
+      <c r="D46" s="10">
+        <v>0.92894489999999996</v>
+      </c>
+      <c r="E46" s="10">
+        <v>1.579637</v>
+      </c>
+      <c r="F46" s="10">
+        <v>0</v>
+      </c>
+      <c r="G46" s="10">
+        <v>0</v>
+      </c>
+      <c r="H46" s="10">
+        <v>1.7391859999999999E-2</v>
+      </c>
+      <c r="I46" s="17"/>
+      <c r="J46" t="s">
+        <v>23</v>
+      </c>
+      <c r="K46" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>47</v>
+      </c>
+      <c r="B47" t="s">
+        <v>38</v>
+      </c>
+      <c r="C47" t="s">
+        <v>24</v>
+      </c>
+      <c r="D47" s="10">
+        <v>0.95129520000000001</v>
+      </c>
+      <c r="E47" s="10">
+        <v>0.3523114</v>
+      </c>
+      <c r="F47" s="10">
+        <v>0</v>
+      </c>
+      <c r="G47" s="10">
+        <v>0</v>
+      </c>
+      <c r="H47" s="10">
+        <v>2.1374629999999999E-2</v>
+      </c>
+      <c r="I47" s="17"/>
+      <c r="J47" t="s">
+        <v>23</v>
+      </c>
+      <c r="K47" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>47</v>
+      </c>
+      <c r="B48" t="s">
+        <v>38</v>
+      </c>
+      <c r="C48" t="s">
+        <v>25</v>
+      </c>
+      <c r="D48" s="10">
+        <v>0.90117579999999997</v>
+      </c>
+      <c r="E48" s="10">
+        <v>0.99819040000000003</v>
+      </c>
+      <c r="F48" s="10">
+        <v>0</v>
+      </c>
+      <c r="G48" s="10">
+        <v>0</v>
+      </c>
+      <c r="H48" s="10">
+        <v>1.767939E-2</v>
+      </c>
+      <c r="I48" s="17"/>
+      <c r="J48" t="s">
+        <v>23</v>
+      </c>
+      <c r="K48" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>47</v>
+      </c>
+      <c r="B49" t="s">
+        <v>38</v>
+      </c>
+      <c r="C49" t="s">
+        <v>23</v>
+      </c>
+      <c r="D49" s="10">
+        <v>0.9283981</v>
+      </c>
+      <c r="E49" s="10">
+        <v>0.37393670000000001</v>
+      </c>
+      <c r="F49" s="10">
+        <v>0</v>
+      </c>
+      <c r="G49" s="10">
+        <v>0</v>
+      </c>
+      <c r="H49" s="10">
+        <v>2.4525160000000001E-2</v>
+      </c>
+      <c r="I49" s="17"/>
+      <c r="J49" t="s">
+        <v>23</v>
+      </c>
+      <c r="K49" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>47</v>
+      </c>
+      <c r="B50" t="s">
+        <v>41</v>
+      </c>
+      <c r="C50" t="s">
+        <v>10</v>
+      </c>
+      <c r="D50" s="10">
+        <v>0.86122670000000001</v>
+      </c>
+      <c r="E50" s="10">
+        <v>0.164884</v>
+      </c>
+      <c r="F50" s="10">
+        <v>0</v>
+      </c>
+      <c r="G50" s="10">
+        <v>0</v>
+      </c>
+      <c r="H50" s="10">
+        <v>91925.91</v>
+      </c>
+      <c r="I50" s="17"/>
+      <c r="J50" t="s">
+        <v>13</v>
+      </c>
+      <c r="K50" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>47</v>
+      </c>
+      <c r="B51" t="s">
+        <v>41</v>
+      </c>
+      <c r="C51" t="s">
+        <v>14</v>
+      </c>
+      <c r="D51" s="10">
+        <v>0.83327399999999996</v>
+      </c>
+      <c r="E51" s="10">
+        <v>0.1416346</v>
+      </c>
+      <c r="F51" s="10">
+        <v>0</v>
+      </c>
+      <c r="G51" s="10">
+        <v>0</v>
+      </c>
+      <c r="H51" s="10">
+        <v>55532.49</v>
+      </c>
+      <c r="I51" s="17"/>
+      <c r="J51" t="s">
+        <v>13</v>
+      </c>
+      <c r="K51" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>47</v>
+      </c>
+      <c r="B52" t="s">
+        <v>41</v>
+      </c>
+      <c r="C52" t="s">
+        <v>15</v>
+      </c>
+      <c r="D52" s="10">
+        <v>0.86044790000000004</v>
+      </c>
+      <c r="E52" s="10">
+        <v>0.1668008</v>
+      </c>
+      <c r="F52" s="10">
+        <v>0</v>
+      </c>
+      <c r="G52" s="10">
+        <v>0</v>
+      </c>
+      <c r="H52" s="10">
+        <v>50617.4</v>
+      </c>
+      <c r="I52" s="17"/>
+      <c r="J52" t="s">
+        <v>13</v>
+      </c>
+      <c r="K52" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>47</v>
+      </c>
+      <c r="B53" t="s">
+        <v>41</v>
+      </c>
+      <c r="C53" t="s">
+        <v>16</v>
+      </c>
+      <c r="D53" s="10">
+        <v>0.8459508</v>
+      </c>
+      <c r="E53" s="10">
+        <v>8.7223949999999995E-2</v>
+      </c>
+      <c r="F53" s="10">
+        <v>0</v>
+      </c>
+      <c r="G53" s="10">
+        <v>0</v>
+      </c>
+      <c r="H53" s="10">
+        <v>64400.89</v>
+      </c>
+      <c r="I53" s="17"/>
+      <c r="J53" t="s">
+        <v>13</v>
+      </c>
+      <c r="K53" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>47</v>
+      </c>
+      <c r="B54" t="s">
+        <v>41</v>
+      </c>
+      <c r="C54" t="s">
+        <v>17</v>
+      </c>
+      <c r="D54" s="10">
+        <v>0.89983329999999995</v>
+      </c>
+      <c r="E54" s="10">
+        <v>7.2771920000000004E-2</v>
+      </c>
+      <c r="F54" s="10">
+        <v>0</v>
+      </c>
+      <c r="G54" s="10">
+        <v>0</v>
+      </c>
+      <c r="H54" s="10">
+        <v>43313.93</v>
+      </c>
+      <c r="I54" s="10"/>
+      <c r="J54" t="s">
+        <v>13</v>
+      </c>
+      <c r="K54" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>47</v>
+      </c>
+      <c r="B55" t="s">
+        <v>41</v>
+      </c>
+      <c r="C55" t="s">
+        <v>18</v>
+      </c>
+      <c r="D55" s="10">
+        <v>0.85242379999999995</v>
+      </c>
+      <c r="E55" s="10">
+        <v>0.1159483</v>
+      </c>
+      <c r="F55" s="10">
+        <v>0</v>
+      </c>
+      <c r="G55" s="10">
+        <v>0</v>
+      </c>
+      <c r="H55" s="10">
+        <v>77275.259999999995</v>
+      </c>
+      <c r="I55" s="17"/>
+      <c r="J55" t="s">
+        <v>13</v>
+      </c>
+      <c r="K55" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>47</v>
+      </c>
+      <c r="B56" t="s">
+        <v>41</v>
+      </c>
+      <c r="C56" t="s">
+        <v>19</v>
+      </c>
+      <c r="D56" s="10">
+        <v>0.84098810000000002</v>
+      </c>
+      <c r="E56" s="10">
+        <v>0.20086270000000001</v>
+      </c>
+      <c r="F56" s="10">
+        <v>0</v>
+      </c>
+      <c r="G56" s="10">
+        <v>0</v>
+      </c>
+      <c r="H56" s="10">
+        <v>87907.92</v>
+      </c>
+      <c r="I56" s="17"/>
+      <c r="J56" t="s">
+        <v>13</v>
+      </c>
+      <c r="K56" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>47</v>
+      </c>
+      <c r="B57" t="s">
+        <v>41</v>
+      </c>
+      <c r="C57" t="s">
+        <v>20</v>
+      </c>
+      <c r="D57" s="10">
+        <v>0.8643535</v>
+      </c>
+      <c r="E57" s="10">
+        <v>6.5263370000000001E-2</v>
+      </c>
+      <c r="F57" s="10">
+        <v>0</v>
+      </c>
+      <c r="G57" s="10">
+        <v>0</v>
+      </c>
+      <c r="H57" s="10">
+        <v>70170.149999999994</v>
+      </c>
+      <c r="I57" s="17"/>
+      <c r="J57" t="s">
+        <v>13</v>
+      </c>
+      <c r="K57" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>47</v>
+      </c>
+      <c r="B58" t="s">
+        <v>41</v>
+      </c>
+      <c r="C58" t="s">
+        <v>13</v>
+      </c>
+      <c r="D58" s="10">
+        <v>0.85624199999999995</v>
+      </c>
+      <c r="E58" s="10">
+        <v>5.1939329999999999E-2</v>
+      </c>
+      <c r="F58" s="10">
+        <v>0</v>
+      </c>
+      <c r="G58" s="10">
+        <v>0</v>
+      </c>
+      <c r="H58" s="10">
+        <v>68007.19</v>
+      </c>
+      <c r="I58" s="17"/>
+      <c r="J58" t="s">
+        <v>13</v>
+      </c>
+      <c r="K58" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>47</v>
+      </c>
+      <c r="B59" t="s">
+        <v>41</v>
+      </c>
+      <c r="C59" t="s">
+        <v>21</v>
+      </c>
+      <c r="D59" s="10">
+        <v>0.73908750000000001</v>
+      </c>
+      <c r="E59" s="10">
+        <v>1.4657530000000001</v>
+      </c>
+      <c r="F59" s="10">
+        <v>0</v>
+      </c>
+      <c r="G59" s="10">
+        <v>0</v>
+      </c>
+      <c r="H59" s="10">
+        <v>23918.63</v>
+      </c>
+      <c r="I59" s="17"/>
+      <c r="J59" t="s">
+        <v>23</v>
+      </c>
+      <c r="K59" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>47</v>
+      </c>
+      <c r="B60" t="s">
+        <v>41</v>
+      </c>
+      <c r="C60" t="s">
+        <v>24</v>
+      </c>
+      <c r="D60" s="10">
+        <v>0.85115810000000003</v>
+      </c>
+      <c r="E60" s="10">
+        <v>0.2307458</v>
+      </c>
+      <c r="F60" s="10">
+        <v>0</v>
+      </c>
+      <c r="G60" s="10">
+        <v>0</v>
+      </c>
+      <c r="H60" s="10">
+        <v>34306.04</v>
+      </c>
+      <c r="I60" s="17"/>
+      <c r="J60" t="s">
+        <v>23</v>
+      </c>
+      <c r="K60" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>47</v>
+      </c>
+      <c r="B61" t="s">
+        <v>41</v>
+      </c>
+      <c r="C61" t="s">
+        <v>25</v>
+      </c>
+      <c r="D61" s="10">
+        <v>0.63076960000000004</v>
+      </c>
+      <c r="E61" s="10">
+        <v>0.93355469999999996</v>
+      </c>
+      <c r="F61" s="10">
+        <v>0</v>
+      </c>
+      <c r="G61" s="10">
+        <v>0</v>
+      </c>
+      <c r="H61" s="10">
+        <v>44012.18</v>
+      </c>
+      <c r="I61" s="17"/>
+      <c r="J61" t="s">
+        <v>23</v>
+      </c>
+      <c r="K61" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>47</v>
+      </c>
+      <c r="B62" t="s">
+        <v>41</v>
+      </c>
+      <c r="C62" t="s">
+        <v>23</v>
+      </c>
+      <c r="D62" s="10">
+        <v>0.74320370000000002</v>
+      </c>
+      <c r="E62" s="10">
+        <v>0.29368509999999998</v>
+      </c>
+      <c r="F62" s="10">
+        <v>0</v>
+      </c>
+      <c r="G62" s="10">
+        <v>0</v>
+      </c>
+      <c r="H62" s="10">
+        <v>52774.79</v>
+      </c>
+      <c r="I62" s="17"/>
+      <c r="J62" t="s">
+        <v>23</v>
+      </c>
+      <c r="K62" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>48</v>
+      </c>
+      <c r="C63" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>48</v>
+      </c>
+      <c r="C64" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>48</v>
+      </c>
+      <c r="C65" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>48</v>
+      </c>
+      <c r="C66" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>48</v>
+      </c>
+      <c r="C67" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>48</v>
+      </c>
+      <c r="C68" t="s">
+        <v>44</v>
+      </c>
+      <c r="D68" s="17"/>
+      <c r="E68" s="17"/>
+      <c r="F68" s="17"/>
+      <c r="G68" s="17"/>
+      <c r="H68" s="17"/>
+      <c r="I68" s="17"/>
+      <c r="J68" s="17"/>
+      <c r="K68" s="17"/>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>48</v>
+      </c>
+      <c r="C69" t="s">
+        <v>10</v>
+      </c>
+      <c r="D69" s="10">
+        <v>0.98038959999999997</v>
+      </c>
+      <c r="E69" s="10">
+        <v>7.8211600000000006E-2</v>
+      </c>
+      <c r="F69" s="10">
+        <v>0</v>
+      </c>
+      <c r="G69" s="10">
+        <v>0</v>
+      </c>
+      <c r="H69" s="10">
+        <v>1.929322E-2</v>
+      </c>
+      <c r="I69" s="17"/>
+      <c r="J69" s="17"/>
+      <c r="K69" s="17"/>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>48</v>
+      </c>
+      <c r="C70" t="s">
+        <v>14</v>
+      </c>
+      <c r="D70" s="10">
+        <v>0.9781493</v>
+      </c>
+      <c r="E70" s="10">
+        <v>6.5003240000000004E-2</v>
+      </c>
+      <c r="F70" s="10">
+        <v>0</v>
+      </c>
+      <c r="G70" s="10">
+        <v>0</v>
+      </c>
+      <c r="H70" s="10">
+        <v>2.124469E-2</v>
+      </c>
+      <c r="I70" s="17"/>
+      <c r="J70" s="17"/>
+      <c r="K70" s="17"/>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>48</v>
+      </c>
+      <c r="C71" t="s">
+        <v>15</v>
+      </c>
+      <c r="D71" s="10">
+        <v>0.97616000000000003</v>
+      </c>
+      <c r="E71" s="10">
+        <v>7.4169959999999993E-2</v>
+      </c>
+      <c r="F71" s="10">
+        <v>0</v>
+      </c>
+      <c r="G71" s="10">
+        <v>0</v>
+      </c>
+      <c r="H71" s="10">
+        <v>2.4888819999999999E-2</v>
+      </c>
+      <c r="I71" s="17"/>
+      <c r="J71" s="17"/>
+      <c r="K71" s="17"/>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>48</v>
+      </c>
+      <c r="C72" t="s">
+        <v>16</v>
+      </c>
+      <c r="D72" s="10">
+        <v>0.9780816</v>
+      </c>
+      <c r="E72" s="10">
+        <v>4.0273539999999997E-2</v>
+      </c>
+      <c r="F72" s="10">
+        <v>0</v>
+      </c>
+      <c r="G72" s="10">
+        <v>0</v>
+      </c>
+      <c r="H72" s="10">
+        <v>2.1650490000000001E-2</v>
+      </c>
+      <c r="I72" s="17"/>
+      <c r="J72" s="17"/>
+      <c r="K72" s="17"/>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>48</v>
+      </c>
+      <c r="C73" t="s">
+        <v>17</v>
+      </c>
+      <c r="D73" s="10">
+        <v>0.98359289999999999</v>
+      </c>
+      <c r="E73" s="10">
+        <v>5.0028780000000002E-2</v>
+      </c>
+      <c r="F73" s="10">
+        <v>0</v>
+      </c>
+      <c r="G73" s="10">
+        <v>0</v>
+      </c>
+      <c r="H73" s="10">
+        <v>2.1733559999999999E-2</v>
+      </c>
+      <c r="I73" s="17"/>
+      <c r="J73" s="17"/>
+      <c r="K73" s="17"/>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>48</v>
+      </c>
+      <c r="C74" t="s">
+        <v>18</v>
+      </c>
+      <c r="D74" s="10">
+        <v>0.97584959999999998</v>
+      </c>
+      <c r="E74" s="10">
+        <v>6.241389E-2</v>
+      </c>
+      <c r="F74" s="10">
+        <v>0</v>
+      </c>
+      <c r="G74" s="10">
+        <v>0</v>
+      </c>
+      <c r="H74" s="10">
+        <v>2.1530549999999999E-2</v>
+      </c>
+      <c r="I74" s="17"/>
+      <c r="J74" s="17"/>
+      <c r="K74" s="17"/>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>48</v>
+      </c>
+      <c r="C75" t="s">
+        <v>19</v>
+      </c>
+      <c r="D75" s="10">
+        <v>0.96719109999999997</v>
+      </c>
+      <c r="E75" s="10">
+        <v>0.13097710000000001</v>
+      </c>
+      <c r="F75" s="10">
+        <v>0</v>
+      </c>
+      <c r="G75" s="10">
+        <v>0</v>
+      </c>
+      <c r="H75" s="10">
+        <v>4.1436279999999999E-2</v>
+      </c>
+      <c r="I75" s="17"/>
+      <c r="J75" s="17"/>
+      <c r="K75" s="17"/>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>48</v>
+      </c>
+      <c r="C76" t="s">
+        <v>20</v>
+      </c>
+      <c r="D76" s="10">
+        <v>0.97643979999999997</v>
+      </c>
+      <c r="E76" s="10">
+        <v>3.8384080000000001E-2</v>
+      </c>
+      <c r="F76" s="10">
+        <v>0</v>
+      </c>
+      <c r="G76" s="10">
+        <v>0</v>
+      </c>
+      <c r="H76" s="10">
+        <v>2.6769899999999999E-2</v>
+      </c>
+      <c r="I76" s="17"/>
+      <c r="J76" s="17"/>
+      <c r="K76" s="17"/>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>48</v>
+      </c>
+      <c r="C77" t="s">
+        <v>13</v>
+      </c>
+      <c r="D77" s="10">
+        <v>0.97710960000000002</v>
+      </c>
+      <c r="E77" s="10">
+        <v>2.7841879999999999E-2</v>
+      </c>
+      <c r="F77" s="10">
+        <v>0</v>
+      </c>
+      <c r="G77" s="10">
+        <v>0</v>
+      </c>
+      <c r="H77" s="10">
+        <v>2.4803809999999999E-2</v>
+      </c>
+      <c r="I77" s="17"/>
+      <c r="J77" s="17"/>
+      <c r="K77" s="17"/>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>48</v>
+      </c>
+      <c r="C78" t="s">
+        <v>21</v>
+      </c>
+      <c r="D78" s="10">
+        <v>0.92894489999999996</v>
+      </c>
+      <c r="E78" s="10">
+        <v>1.579637</v>
+      </c>
+      <c r="F78" s="10">
+        <v>0</v>
+      </c>
+      <c r="G78" s="10">
+        <v>0</v>
+      </c>
+      <c r="H78" s="10">
+        <v>1.7391859999999999E-2</v>
+      </c>
+      <c r="I78" s="17"/>
+      <c r="J78" s="17"/>
+      <c r="K78" s="17"/>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>48</v>
+      </c>
+      <c r="C79" t="s">
+        <v>24</v>
+      </c>
+      <c r="D79" s="10">
+        <v>0.95153010000000005</v>
+      </c>
+      <c r="E79" s="10">
+        <v>0.32526189999999999</v>
+      </c>
+      <c r="F79" s="10">
+        <v>0</v>
+      </c>
+      <c r="G79" s="10">
+        <v>0</v>
+      </c>
+      <c r="H79" s="10">
+        <v>2.070381E-2</v>
+      </c>
+      <c r="I79" s="17"/>
+      <c r="J79" s="17"/>
+      <c r="K79" s="17"/>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>48</v>
+      </c>
+      <c r="C80" t="s">
+        <v>25</v>
+      </c>
+      <c r="D80" s="10">
+        <v>0.89234349999999996</v>
+      </c>
+      <c r="E80" s="10">
+        <v>1.0878559999999999</v>
+      </c>
+      <c r="F80" s="10">
+        <v>0</v>
+      </c>
+      <c r="G80" s="10">
+        <v>0</v>
+      </c>
+      <c r="H80" s="10">
+        <v>2.6455719999999999E-2</v>
+      </c>
+      <c r="I80" s="17"/>
+      <c r="J80" s="17"/>
+      <c r="K80" s="17"/>
+    </row>
+    <row r="81" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>48</v>
+      </c>
+      <c r="C81" t="s">
+        <v>23</v>
+      </c>
+      <c r="D81" s="10">
+        <v>0.92481329999999995</v>
+      </c>
+      <c r="E81" s="10">
+        <v>0.37277120000000002</v>
+      </c>
+      <c r="F81" s="10">
+        <v>0</v>
+      </c>
+      <c r="G81" s="10">
+        <v>0</v>
+      </c>
+      <c r="H81" s="10">
+        <v>2.897918E-2</v>
+      </c>
+      <c r="I81" s="17"/>
+      <c r="J81" s="10"/>
+      <c r="K81" s="10"/>
+      <c r="L81" s="10"/>
+      <c r="M81" s="10"/>
+      <c r="N81" s="10"/>
+    </row>
+    <row r="82" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>48</v>
+      </c>
+      <c r="C82" t="s">
+        <v>10</v>
+      </c>
+      <c r="D82" s="17"/>
+      <c r="E82" s="17"/>
+      <c r="F82" s="17"/>
+      <c r="G82" s="17"/>
+      <c r="H82" s="17"/>
+      <c r="I82" s="17"/>
+      <c r="J82" s="17"/>
+      <c r="K82" s="17"/>
+    </row>
+    <row r="83" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>48</v>
+      </c>
+      <c r="C83" t="s">
+        <v>14</v>
+      </c>
+      <c r="D83" s="17"/>
+      <c r="E83" s="17"/>
+      <c r="F83" s="17"/>
+      <c r="G83" s="17"/>
+      <c r="H83" s="17"/>
+      <c r="I83" s="17"/>
+      <c r="J83" s="17"/>
+      <c r="K83" s="17"/>
+    </row>
+    <row r="84" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>48</v>
+      </c>
+      <c r="C84" t="s">
+        <v>15</v>
+      </c>
+      <c r="D84" s="17"/>
+      <c r="E84" s="17"/>
+      <c r="F84" s="17"/>
+      <c r="G84" s="17"/>
+      <c r="H84" s="17"/>
+      <c r="I84" s="17"/>
+    </row>
+    <row r="85" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>48</v>
+      </c>
+      <c r="C85" t="s">
+        <v>16</v>
+      </c>
+      <c r="D85" s="17"/>
+      <c r="E85" s="17"/>
+      <c r="F85" s="17"/>
+      <c r="G85" s="17"/>
+      <c r="H85" s="17"/>
+      <c r="I85" s="17"/>
+    </row>
+    <row r="86" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>48</v>
+      </c>
+      <c r="C86" t="s">
+        <v>17</v>
+      </c>
+      <c r="D86" s="17"/>
+      <c r="E86" s="17"/>
+      <c r="F86" s="17"/>
+      <c r="G86" s="17"/>
+      <c r="H86" s="17"/>
+      <c r="I86" s="17"/>
+    </row>
+    <row r="87" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>48</v>
+      </c>
+      <c r="C87" t="s">
+        <v>18</v>
+      </c>
+      <c r="D87" s="17"/>
+      <c r="E87" s="17"/>
+      <c r="F87" s="17"/>
+      <c r="G87" s="17"/>
+      <c r="H87" s="17"/>
+      <c r="I87" s="17"/>
+    </row>
+    <row r="88" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>48</v>
+      </c>
+      <c r="C88" t="s">
+        <v>19</v>
+      </c>
+      <c r="D88" s="17"/>
+      <c r="E88" s="17"/>
+      <c r="F88" s="17"/>
+      <c r="G88" s="17"/>
+      <c r="H88" s="17"/>
+      <c r="I88" s="17"/>
+    </row>
+    <row r="89" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>48</v>
+      </c>
+      <c r="C89" t="s">
+        <v>20</v>
+      </c>
+      <c r="D89" s="17"/>
+      <c r="E89" s="17"/>
+      <c r="F89" s="17"/>
+      <c r="G89" s="17"/>
+      <c r="H89" s="17"/>
+      <c r="I89" s="17"/>
+    </row>
+    <row r="90" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>48</v>
+      </c>
+      <c r="C90" t="s">
+        <v>13</v>
+      </c>
+      <c r="D90" s="17"/>
+      <c r="E90" s="17"/>
+      <c r="F90" s="17"/>
+      <c r="G90" s="17"/>
+      <c r="H90" s="17"/>
+      <c r="I90" s="17"/>
+    </row>
+    <row r="91" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>48</v>
+      </c>
+      <c r="C91" t="s">
+        <v>21</v>
+      </c>
+      <c r="D91" s="17"/>
+      <c r="E91" s="17"/>
+      <c r="F91" s="17"/>
+      <c r="G91" s="17"/>
+      <c r="H91" s="17"/>
+      <c r="I91" s="17"/>
+    </row>
+    <row r="92" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>48</v>
+      </c>
+      <c r="C92" t="s">
+        <v>24</v>
+      </c>
+      <c r="D92" s="17"/>
+      <c r="E92" s="17"/>
+      <c r="F92" s="17"/>
+      <c r="G92" s="17"/>
+      <c r="H92" s="17"/>
+      <c r="I92" s="17"/>
+    </row>
+    <row r="93" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
+        <v>48</v>
+      </c>
+      <c r="C93" t="s">
+        <v>25</v>
+      </c>
+      <c r="D93" s="17"/>
+      <c r="E93" s="17"/>
+      <c r="F93" s="17"/>
+      <c r="G93" s="17"/>
+      <c r="H93" s="17"/>
+      <c r="I93" s="17"/>
+    </row>
+    <row r="94" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
+        <v>48</v>
+      </c>
+      <c r="C94" t="s">
+        <v>23</v>
+      </c>
+      <c r="D94" s="17"/>
+      <c r="E94" s="17"/>
+      <c r="F94" s="17"/>
+      <c r="G94" s="17"/>
+      <c r="H94" s="17"/>
+      <c r="I94" s="17"/>
+    </row>
+    <row r="95" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
+        <v>49</v>
+      </c>
+      <c r="C95" t="s">
+        <v>42</v>
+      </c>
+      <c r="D95" s="17"/>
+      <c r="E95" s="17"/>
+      <c r="F95" s="17"/>
+      <c r="G95" s="17"/>
+      <c r="H95" s="17"/>
+      <c r="I95" s="17"/>
+    </row>
+    <row r="96" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
+        <v>49</v>
+      </c>
+      <c r="C96" t="s">
+        <v>43</v>
+      </c>
+      <c r="D96" s="17"/>
+      <c r="E96" s="17"/>
+      <c r="F96" s="17"/>
+      <c r="G96" s="17"/>
+      <c r="H96" s="17"/>
+      <c r="I96" s="17"/>
+    </row>
+    <row r="97" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
+        <v>49</v>
+      </c>
+      <c r="C97" t="s">
+        <v>44</v>
+      </c>
+      <c r="D97" s="17"/>
+      <c r="E97" s="17"/>
+      <c r="F97" s="17"/>
+      <c r="G97" s="17"/>
+      <c r="H97" s="17"/>
+      <c r="I97" s="17"/>
+    </row>
+    <row r="98" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
+        <v>49</v>
+      </c>
+      <c r="C98" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="99" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
+        <v>49</v>
+      </c>
+      <c r="C99" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="100" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
+        <v>49</v>
+      </c>
+      <c r="C100" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="101" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A101" t="s">
+        <v>49</v>
+      </c>
+      <c r="C101" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="102" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A102" t="s">
+        <v>49</v>
+      </c>
+      <c r="C102" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="103" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A103" t="s">
+        <v>49</v>
+      </c>
+      <c r="C103" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="104" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A104" t="s">
+        <v>49</v>
+      </c>
+      <c r="C104" t="s">
+        <v>16</v>
+      </c>
+      <c r="D104" s="10">
+        <v>1.00441</v>
+      </c>
+      <c r="E104" s="10">
+        <v>0.54228920000000003</v>
+      </c>
+      <c r="F104" s="10">
+        <v>0</v>
+      </c>
+      <c r="G104" s="10">
+        <v>0</v>
+      </c>
+      <c r="H104" s="10">
+        <v>9.0740779999999993E-2</v>
+      </c>
+      <c r="J104" s="10"/>
+      <c r="K104" s="10"/>
+      <c r="L104" s="10"/>
+      <c r="M104" s="10"/>
+      <c r="N104" s="10"/>
+      <c r="O104" s="10"/>
+    </row>
+    <row r="105" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A105" t="s">
+        <v>49</v>
+      </c>
+      <c r="C105" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="106" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A106" t="s">
+        <v>49</v>
+      </c>
+      <c r="C106" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="107" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A107" t="s">
+        <v>49</v>
+      </c>
+      <c r="C107" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="108" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A108" t="s">
+        <v>49</v>
+      </c>
+      <c r="C108" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="109" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A109" t="s">
+        <v>49</v>
+      </c>
+      <c r="C109" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="110" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A110" t="s">
+        <v>49</v>
+      </c>
+      <c r="C110" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="111" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A111" t="s">
+        <v>49</v>
+      </c>
+      <c r="C111" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="112" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A112" t="s">
+        <v>49</v>
+      </c>
+      <c r="C112" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A113" t="s">
+        <v>49</v>
+      </c>
+      <c r="C113" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A114" t="s">
+        <v>49</v>
+      </c>
+      <c r="C114" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A115" t="s">
+        <v>49</v>
+      </c>
+      <c r="C115" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A116" t="s">
+        <v>49</v>
+      </c>
+      <c r="C116" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A117" t="s">
+        <v>49</v>
+      </c>
+      <c r="C117" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A118" t="s">
+        <v>49</v>
+      </c>
+      <c r="C118" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A119" t="s">
+        <v>49</v>
+      </c>
+      <c r="C119" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A120" t="s">
+        <v>49</v>
+      </c>
+      <c r="C120" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A121" t="s">
+        <v>49</v>
+      </c>
+      <c r="C121" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A122" t="s">
+        <v>49</v>
+      </c>
+      <c r="C122" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A123" t="s">
+        <v>49</v>
+      </c>
+      <c r="C123" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A124" t="s">
+        <v>49</v>
+      </c>
+      <c r="C124" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A125" t="s">
+        <v>49</v>
+      </c>
+      <c r="C125" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A126" t="s">
+        <v>49</v>
+      </c>
+      <c r="C126" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A127" t="s">
+        <v>50</v>
+      </c>
+      <c r="B127" t="s">
+        <v>38</v>
+      </c>
+      <c r="C127" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A128" t="s">
+        <v>50</v>
+      </c>
+      <c r="B128" t="s">
+        <v>38</v>
+      </c>
+      <c r="C128" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A129" t="s">
+        <v>50</v>
+      </c>
+      <c r="B129" t="s">
+        <v>38</v>
+      </c>
+      <c r="C129" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A130" t="s">
+        <v>50</v>
+      </c>
+      <c r="B130" t="s">
+        <v>38</v>
+      </c>
+      <c r="C130" t="s">
+        <v>16</v>
+      </c>
+      <c r="D130" s="10">
+        <v>0.96697319999999998</v>
+      </c>
+      <c r="E130" s="10">
+        <v>1.7532269999999999E-2</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A131" t="s">
+        <v>50</v>
+      </c>
+      <c r="B131" t="s">
+        <v>38</v>
+      </c>
+      <c r="C131" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A132" t="s">
+        <v>50</v>
+      </c>
+      <c r="B132" t="s">
+        <v>38</v>
+      </c>
+      <c r="C132" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A133" t="s">
+        <v>50</v>
+      </c>
+      <c r="B133" t="s">
+        <v>38</v>
+      </c>
+      <c r="C133" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A134" t="s">
+        <v>50</v>
+      </c>
+      <c r="B134" t="s">
+        <v>38</v>
+      </c>
+      <c r="C134" t="s">
+        <v>20</v>
+      </c>
+      <c r="D134" s="10">
+        <v>0.96848080000000003</v>
+      </c>
+      <c r="E134" s="10">
+        <v>1.131946E-2</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A135" t="s">
+        <v>50</v>
+      </c>
+      <c r="B135" t="s">
+        <v>38</v>
+      </c>
+      <c r="C135" t="s">
+        <v>13</v>
+      </c>
+      <c r="D135" s="10">
+        <v>0.96776340000000005</v>
+      </c>
+      <c r="E135" s="10">
+        <v>9.1905170000000005E-3</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A136" t="s">
+        <v>50</v>
+      </c>
+      <c r="B136" t="s">
+        <v>38</v>
+      </c>
+      <c r="C136" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A137" t="s">
+        <v>50</v>
+      </c>
+      <c r="B137" t="s">
+        <v>38</v>
+      </c>
+      <c r="C137" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A138" t="s">
+        <v>50</v>
+      </c>
+      <c r="B138" t="s">
+        <v>38</v>
+      </c>
+      <c r="C138" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A139" t="s">
+        <v>50</v>
+      </c>
+      <c r="B139" t="s">
+        <v>38</v>
+      </c>
+      <c r="C139" t="s">
+        <v>23</v>
+      </c>
+      <c r="D139" s="10">
+        <v>0.92447060000000003</v>
+      </c>
+      <c r="E139" s="10">
+        <v>1.5865689999999998E-2</v>
+      </c>
+      <c r="F139" s="10"/>
+      <c r="G139" s="10"/>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A140" t="s">
+        <v>50</v>
+      </c>
+      <c r="B140" t="s">
+        <v>41</v>
+      </c>
+      <c r="C140" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A141" t="s">
+        <v>50</v>
+      </c>
+      <c r="B141" t="s">
+        <v>41</v>
+      </c>
+      <c r="C141" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A142" t="s">
+        <v>50</v>
+      </c>
+      <c r="B142" t="s">
+        <v>41</v>
+      </c>
+      <c r="C142" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A143" t="s">
+        <v>50</v>
+      </c>
+      <c r="B143" t="s">
+        <v>41</v>
+      </c>
+      <c r="C143" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A144" t="s">
+        <v>50</v>
+      </c>
+      <c r="B144" t="s">
+        <v>41</v>
+      </c>
+      <c r="C144" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A145" t="s">
+        <v>50</v>
+      </c>
+      <c r="B145" t="s">
+        <v>41</v>
+      </c>
+      <c r="C145" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A146" t="s">
+        <v>50</v>
+      </c>
+      <c r="B146" t="s">
+        <v>41</v>
+      </c>
+      <c r="C146" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A147" t="s">
+        <v>50</v>
+      </c>
+      <c r="B147" t="s">
+        <v>41</v>
+      </c>
+      <c r="C147" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A148" t="s">
+        <v>50</v>
+      </c>
+      <c r="B148" t="s">
+        <v>41</v>
+      </c>
+      <c r="C148" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A149" t="s">
+        <v>50</v>
+      </c>
+      <c r="B149" t="s">
+        <v>41</v>
+      </c>
+      <c r="C149" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A150" t="s">
+        <v>50</v>
+      </c>
+      <c r="B150" t="s">
+        <v>41</v>
+      </c>
+      <c r="C150" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A151" t="s">
+        <v>50</v>
+      </c>
+      <c r="B151" t="s">
+        <v>41</v>
+      </c>
+      <c r="C151" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A152" t="s">
+        <v>50</v>
+      </c>
+      <c r="B152" t="s">
+        <v>41</v>
+      </c>
+      <c r="C152" t="s">
+        <v>23</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -5738,7 +8033,7 @@
   <dimension ref="A1:K28"/>
   <sheetViews>
     <sheetView zoomScale="125" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:K14"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/Linear Reg Results.xlsx
+++ b/Linear Reg Results.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/spencerzeigler/Documents/Flowers Lab/Apatite Nano-CT Project_Feb 2019_June 2020/apatite-project-git/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF13CE32-6D3B-9348-997F-DB26F3DE00DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC8C2B7A-ABEA-134F-9A0F-D678F78CE50E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4800" yWindow="500" windowWidth="28800" windowHeight="15800" xr2:uid="{1F4BBB5C-D696-084E-A23E-1931277E5F2D}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15800" xr2:uid="{1F4BBB5C-D696-084E-A23E-1931277E5F2D}"/>
   </bookViews>
   <sheets>
     <sheet name="comp" sheetId="4" r:id="rId1"/>
-    <sheet name="ft.reg.master" sheetId="1" r:id="rId2"/>
-    <sheet name="ft.comp" sheetId="3" r:id="rId3"/>
-    <sheet name="vol.reg.master" sheetId="2" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="5" r:id="rId2"/>
+    <sheet name="ft.reg.master" sheetId="1" r:id="rId3"/>
+    <sheet name="ft.comp" sheetId="3" r:id="rId4"/>
+    <sheet name="vol.reg.master" sheetId="2" r:id="rId5"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1715" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1835" uniqueCount="51">
   <si>
     <t>gem</t>
   </si>
@@ -174,9 +175,6 @@
     <t>term2</t>
   </si>
   <si>
-    <t>wrong uncert?</t>
-  </si>
-  <si>
     <t>switched uncert</t>
   </si>
   <si>
@@ -191,6 +189,9 @@
   <si>
     <t>bootstrapped.common</t>
   </si>
+  <si>
+    <t>bootstrapped.common= I switched x and y in my regression so it is now s.ft ~ db.ft</t>
+  </si>
 </sst>
 </file>
 
@@ -199,7 +200,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -228,6 +229,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Lucida Grande"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -249,7 +256,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -268,6 +275,7 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -582,16 +590,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C39293A-6B04-6F45-BB06-32CE19F4B4C3}">
-  <dimension ref="A1:P152"/>
+  <dimension ref="A1:P107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A114" workbookViewId="0">
-      <selection activeCell="A37" sqref="A37:XFD37"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="31.5" customWidth="1"/>
-    <col min="11" max="11" width="15.5" customWidth="1"/>
+    <col min="10" max="10" width="15.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -619,14 +627,14 @@
       <c r="H1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="L1" s="3" t="s">
         <v>7</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
@@ -654,14 +662,14 @@
       <c r="H2" s="10">
         <v>2.2118390000000002E-2</v>
       </c>
-      <c r="I2" s="10">
+      <c r="I2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J2" t="s">
+        <v>12</v>
+      </c>
+      <c r="L2" s="10">
         <v>3.9468969999999999E-2</v>
-      </c>
-      <c r="J2" t="s">
-        <v>13</v>
-      </c>
-      <c r="K2" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
@@ -689,14 +697,14 @@
       <c r="H3" s="10">
         <v>1.9641570000000001E-2</v>
       </c>
-      <c r="I3" s="10">
+      <c r="I3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J3" t="s">
+        <v>12</v>
+      </c>
+      <c r="L3" s="10">
         <v>3.3166359999999999E-2</v>
-      </c>
-      <c r="J3" t="s">
-        <v>13</v>
-      </c>
-      <c r="K3" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.2">
@@ -724,14 +732,14 @@
       <c r="H4" s="10">
         <v>2.616982E-2</v>
       </c>
-      <c r="I4" s="10">
+      <c r="I4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J4" t="s">
+        <v>12</v>
+      </c>
+      <c r="L4" s="10">
         <v>5.0990269999999997E-2</v>
-      </c>
-      <c r="J4" t="s">
-        <v>13</v>
-      </c>
-      <c r="K4" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.2">
@@ -757,14 +765,14 @@
         <v>0</v>
       </c>
       <c r="H5" s="10"/>
-      <c r="I5" s="10">
+      <c r="I5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J5" t="s">
+        <v>12</v>
+      </c>
+      <c r="L5" s="10">
         <v>3.8303839999999999E-2</v>
-      </c>
-      <c r="J5" t="s">
-        <v>13</v>
-      </c>
-      <c r="K5" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.2">
@@ -792,14 +800,14 @@
       <c r="H6" s="10">
         <v>1.9630539999999998E-2</v>
       </c>
-      <c r="I6" s="10">
+      <c r="I6" t="s">
+        <v>13</v>
+      </c>
+      <c r="J6" t="s">
+        <v>12</v>
+      </c>
+      <c r="L6" s="10">
         <v>3.5186820000000001E-2</v>
-      </c>
-      <c r="J6" t="s">
-        <v>13</v>
-      </c>
-      <c r="K6" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.2">
@@ -827,14 +835,14 @@
       <c r="H7" s="10">
         <v>2.311305E-2</v>
       </c>
-      <c r="I7" s="10">
+      <c r="I7" t="s">
+        <v>13</v>
+      </c>
+      <c r="J7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L7" s="10">
         <v>3.8765269999999998E-2</v>
-      </c>
-      <c r="J7" t="s">
-        <v>13</v>
-      </c>
-      <c r="K7" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
@@ -862,14 +870,14 @@
       <c r="H8" s="10">
         <v>3.6133390000000001E-2</v>
       </c>
-      <c r="I8" s="10">
+      <c r="I8" t="s">
+        <v>13</v>
+      </c>
+      <c r="J8" t="s">
+        <v>12</v>
+      </c>
+      <c r="L8" s="10">
         <v>6.3703869999999996E-2</v>
-      </c>
-      <c r="J8" t="s">
-        <v>13</v>
-      </c>
-      <c r="K8" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.2">
@@ -897,16 +905,15 @@
       <c r="H9" s="10">
         <v>2.5181100000000001E-2</v>
       </c>
-      <c r="I9" s="10">
+      <c r="I9" t="s">
+        <v>13</v>
+      </c>
+      <c r="J9" t="s">
+        <v>12</v>
+      </c>
+      <c r="L9" s="10">
         <v>4.335833E-2</v>
       </c>
-      <c r="J9" t="s">
-        <v>13</v>
-      </c>
-      <c r="K9" t="s">
-        <v>12</v>
-      </c>
-      <c r="L9" s="10"/>
       <c r="M9" s="10"/>
       <c r="N9" s="10"/>
       <c r="O9" s="10"/>
@@ -937,14 +944,14 @@
       <c r="H10" s="10">
         <v>2.382768E-2</v>
       </c>
-      <c r="I10" s="10">
+      <c r="I10" t="s">
+        <v>13</v>
+      </c>
+      <c r="J10" t="s">
+        <v>12</v>
+      </c>
+      <c r="L10" s="10">
         <v>4.1278629999999997E-2</v>
-      </c>
-      <c r="J10" t="s">
-        <v>13</v>
-      </c>
-      <c r="K10" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.2">
@@ -972,14 +979,14 @@
       <c r="H11" s="10">
         <v>1.7391859999999999E-2</v>
       </c>
-      <c r="I11" s="10">
+      <c r="I11" t="s">
+        <v>23</v>
+      </c>
+      <c r="J11" t="s">
+        <v>22</v>
+      </c>
+      <c r="L11" s="10">
         <v>3.441893E-2</v>
-      </c>
-      <c r="J11" t="s">
-        <v>23</v>
-      </c>
-      <c r="K11" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.2">
@@ -1007,14 +1014,14 @@
       <c r="H12" s="10">
         <v>2.1374629999999999E-2</v>
       </c>
-      <c r="I12" s="10">
+      <c r="I12" t="s">
+        <v>23</v>
+      </c>
+      <c r="J12" t="s">
+        <v>22</v>
+      </c>
+      <c r="L12" s="10">
         <v>3.7500739999999998E-2</v>
-      </c>
-      <c r="J12" t="s">
-        <v>23</v>
-      </c>
-      <c r="K12" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.2">
@@ -1042,14 +1049,14 @@
       <c r="H13" s="10">
         <v>1.767939E-2</v>
       </c>
-      <c r="I13" s="10">
+      <c r="I13" t="s">
+        <v>23</v>
+      </c>
+      <c r="J13" t="s">
+        <v>22</v>
+      </c>
+      <c r="L13" s="10">
         <v>3.0836579999999999E-2</v>
-      </c>
-      <c r="J13" t="s">
-        <v>23</v>
-      </c>
-      <c r="K13" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.2">
@@ -1077,14 +1084,14 @@
       <c r="H14" s="10">
         <v>2.4525160000000001E-2</v>
       </c>
-      <c r="I14" s="10">
+      <c r="I14" t="s">
+        <v>23</v>
+      </c>
+      <c r="J14" t="s">
+        <v>22</v>
+      </c>
+      <c r="L14" s="10">
         <v>4.1644519999999997E-2</v>
-      </c>
-      <c r="J14" t="s">
-        <v>23</v>
-      </c>
-      <c r="K14" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.2">
@@ -1112,14 +1119,14 @@
       <c r="H15" s="10">
         <v>91925.91</v>
       </c>
-      <c r="I15" s="10">
+      <c r="I15" t="s">
+        <v>13</v>
+      </c>
+      <c r="J15" t="s">
+        <v>12</v>
+      </c>
+      <c r="L15" s="10">
         <v>0.20309530000000001</v>
-      </c>
-      <c r="J15" t="s">
-        <v>13</v>
-      </c>
-      <c r="K15" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.2">
@@ -1147,17 +1154,17 @@
       <c r="H16" s="10">
         <v>55532.49</v>
       </c>
-      <c r="I16" s="10">
+      <c r="I16" t="s">
+        <v>13</v>
+      </c>
+      <c r="J16" t="s">
+        <v>12</v>
+      </c>
+      <c r="L16" s="10">
         <v>0.16486999999999999</v>
       </c>
-      <c r="J16" t="s">
-        <v>13</v>
-      </c>
-      <c r="K16" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>34</v>
       </c>
@@ -1182,17 +1189,17 @@
       <c r="H17" s="10">
         <v>50617.4</v>
       </c>
-      <c r="I17" s="10">
+      <c r="I17" t="s">
+        <v>13</v>
+      </c>
+      <c r="J17" t="s">
+        <v>12</v>
+      </c>
+      <c r="L17" s="10">
         <v>0.17925869999999999</v>
       </c>
-      <c r="J17" t="s">
-        <v>13</v>
-      </c>
-      <c r="K17" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>34</v>
       </c>
@@ -1217,17 +1224,17 @@
       <c r="H18" s="10">
         <v>64400.89</v>
       </c>
-      <c r="I18" s="10">
+      <c r="I18" t="s">
+        <v>13</v>
+      </c>
+      <c r="J18" t="s">
+        <v>12</v>
+      </c>
+      <c r="L18" s="10">
         <v>0.16873730000000001</v>
       </c>
-      <c r="J18" t="s">
-        <v>13</v>
-      </c>
-      <c r="K18" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>34</v>
       </c>
@@ -1252,17 +1259,17 @@
       <c r="H19" s="10">
         <v>43313.93</v>
       </c>
-      <c r="I19" s="10">
+      <c r="I19" t="s">
+        <v>13</v>
+      </c>
+      <c r="J19" t="s">
+        <v>12</v>
+      </c>
+      <c r="L19" s="10">
         <v>0.13763040000000001</v>
       </c>
-      <c r="J19" t="s">
-        <v>13</v>
-      </c>
-      <c r="K19" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>34</v>
       </c>
@@ -1287,17 +1294,17 @@
       <c r="H20" s="10">
         <v>77275.259999999995</v>
       </c>
-      <c r="I20" s="10">
+      <c r="I20" t="s">
+        <v>13</v>
+      </c>
+      <c r="J20" t="s">
+        <v>12</v>
+      </c>
+      <c r="L20" s="10">
         <v>0.17839669999999999</v>
       </c>
-      <c r="J20" t="s">
-        <v>13</v>
-      </c>
-      <c r="K20" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>34</v>
       </c>
@@ -1322,17 +1329,17 @@
       <c r="H21" s="10">
         <v>87907.92</v>
       </c>
-      <c r="I21" s="10">
+      <c r="I21" t="s">
+        <v>13</v>
+      </c>
+      <c r="J21" t="s">
+        <v>12</v>
+      </c>
+      <c r="L21" s="10">
         <v>0.37666230000000001</v>
       </c>
-      <c r="J21" t="s">
-        <v>13</v>
-      </c>
-      <c r="K21" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>34</v>
       </c>
@@ -1357,17 +1364,17 @@
       <c r="H22" s="10">
         <v>70170.149999999994</v>
       </c>
-      <c r="I22" s="10">
+      <c r="I22" t="s">
+        <v>13</v>
+      </c>
+      <c r="J22" t="s">
+        <v>12</v>
+      </c>
+      <c r="L22" s="10">
         <v>0.22421199999999999</v>
       </c>
-      <c r="J22" t="s">
-        <v>13</v>
-      </c>
-      <c r="K22" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>34</v>
       </c>
@@ -1392,17 +1399,17 @@
       <c r="H23" s="10">
         <v>68007.19</v>
       </c>
-      <c r="I23" s="10">
+      <c r="I23" t="s">
+        <v>13</v>
+      </c>
+      <c r="J23" t="s">
+        <v>12</v>
+      </c>
+      <c r="L23" s="10">
         <v>0.2029608</v>
       </c>
-      <c r="J23" t="s">
-        <v>13</v>
-      </c>
-      <c r="K23" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>34</v>
       </c>
@@ -1427,17 +1434,17 @@
       <c r="H24" s="10">
         <v>23918.63</v>
       </c>
-      <c r="I24" s="10">
+      <c r="I24" t="s">
+        <v>23</v>
+      </c>
+      <c r="J24" t="s">
+        <v>22</v>
+      </c>
+      <c r="L24" s="10">
         <v>0.15190629999999999</v>
       </c>
-      <c r="J24" t="s">
-        <v>23</v>
-      </c>
-      <c r="K24" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>34</v>
       </c>
@@ -1462,17 +1469,17 @@
       <c r="H25" s="10">
         <v>34306.04</v>
       </c>
-      <c r="I25" s="10">
+      <c r="I25" t="s">
+        <v>23</v>
+      </c>
+      <c r="J25" t="s">
+        <v>22</v>
+      </c>
+      <c r="L25" s="10">
         <v>0.15509880000000001</v>
       </c>
-      <c r="J25" t="s">
-        <v>23</v>
-      </c>
-      <c r="K25" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>34</v>
       </c>
@@ -1497,17 +1504,17 @@
       <c r="H26" s="10">
         <v>44012.18</v>
       </c>
-      <c r="I26" s="10">
+      <c r="I26" t="s">
+        <v>23</v>
+      </c>
+      <c r="J26" t="s">
+        <v>22</v>
+      </c>
+      <c r="L26" s="10">
         <v>0.15978400000000001</v>
       </c>
-      <c r="J26" t="s">
-        <v>23</v>
-      </c>
-      <c r="K26" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>34</v>
       </c>
@@ -1532,17 +1539,17 @@
       <c r="H27" s="10">
         <v>52774.79</v>
       </c>
-      <c r="I27" s="10">
+      <c r="I27" t="s">
+        <v>23</v>
+      </c>
+      <c r="J27" t="s">
+        <v>22</v>
+      </c>
+      <c r="L27" s="10">
         <v>0.18870110000000001</v>
       </c>
-      <c r="J27" t="s">
-        <v>23</v>
-      </c>
-      <c r="K27" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>34</v>
       </c>
@@ -1567,11 +1574,8 @@
       <c r="H28" s="10">
         <v>71040.17</v>
       </c>
-      <c r="K28" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>34</v>
       </c>
@@ -1596,11 +1600,8 @@
       <c r="H29" s="10">
         <v>50085.98</v>
       </c>
-      <c r="K29" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>34</v>
       </c>
@@ -1625,2189 +1626,867 @@
       <c r="H30" s="10">
         <v>62173.23</v>
       </c>
-      <c r="K30" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B31" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C31" t="s">
-        <v>42</v>
-      </c>
-      <c r="D31" s="10">
-        <v>0.72591519999999998</v>
-      </c>
-      <c r="E31" s="10">
-        <v>0.28742410000000002</v>
-      </c>
-      <c r="F31" s="10">
-        <v>0</v>
-      </c>
-      <c r="G31" s="10">
-        <v>0</v>
-      </c>
-      <c r="H31" s="10">
-        <v>71040.17</v>
-      </c>
-      <c r="J31" s="17"/>
-      <c r="K31" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="D31" s="10"/>
+      <c r="E31" s="10"/>
+      <c r="F31" s="17"/>
+      <c r="G31" s="17"/>
+      <c r="I31" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B32" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C32" t="s">
-        <v>43</v>
-      </c>
-      <c r="D32" s="10">
-        <v>0.8286192</v>
-      </c>
-      <c r="E32" s="10">
-        <v>8.6988499999999996E-2</v>
-      </c>
-      <c r="F32" s="10">
-        <v>0</v>
-      </c>
-      <c r="G32" s="10">
-        <v>0</v>
-      </c>
-      <c r="H32" s="10">
-        <v>50085.98</v>
-      </c>
-      <c r="J32" s="17"/>
-      <c r="K32" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+      <c r="D32" s="10"/>
+      <c r="E32" s="10"/>
+      <c r="F32" s="17"/>
+      <c r="G32" s="17"/>
+      <c r="I32" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B33" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C33" t="s">
-        <v>44</v>
-      </c>
-      <c r="D33" s="10">
-        <v>0.91434890000000002</v>
-      </c>
-      <c r="E33" s="10">
-        <v>4.4133690000000003E-2</v>
-      </c>
-      <c r="F33" s="10">
-        <v>0</v>
-      </c>
-      <c r="G33" s="10">
-        <v>0</v>
-      </c>
-      <c r="H33" s="10">
-        <v>62173.23</v>
-      </c>
-      <c r="J33" s="17"/>
-      <c r="K33" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
+        <v>15</v>
+      </c>
+      <c r="D33" s="10"/>
+      <c r="E33" s="10"/>
+      <c r="F33" s="17"/>
+      <c r="G33" s="17"/>
+      <c r="I33" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B34" t="s">
         <v>38</v>
       </c>
       <c r="C34" t="s">
-        <v>42</v>
-      </c>
-      <c r="K34" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+      <c r="D34" s="10"/>
+      <c r="E34" s="10"/>
+      <c r="F34" s="10"/>
+      <c r="G34" s="10"/>
+      <c r="I34" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B35" t="s">
         <v>38</v>
       </c>
       <c r="C35" t="s">
-        <v>43</v>
-      </c>
-      <c r="K35" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
+        <v>17</v>
+      </c>
+      <c r="D35" s="10"/>
+      <c r="E35" s="10"/>
+      <c r="F35" s="17"/>
+      <c r="G35" s="17"/>
+      <c r="I35" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B36" t="s">
         <v>38</v>
       </c>
       <c r="C36" t="s">
-        <v>44</v>
-      </c>
-      <c r="K36" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
+        <v>18</v>
+      </c>
+      <c r="D36" s="10"/>
+      <c r="E36" s="10"/>
+      <c r="F36" s="17"/>
+      <c r="G36" s="17"/>
+      <c r="I36" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B37" t="s">
         <v>38</v>
       </c>
       <c r="C37" t="s">
-        <v>10</v>
-      </c>
-      <c r="D37" s="10">
-        <v>0.97874839999999996</v>
-      </c>
-      <c r="E37" s="10">
-        <v>0.13455600000000001</v>
-      </c>
-      <c r="F37" s="10">
-        <v>0</v>
-      </c>
-      <c r="G37" s="10">
-        <v>0</v>
-      </c>
-      <c r="H37" s="10">
-        <v>2.2118390000000002E-2</v>
-      </c>
-      <c r="I37" s="17"/>
-      <c r="J37" t="s">
-        <v>13</v>
-      </c>
-      <c r="K37" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
+        <v>19</v>
+      </c>
+      <c r="D37" s="10"/>
+      <c r="E37" s="10"/>
+      <c r="F37" s="17"/>
+      <c r="G37" s="17"/>
+      <c r="I37" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B38" t="s">
         <v>38</v>
       </c>
       <c r="C38" t="s">
-        <v>14</v>
-      </c>
-      <c r="D38" s="10">
-        <v>0.9771048</v>
-      </c>
-      <c r="E38" s="10">
-        <v>0.1094456</v>
-      </c>
-      <c r="F38" s="10">
-        <v>0</v>
-      </c>
-      <c r="G38" s="10">
-        <v>0</v>
-      </c>
-      <c r="H38" s="10">
-        <v>1.9641570000000001E-2</v>
-      </c>
-      <c r="I38" s="17"/>
-      <c r="J38" t="s">
-        <v>13</v>
-      </c>
-      <c r="K38" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+      <c r="D38" s="10"/>
+      <c r="E38" s="10"/>
+      <c r="F38" s="10"/>
+      <c r="G38" s="10"/>
+      <c r="I38" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B39" t="s">
         <v>38</v>
       </c>
       <c r="C39" t="s">
-        <v>15</v>
-      </c>
-      <c r="D39" s="10">
-        <v>0.96703380000000005</v>
-      </c>
-      <c r="E39" s="10">
-        <v>0.1881873</v>
-      </c>
-      <c r="F39" s="10">
-        <v>0</v>
-      </c>
-      <c r="G39" s="10">
-        <v>0</v>
-      </c>
-      <c r="H39" s="10">
-        <v>2.616982E-2</v>
-      </c>
-      <c r="I39" s="17"/>
-      <c r="J39" t="s">
-        <v>13</v>
-      </c>
-      <c r="K39" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
+        <v>13</v>
+      </c>
+      <c r="D39" s="10"/>
+      <c r="E39" s="10"/>
+      <c r="F39" s="17"/>
+      <c r="G39" s="17"/>
+      <c r="I39" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B40" t="s">
         <v>38</v>
       </c>
       <c r="C40" t="s">
-        <v>16</v>
-      </c>
-      <c r="D40" s="10">
-        <v>0.97536990000000001</v>
-      </c>
-      <c r="E40" s="10">
-        <v>7.4261030000000006E-2</v>
-      </c>
-      <c r="F40" s="10">
-        <v>0</v>
-      </c>
-      <c r="G40" s="10">
-        <v>0</v>
-      </c>
-      <c r="H40" s="10">
-        <v>2.162478E-2</v>
-      </c>
-      <c r="I40" s="17"/>
-      <c r="J40" t="s">
-        <v>13</v>
-      </c>
-      <c r="K40" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
+        <v>21</v>
+      </c>
+      <c r="D40" s="10"/>
+      <c r="E40" s="10"/>
+      <c r="F40" s="17"/>
+      <c r="G40" s="17"/>
+      <c r="I40" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B41" t="s">
         <v>38</v>
       </c>
       <c r="C41" t="s">
-        <v>17</v>
-      </c>
-      <c r="D41" s="10">
-        <v>0.98030289999999998</v>
-      </c>
-      <c r="E41" s="10">
-        <v>8.6276549999999994E-2</v>
-      </c>
-      <c r="F41" s="10">
-        <v>0</v>
-      </c>
-      <c r="G41" s="10">
-        <v>0</v>
-      </c>
-      <c r="H41" s="10">
-        <v>1.9630539999999998E-2</v>
-      </c>
-      <c r="I41" s="17"/>
-      <c r="J41" t="s">
-        <v>13</v>
-      </c>
-      <c r="K41" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+      <c r="D41" s="10"/>
+      <c r="E41" s="10"/>
+      <c r="F41" s="17"/>
+      <c r="G41" s="17"/>
+      <c r="I41" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B42" t="s">
         <v>38</v>
       </c>
       <c r="C42" t="s">
-        <v>18</v>
-      </c>
-      <c r="D42" s="10">
-        <v>0.97410620000000003</v>
-      </c>
-      <c r="E42" s="10">
-        <v>0.117481</v>
-      </c>
-      <c r="F42" s="10">
-        <v>0</v>
-      </c>
-      <c r="G42" s="10">
-        <v>0</v>
-      </c>
-      <c r="H42" s="10">
-        <v>2.311305E-2</v>
-      </c>
-      <c r="I42" s="17"/>
-      <c r="J42" t="s">
-        <v>13</v>
-      </c>
-      <c r="K42" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
+        <v>25</v>
+      </c>
+      <c r="D42" s="10"/>
+      <c r="E42" s="10"/>
+      <c r="F42" s="17"/>
+      <c r="G42" s="17"/>
+      <c r="I42" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B43" t="s">
         <v>38</v>
       </c>
       <c r="C43" t="s">
-        <v>19</v>
-      </c>
-      <c r="D43" s="10">
-        <v>0.96659629999999996</v>
-      </c>
-      <c r="E43" s="10">
-        <v>0.2325632</v>
-      </c>
-      <c r="F43" s="10">
-        <v>0</v>
-      </c>
-      <c r="G43" s="10">
-        <v>0</v>
-      </c>
-      <c r="H43" s="10">
-        <v>3.6133390000000001E-2</v>
-      </c>
-      <c r="I43" s="17"/>
-      <c r="J43" t="s">
-        <v>13</v>
-      </c>
-      <c r="K43" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+      <c r="D43" s="10"/>
+      <c r="E43" s="10"/>
+      <c r="F43" s="10"/>
+      <c r="G43" s="10"/>
+      <c r="I43" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B44" t="s">
         <v>38</v>
       </c>
       <c r="C44" t="s">
-        <v>20</v>
-      </c>
-      <c r="D44" s="10">
-        <v>0.97459070000000003</v>
-      </c>
-      <c r="E44" s="10">
-        <v>7.0521909999999993E-2</v>
-      </c>
-      <c r="F44" s="10">
-        <v>0</v>
-      </c>
-      <c r="G44" s="10">
-        <v>0</v>
-      </c>
-      <c r="H44" s="10">
-        <v>2.5181100000000001E-2</v>
-      </c>
-      <c r="I44" s="17"/>
-      <c r="J44" t="s">
-        <v>13</v>
-      </c>
-      <c r="K44" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
+        <v>42</v>
+      </c>
+      <c r="D44" s="10"/>
+      <c r="E44" s="10"/>
+      <c r="F44" s="10"/>
+      <c r="G44" s="10"/>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B45" t="s">
         <v>38</v>
       </c>
       <c r="C45" t="s">
-        <v>13</v>
-      </c>
-      <c r="D45" s="10">
-        <v>0.97488839999999999</v>
-      </c>
-      <c r="E45" s="10">
-        <v>5.1114119999999999E-2</v>
-      </c>
-      <c r="F45" s="10">
-        <v>0</v>
-      </c>
-      <c r="G45" s="10">
-        <v>0</v>
-      </c>
-      <c r="H45" s="10">
-        <v>2.382768E-2</v>
-      </c>
-      <c r="I45" s="17"/>
-      <c r="J45" t="s">
-        <v>13</v>
-      </c>
-      <c r="K45" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
+        <v>43</v>
+      </c>
+      <c r="D45" s="10"/>
+      <c r="E45" s="10"/>
+      <c r="F45" s="10"/>
+      <c r="G45" s="10"/>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B46" t="s">
         <v>38</v>
       </c>
       <c r="C46" t="s">
-        <v>21</v>
-      </c>
-      <c r="D46" s="10">
-        <v>0.92894489999999996</v>
-      </c>
-      <c r="E46" s="10">
-        <v>1.579637</v>
-      </c>
-      <c r="F46" s="10">
-        <v>0</v>
-      </c>
-      <c r="G46" s="10">
-        <v>0</v>
-      </c>
-      <c r="H46" s="10">
-        <v>1.7391859999999999E-2</v>
-      </c>
-      <c r="I46" s="17"/>
-      <c r="J46" t="s">
-        <v>23</v>
-      </c>
-      <c r="K46" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
+        <v>44</v>
+      </c>
+      <c r="D46" s="10"/>
+      <c r="E46" s="10"/>
+      <c r="F46" s="10"/>
+      <c r="G46" s="10"/>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B47" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C47" t="s">
-        <v>24</v>
-      </c>
-      <c r="D47" s="10">
-        <v>0.95129520000000001</v>
-      </c>
-      <c r="E47" s="10">
-        <v>0.3523114</v>
-      </c>
-      <c r="F47" s="10">
-        <v>0</v>
-      </c>
-      <c r="G47" s="10">
-        <v>0</v>
-      </c>
-      <c r="H47" s="10">
-        <v>2.1374629999999999E-2</v>
-      </c>
-      <c r="I47" s="17"/>
-      <c r="J47" t="s">
-        <v>23</v>
-      </c>
-      <c r="K47" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="D47" s="10"/>
+      <c r="E47" s="10"/>
+      <c r="F47" s="10"/>
+      <c r="I47" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B48" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C48" t="s">
-        <v>25</v>
-      </c>
-      <c r="D48" s="10">
-        <v>0.90117579999999997</v>
-      </c>
-      <c r="E48" s="10">
-        <v>0.99819040000000003</v>
-      </c>
-      <c r="F48" s="10">
-        <v>0</v>
-      </c>
-      <c r="G48" s="10">
-        <v>0</v>
-      </c>
-      <c r="H48" s="10">
-        <v>1.767939E-2</v>
-      </c>
-      <c r="I48" s="17"/>
-      <c r="J48" t="s">
-        <v>23</v>
-      </c>
-      <c r="K48" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+      <c r="D48" s="10"/>
+      <c r="E48" s="10"/>
+      <c r="F48" s="10"/>
+      <c r="I48" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B49" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C49" t="s">
-        <v>23</v>
-      </c>
-      <c r="D49" s="10">
-        <v>0.9283981</v>
-      </c>
-      <c r="E49" s="10">
-        <v>0.37393670000000001</v>
-      </c>
-      <c r="F49" s="10">
-        <v>0</v>
-      </c>
-      <c r="G49" s="10">
-        <v>0</v>
-      </c>
-      <c r="H49" s="10">
-        <v>2.4525160000000001E-2</v>
-      </c>
-      <c r="I49" s="17"/>
-      <c r="J49" t="s">
-        <v>23</v>
-      </c>
-      <c r="K49" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
+        <v>15</v>
+      </c>
+      <c r="D49" s="10"/>
+      <c r="E49" s="10"/>
+      <c r="F49" s="10"/>
+      <c r="I49" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B50" t="s">
         <v>41</v>
       </c>
       <c r="C50" t="s">
-        <v>10</v>
-      </c>
-      <c r="D50" s="10">
-        <v>0.86122670000000001</v>
-      </c>
-      <c r="E50" s="10">
-        <v>0.164884</v>
-      </c>
-      <c r="F50" s="10">
-        <v>0</v>
-      </c>
-      <c r="G50" s="10">
-        <v>0</v>
-      </c>
-      <c r="H50" s="10">
-        <v>91925.91</v>
-      </c>
-      <c r="I50" s="17"/>
-      <c r="J50" t="s">
-        <v>13</v>
-      </c>
-      <c r="K50" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+      <c r="D50" s="10"/>
+      <c r="E50" s="10"/>
+      <c r="F50" s="10"/>
+      <c r="I50" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B51" t="s">
         <v>41</v>
       </c>
       <c r="C51" t="s">
-        <v>14</v>
-      </c>
-      <c r="D51" s="10">
-        <v>0.83327399999999996</v>
-      </c>
-      <c r="E51" s="10">
-        <v>0.1416346</v>
-      </c>
-      <c r="F51" s="10">
-        <v>0</v>
-      </c>
-      <c r="G51" s="10">
-        <v>0</v>
-      </c>
-      <c r="H51" s="10">
-        <v>55532.49</v>
-      </c>
-      <c r="I51" s="17"/>
-      <c r="J51" t="s">
-        <v>13</v>
-      </c>
-      <c r="K51" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
+        <v>17</v>
+      </c>
+      <c r="D51" s="17"/>
+      <c r="E51" s="17"/>
+      <c r="F51" s="17"/>
+      <c r="I51" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B52" t="s">
         <v>41</v>
       </c>
       <c r="C52" t="s">
-        <v>15</v>
-      </c>
-      <c r="D52" s="10">
-        <v>0.86044790000000004</v>
-      </c>
-      <c r="E52" s="10">
-        <v>0.1668008</v>
-      </c>
-      <c r="F52" s="10">
-        <v>0</v>
-      </c>
-      <c r="G52" s="10">
-        <v>0</v>
-      </c>
-      <c r="H52" s="10">
-        <v>50617.4</v>
-      </c>
-      <c r="I52" s="17"/>
-      <c r="J52" t="s">
-        <v>13</v>
-      </c>
-      <c r="K52" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
+        <v>18</v>
+      </c>
+      <c r="D52" s="17"/>
+      <c r="E52" s="17"/>
+      <c r="F52" s="17"/>
+      <c r="I52" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B53" t="s">
         <v>41</v>
       </c>
       <c r="C53" t="s">
-        <v>16</v>
-      </c>
-      <c r="D53" s="10">
-        <v>0.8459508</v>
-      </c>
-      <c r="E53" s="10">
-        <v>8.7223949999999995E-2</v>
-      </c>
-      <c r="F53" s="10">
-        <v>0</v>
-      </c>
-      <c r="G53" s="10">
-        <v>0</v>
-      </c>
-      <c r="H53" s="10">
-        <v>64400.89</v>
-      </c>
-      <c r="I53" s="17"/>
-      <c r="J53" t="s">
-        <v>13</v>
-      </c>
-      <c r="K53" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
+        <v>19</v>
+      </c>
+      <c r="D53" s="17"/>
+      <c r="E53" s="17"/>
+      <c r="F53" s="17"/>
+      <c r="I53" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B54" t="s">
         <v>41</v>
       </c>
       <c r="C54" t="s">
-        <v>17</v>
-      </c>
-      <c r="D54" s="10">
-        <v>0.89983329999999995</v>
-      </c>
-      <c r="E54" s="10">
-        <v>7.2771920000000004E-2</v>
-      </c>
-      <c r="F54" s="10">
-        <v>0</v>
-      </c>
-      <c r="G54" s="10">
-        <v>0</v>
-      </c>
-      <c r="H54" s="10">
-        <v>43313.93</v>
-      </c>
-      <c r="I54" s="10"/>
-      <c r="J54" t="s">
-        <v>13</v>
-      </c>
-      <c r="K54" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+      <c r="D54" s="10"/>
+      <c r="E54" s="10"/>
+      <c r="F54" s="10"/>
+      <c r="I54" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B55" t="s">
         <v>41</v>
       </c>
       <c r="C55" t="s">
-        <v>18</v>
-      </c>
-      <c r="D55" s="10">
-        <v>0.85242379999999995</v>
-      </c>
-      <c r="E55" s="10">
-        <v>0.1159483</v>
-      </c>
-      <c r="F55" s="10">
-        <v>0</v>
-      </c>
-      <c r="G55" s="10">
-        <v>0</v>
-      </c>
-      <c r="H55" s="10">
-        <v>77275.259999999995</v>
-      </c>
-      <c r="I55" s="17"/>
-      <c r="J55" t="s">
-        <v>13</v>
-      </c>
-      <c r="K55" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
+        <v>13</v>
+      </c>
+      <c r="D55" s="10"/>
+      <c r="E55" s="10"/>
+      <c r="F55" s="10"/>
+      <c r="I55" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B56" t="s">
         <v>41</v>
       </c>
       <c r="C56" t="s">
-        <v>19</v>
-      </c>
-      <c r="D56" s="10">
-        <v>0.84098810000000002</v>
-      </c>
-      <c r="E56" s="10">
-        <v>0.20086270000000001</v>
-      </c>
-      <c r="F56" s="10">
-        <v>0</v>
-      </c>
-      <c r="G56" s="10">
-        <v>0</v>
-      </c>
-      <c r="H56" s="10">
-        <v>87907.92</v>
-      </c>
-      <c r="I56" s="17"/>
-      <c r="J56" t="s">
-        <v>13</v>
-      </c>
-      <c r="K56" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
+        <v>21</v>
+      </c>
+      <c r="D56" s="17"/>
+      <c r="E56" s="17"/>
+      <c r="F56" s="17"/>
+      <c r="I56" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B57" t="s">
         <v>41</v>
       </c>
       <c r="C57" t="s">
-        <v>20</v>
-      </c>
-      <c r="D57" s="10">
-        <v>0.8643535</v>
-      </c>
-      <c r="E57" s="10">
-        <v>6.5263370000000001E-2</v>
-      </c>
-      <c r="F57" s="10">
-        <v>0</v>
-      </c>
-      <c r="G57" s="10">
-        <v>0</v>
-      </c>
-      <c r="H57" s="10">
-        <v>70170.149999999994</v>
-      </c>
-      <c r="I57" s="17"/>
-      <c r="J57" t="s">
-        <v>13</v>
-      </c>
-      <c r="K57" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+      <c r="D57" s="17"/>
+      <c r="E57" s="17"/>
+      <c r="F57" s="17"/>
+      <c r="I57" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B58" t="s">
         <v>41</v>
       </c>
       <c r="C58" t="s">
-        <v>13</v>
-      </c>
-      <c r="D58" s="10">
-        <v>0.85624199999999995</v>
-      </c>
-      <c r="E58" s="10">
-        <v>5.1939329999999999E-2</v>
-      </c>
-      <c r="F58" s="10">
-        <v>0</v>
-      </c>
-      <c r="G58" s="10">
-        <v>0</v>
-      </c>
-      <c r="H58" s="10">
-        <v>68007.19</v>
-      </c>
-      <c r="I58" s="17"/>
-      <c r="J58" t="s">
-        <v>13</v>
-      </c>
-      <c r="K58" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
+        <v>25</v>
+      </c>
+      <c r="D58" s="17"/>
+      <c r="E58" s="17"/>
+      <c r="F58" s="17"/>
+      <c r="I58" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B59" t="s">
         <v>41</v>
       </c>
       <c r="C59" t="s">
-        <v>21</v>
-      </c>
-      <c r="D59" s="10">
-        <v>0.73908750000000001</v>
-      </c>
-      <c r="E59" s="10">
-        <v>1.4657530000000001</v>
-      </c>
-      <c r="F59" s="10">
-        <v>0</v>
-      </c>
-      <c r="G59" s="10">
-        <v>0</v>
-      </c>
-      <c r="H59" s="10">
-        <v>23918.63</v>
-      </c>
-      <c r="I59" s="17"/>
-      <c r="J59" t="s">
-        <v>23</v>
-      </c>
-      <c r="K59" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+      <c r="D59" s="10"/>
+      <c r="E59" s="10"/>
+      <c r="F59" s="10"/>
+      <c r="G59" s="18">
+        <v>181429.9</v>
+      </c>
+      <c r="I59" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="B60" t="s">
         <v>41</v>
       </c>
       <c r="C60" t="s">
-        <v>24</v>
-      </c>
-      <c r="D60" s="10">
-        <v>0.85115810000000003</v>
-      </c>
-      <c r="E60" s="10">
-        <v>0.2307458</v>
-      </c>
-      <c r="F60" s="10">
-        <v>0</v>
-      </c>
-      <c r="G60" s="10">
-        <v>0</v>
-      </c>
-      <c r="H60" s="10">
-        <v>34306.04</v>
-      </c>
-      <c r="I60" s="17"/>
-      <c r="J60" t="s">
-        <v>23</v>
-      </c>
-      <c r="K60" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
+        <v>42</v>
+      </c>
+      <c r="D60" s="10"/>
+      <c r="E60" s="10"/>
+      <c r="F60" s="10"/>
+      <c r="G60" s="10"/>
+      <c r="H60" s="10"/>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="B61" t="s">
         <v>41</v>
       </c>
       <c r="C61" t="s">
-        <v>25</v>
-      </c>
-      <c r="D61" s="10">
-        <v>0.63076960000000004</v>
-      </c>
-      <c r="E61" s="10">
-        <v>0.93355469999999996</v>
-      </c>
-      <c r="F61" s="10">
-        <v>0</v>
-      </c>
-      <c r="G61" s="10">
-        <v>0</v>
-      </c>
-      <c r="H61" s="10">
-        <v>44012.18</v>
-      </c>
-      <c r="I61" s="17"/>
-      <c r="J61" t="s">
-        <v>23</v>
-      </c>
-      <c r="K61" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
+        <v>43</v>
+      </c>
+      <c r="D61" s="10"/>
+      <c r="E61" s="10"/>
+      <c r="F61" s="10"/>
+      <c r="G61" s="10"/>
+      <c r="H61" s="10"/>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="B62" t="s">
         <v>41</v>
       </c>
       <c r="C62" t="s">
-        <v>23</v>
-      </c>
-      <c r="D62" s="10">
-        <v>0.74320370000000002</v>
-      </c>
-      <c r="E62" s="10">
-        <v>0.29368509999999998</v>
-      </c>
-      <c r="F62" s="10">
-        <v>0</v>
-      </c>
-      <c r="G62" s="10">
-        <v>0</v>
-      </c>
-      <c r="H62" s="10">
-        <v>52774.79</v>
-      </c>
-      <c r="I62" s="17"/>
-      <c r="J62" t="s">
-        <v>23</v>
-      </c>
-      <c r="K62" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A63" t="s">
-        <v>48</v>
-      </c>
-      <c r="C63" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A64" t="s">
-        <v>48</v>
-      </c>
-      <c r="C64" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A65" t="s">
-        <v>48</v>
-      </c>
-      <c r="C65" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A66" t="s">
-        <v>48</v>
-      </c>
-      <c r="C66" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A67" t="s">
-        <v>48</v>
-      </c>
-      <c r="C67" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A68" t="s">
-        <v>48</v>
-      </c>
-      <c r="C68" t="s">
-        <v>44</v>
-      </c>
-      <c r="D68" s="17"/>
-      <c r="E68" s="17"/>
-      <c r="F68" s="17"/>
-      <c r="G68" s="17"/>
-      <c r="H68" s="17"/>
-      <c r="I68" s="17"/>
-      <c r="J68" s="17"/>
-      <c r="K68" s="17"/>
-    </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A69" t="s">
-        <v>48</v>
-      </c>
-      <c r="C69" t="s">
-        <v>10</v>
-      </c>
-      <c r="D69" s="10">
-        <v>0.98038959999999997</v>
-      </c>
-      <c r="E69" s="10">
-        <v>7.8211600000000006E-2</v>
-      </c>
-      <c r="F69" s="10">
-        <v>0</v>
-      </c>
-      <c r="G69" s="10">
-        <v>0</v>
-      </c>
-      <c r="H69" s="10">
-        <v>1.929322E-2</v>
-      </c>
-      <c r="I69" s="17"/>
-      <c r="J69" s="17"/>
-      <c r="K69" s="17"/>
-    </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A70" t="s">
-        <v>48</v>
-      </c>
-      <c r="C70" t="s">
-        <v>14</v>
-      </c>
-      <c r="D70" s="10">
-        <v>0.9781493</v>
-      </c>
-      <c r="E70" s="10">
-        <v>6.5003240000000004E-2</v>
-      </c>
-      <c r="F70" s="10">
-        <v>0</v>
-      </c>
-      <c r="G70" s="10">
-        <v>0</v>
-      </c>
-      <c r="H70" s="10">
-        <v>2.124469E-2</v>
-      </c>
-      <c r="I70" s="17"/>
-      <c r="J70" s="17"/>
-      <c r="K70" s="17"/>
-    </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A71" t="s">
-        <v>48</v>
-      </c>
-      <c r="C71" t="s">
-        <v>15</v>
-      </c>
-      <c r="D71" s="10">
-        <v>0.97616000000000003</v>
-      </c>
-      <c r="E71" s="10">
-        <v>7.4169959999999993E-2</v>
-      </c>
-      <c r="F71" s="10">
-        <v>0</v>
-      </c>
-      <c r="G71" s="10">
-        <v>0</v>
-      </c>
-      <c r="H71" s="10">
-        <v>2.4888819999999999E-2</v>
-      </c>
+      <c r="D62" s="10"/>
+      <c r="E62" s="10"/>
+      <c r="F62" s="10"/>
+      <c r="G62" s="10"/>
+      <c r="H62" s="10"/>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="D63" s="10"/>
+      <c r="E63" s="10"/>
+      <c r="F63" s="10"/>
+      <c r="G63" s="10"/>
+      <c r="H63" s="10"/>
+      <c r="L63" s="17"/>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="D64" s="10"/>
+      <c r="E64" s="10"/>
+      <c r="F64" s="10"/>
+      <c r="G64" s="10"/>
+      <c r="H64" s="10"/>
+      <c r="L64" s="17"/>
+    </row>
+    <row r="65" spans="4:12" x14ac:dyDescent="0.2">
+      <c r="D65" s="10"/>
+      <c r="E65" s="10"/>
+      <c r="F65" s="10"/>
+      <c r="G65" s="10"/>
+      <c r="H65" s="10"/>
+      <c r="L65" s="17"/>
+    </row>
+    <row r="71" spans="4:12" x14ac:dyDescent="0.2">
+      <c r="D71" s="17"/>
+      <c r="E71" s="17"/>
+      <c r="F71" s="17"/>
+      <c r="G71" s="17"/>
+      <c r="H71" s="17"/>
       <c r="I71" s="17"/>
       <c r="J71" s="17"/>
-      <c r="K71" s="17"/>
-    </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A72" t="s">
-        <v>48</v>
-      </c>
-      <c r="C72" t="s">
-        <v>16</v>
-      </c>
-      <c r="D72" s="10">
-        <v>0.9780816</v>
-      </c>
-      <c r="E72" s="10">
-        <v>4.0273539999999997E-2</v>
-      </c>
-      <c r="F72" s="10">
-        <v>0</v>
-      </c>
-      <c r="G72" s="10">
-        <v>0</v>
-      </c>
-      <c r="H72" s="10">
-        <v>2.1650490000000001E-2</v>
-      </c>
+      <c r="L71" s="17"/>
+    </row>
+    <row r="72" spans="4:12" x14ac:dyDescent="0.2">
+      <c r="D72" s="10"/>
+      <c r="E72" s="10"/>
+      <c r="F72" s="10"/>
+      <c r="G72" s="10"/>
+      <c r="H72" s="10"/>
       <c r="I72" s="17"/>
       <c r="J72" s="17"/>
-      <c r="K72" s="17"/>
-    </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A73" t="s">
-        <v>48</v>
-      </c>
-      <c r="C73" t="s">
-        <v>17</v>
-      </c>
-      <c r="D73" s="10">
-        <v>0.98359289999999999</v>
-      </c>
-      <c r="E73" s="10">
-        <v>5.0028780000000002E-2</v>
-      </c>
-      <c r="F73" s="10">
-        <v>0</v>
-      </c>
-      <c r="G73" s="10">
-        <v>0</v>
-      </c>
-      <c r="H73" s="10">
-        <v>2.1733559999999999E-2</v>
-      </c>
+      <c r="L72" s="17"/>
+    </row>
+    <row r="73" spans="4:12" x14ac:dyDescent="0.2">
+      <c r="D73" s="10"/>
+      <c r="E73" s="10"/>
+      <c r="F73" s="10"/>
+      <c r="G73" s="10"/>
+      <c r="H73" s="10"/>
       <c r="I73" s="17"/>
       <c r="J73" s="17"/>
-      <c r="K73" s="17"/>
-    </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A74" t="s">
-        <v>48</v>
-      </c>
-      <c r="C74" t="s">
-        <v>18</v>
-      </c>
-      <c r="D74" s="10">
-        <v>0.97584959999999998</v>
-      </c>
-      <c r="E74" s="10">
-        <v>6.241389E-2</v>
-      </c>
-      <c r="F74" s="10">
-        <v>0</v>
-      </c>
-      <c r="G74" s="10">
-        <v>0</v>
-      </c>
-      <c r="H74" s="10">
-        <v>2.1530549999999999E-2</v>
-      </c>
+      <c r="L73" s="17"/>
+    </row>
+    <row r="74" spans="4:12" x14ac:dyDescent="0.2">
+      <c r="D74" s="10"/>
+      <c r="E74" s="10"/>
+      <c r="F74" s="10"/>
+      <c r="G74" s="10"/>
+      <c r="H74" s="10"/>
       <c r="I74" s="17"/>
       <c r="J74" s="17"/>
-      <c r="K74" s="17"/>
-    </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A75" t="s">
-        <v>48</v>
-      </c>
-      <c r="C75" t="s">
-        <v>19</v>
-      </c>
-      <c r="D75" s="10">
-        <v>0.96719109999999997</v>
-      </c>
-      <c r="E75" s="10">
-        <v>0.13097710000000001</v>
-      </c>
-      <c r="F75" s="10">
-        <v>0</v>
-      </c>
-      <c r="G75" s="10">
-        <v>0</v>
-      </c>
-      <c r="H75" s="10">
-        <v>4.1436279999999999E-2</v>
-      </c>
+      <c r="L74" s="17"/>
+    </row>
+    <row r="75" spans="4:12" x14ac:dyDescent="0.2">
+      <c r="D75" s="10"/>
+      <c r="E75" s="10"/>
+      <c r="F75" s="10"/>
+      <c r="G75" s="10"/>
+      <c r="H75" s="10"/>
       <c r="I75" s="17"/>
       <c r="J75" s="17"/>
-      <c r="K75" s="17"/>
-    </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A76" t="s">
-        <v>48</v>
-      </c>
-      <c r="C76" t="s">
-        <v>20</v>
-      </c>
-      <c r="D76" s="10">
-        <v>0.97643979999999997</v>
-      </c>
-      <c r="E76" s="10">
-        <v>3.8384080000000001E-2</v>
-      </c>
-      <c r="F76" s="10">
-        <v>0</v>
-      </c>
-      <c r="G76" s="10">
-        <v>0</v>
-      </c>
-      <c r="H76" s="10">
-        <v>2.6769899999999999E-2</v>
-      </c>
+      <c r="L75" s="17"/>
+    </row>
+    <row r="76" spans="4:12" x14ac:dyDescent="0.2">
+      <c r="D76" s="10"/>
+      <c r="E76" s="10"/>
+      <c r="F76" s="10"/>
+      <c r="G76" s="10"/>
+      <c r="H76" s="10"/>
       <c r="I76" s="17"/>
       <c r="J76" s="17"/>
-      <c r="K76" s="17"/>
-    </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A77" t="s">
-        <v>48</v>
-      </c>
-      <c r="C77" t="s">
-        <v>13</v>
-      </c>
-      <c r="D77" s="10">
-        <v>0.97710960000000002</v>
-      </c>
-      <c r="E77" s="10">
-        <v>2.7841879999999999E-2</v>
-      </c>
-      <c r="F77" s="10">
-        <v>0</v>
-      </c>
-      <c r="G77" s="10">
-        <v>0</v>
-      </c>
-      <c r="H77" s="10">
-        <v>2.4803809999999999E-2</v>
-      </c>
+      <c r="L76" s="17"/>
+    </row>
+    <row r="77" spans="4:12" x14ac:dyDescent="0.2">
+      <c r="D77" s="10"/>
+      <c r="E77" s="10"/>
+      <c r="F77" s="10"/>
+      <c r="G77" s="10"/>
+      <c r="H77" s="10"/>
       <c r="I77" s="17"/>
       <c r="J77" s="17"/>
-      <c r="K77" s="17"/>
-    </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A78" t="s">
-        <v>48</v>
-      </c>
-      <c r="C78" t="s">
-        <v>21</v>
-      </c>
-      <c r="D78" s="10">
-        <v>0.92894489999999996</v>
-      </c>
-      <c r="E78" s="10">
-        <v>1.579637</v>
-      </c>
-      <c r="F78" s="10">
-        <v>0</v>
-      </c>
-      <c r="G78" s="10">
-        <v>0</v>
-      </c>
-      <c r="H78" s="10">
-        <v>1.7391859999999999E-2</v>
-      </c>
+      <c r="L77" s="17"/>
+    </row>
+    <row r="78" spans="4:12" x14ac:dyDescent="0.2">
+      <c r="D78" s="10"/>
+      <c r="E78" s="10"/>
+      <c r="F78" s="10"/>
+      <c r="G78" s="10"/>
+      <c r="H78" s="10"/>
       <c r="I78" s="17"/>
       <c r="J78" s="17"/>
-      <c r="K78" s="17"/>
-    </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A79" t="s">
-        <v>48</v>
-      </c>
-      <c r="C79" t="s">
-        <v>24</v>
-      </c>
-      <c r="D79" s="10">
-        <v>0.95153010000000005</v>
-      </c>
-      <c r="E79" s="10">
-        <v>0.32526189999999999</v>
-      </c>
-      <c r="F79" s="10">
-        <v>0</v>
-      </c>
-      <c r="G79" s="10">
-        <v>0</v>
-      </c>
-      <c r="H79" s="10">
-        <v>2.070381E-2</v>
-      </c>
+      <c r="L78" s="17"/>
+    </row>
+    <row r="79" spans="4:12" x14ac:dyDescent="0.2">
+      <c r="D79" s="10"/>
+      <c r="E79" s="10"/>
+      <c r="F79" s="10"/>
+      <c r="G79" s="10"/>
+      <c r="H79" s="10"/>
       <c r="I79" s="17"/>
       <c r="J79" s="17"/>
-      <c r="K79" s="17"/>
-    </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A80" t="s">
-        <v>48</v>
-      </c>
-      <c r="C80" t="s">
-        <v>25</v>
-      </c>
-      <c r="D80" s="10">
-        <v>0.89234349999999996</v>
-      </c>
-      <c r="E80" s="10">
-        <v>1.0878559999999999</v>
-      </c>
-      <c r="F80" s="10">
-        <v>0</v>
-      </c>
-      <c r="G80" s="10">
-        <v>0</v>
-      </c>
-      <c r="H80" s="10">
-        <v>2.6455719999999999E-2</v>
-      </c>
+      <c r="L79" s="17"/>
+    </row>
+    <row r="80" spans="4:12" x14ac:dyDescent="0.2">
+      <c r="D80" s="10"/>
+      <c r="E80" s="10"/>
+      <c r="F80" s="10"/>
+      <c r="G80" s="10"/>
+      <c r="H80" s="10"/>
       <c r="I80" s="17"/>
       <c r="J80" s="17"/>
-      <c r="K80" s="17"/>
-    </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A81" t="s">
-        <v>48</v>
-      </c>
-      <c r="C81" t="s">
-        <v>23</v>
-      </c>
-      <c r="D81" s="10">
-        <v>0.92481329999999995</v>
-      </c>
-      <c r="E81" s="10">
-        <v>0.37277120000000002</v>
-      </c>
-      <c r="F81" s="10">
-        <v>0</v>
-      </c>
-      <c r="G81" s="10">
-        <v>0</v>
-      </c>
-      <c r="H81" s="10">
-        <v>2.897918E-2</v>
-      </c>
+      <c r="L80" s="17"/>
+    </row>
+    <row r="81" spans="4:14" x14ac:dyDescent="0.2">
+      <c r="D81" s="10"/>
+      <c r="E81" s="10"/>
+      <c r="F81" s="10"/>
+      <c r="G81" s="10"/>
+      <c r="H81" s="10"/>
       <c r="I81" s="17"/>
-      <c r="J81" s="10"/>
-      <c r="K81" s="10"/>
-      <c r="L81" s="10"/>
-      <c r="M81" s="10"/>
-      <c r="N81" s="10"/>
-    </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A82" t="s">
-        <v>48</v>
-      </c>
-      <c r="C82" t="s">
-        <v>10</v>
-      </c>
-      <c r="D82" s="17"/>
-      <c r="E82" s="17"/>
-      <c r="F82" s="17"/>
-      <c r="G82" s="17"/>
-      <c r="H82" s="17"/>
+      <c r="J81" s="17"/>
+      <c r="L81" s="17"/>
+    </row>
+    <row r="82" spans="4:14" x14ac:dyDescent="0.2">
+      <c r="D82" s="10"/>
+      <c r="E82" s="10"/>
+      <c r="F82" s="10"/>
+      <c r="G82" s="10"/>
+      <c r="H82" s="10"/>
       <c r="I82" s="17"/>
       <c r="J82" s="17"/>
-      <c r="K82" s="17"/>
-    </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A83" t="s">
-        <v>48</v>
-      </c>
-      <c r="C83" t="s">
-        <v>14</v>
-      </c>
-      <c r="D83" s="17"/>
-      <c r="E83" s="17"/>
-      <c r="F83" s="17"/>
-      <c r="G83" s="17"/>
-      <c r="H83" s="17"/>
+      <c r="L82" s="17"/>
+    </row>
+    <row r="83" spans="4:14" x14ac:dyDescent="0.2">
+      <c r="D83" s="10"/>
+      <c r="E83" s="10"/>
+      <c r="F83" s="10"/>
+      <c r="G83" s="10"/>
+      <c r="H83" s="10"/>
       <c r="I83" s="17"/>
       <c r="J83" s="17"/>
-      <c r="K83" s="17"/>
-    </row>
-    <row r="84" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A84" t="s">
-        <v>48</v>
-      </c>
-      <c r="C84" t="s">
-        <v>15</v>
-      </c>
-      <c r="D84" s="17"/>
-      <c r="E84" s="17"/>
-      <c r="F84" s="17"/>
-      <c r="G84" s="17"/>
-      <c r="H84" s="17"/>
-      <c r="I84" s="17"/>
-    </row>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A85" t="s">
-        <v>48</v>
-      </c>
-      <c r="C85" t="s">
-        <v>16</v>
-      </c>
+      <c r="L83" s="17"/>
+    </row>
+    <row r="84" spans="4:14" x14ac:dyDescent="0.2">
+      <c r="D84" s="10"/>
+      <c r="E84" s="10"/>
+      <c r="F84" s="10"/>
+      <c r="G84" s="10"/>
+      <c r="H84" s="10"/>
+      <c r="I84" s="10"/>
+      <c r="J84" s="10"/>
+      <c r="L84" s="17"/>
+      <c r="M84" s="10"/>
+      <c r="N84" s="10"/>
+    </row>
+    <row r="85" spans="4:14" x14ac:dyDescent="0.2">
       <c r="D85" s="17"/>
       <c r="E85" s="17"/>
       <c r="F85" s="17"/>
       <c r="G85" s="17"/>
       <c r="H85" s="17"/>
       <c r="I85" s="17"/>
-    </row>
-    <row r="86" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A86" t="s">
-        <v>48</v>
-      </c>
-      <c r="C86" t="s">
-        <v>17</v>
-      </c>
+      <c r="J85" s="17"/>
+      <c r="L85" s="17"/>
+    </row>
+    <row r="86" spans="4:14" x14ac:dyDescent="0.2">
       <c r="D86" s="17"/>
       <c r="E86" s="17"/>
       <c r="F86" s="17"/>
       <c r="G86" s="17"/>
       <c r="H86" s="17"/>
       <c r="I86" s="17"/>
-    </row>
-    <row r="87" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A87" t="s">
-        <v>48</v>
-      </c>
-      <c r="C87" t="s">
-        <v>18</v>
-      </c>
+      <c r="J86" s="17"/>
+      <c r="L86" s="17"/>
+    </row>
+    <row r="87" spans="4:14" x14ac:dyDescent="0.2">
       <c r="D87" s="17"/>
       <c r="E87" s="17"/>
       <c r="F87" s="17"/>
       <c r="G87" s="17"/>
       <c r="H87" s="17"/>
-      <c r="I87" s="17"/>
-    </row>
-    <row r="88" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A88" t="s">
-        <v>48</v>
-      </c>
-      <c r="C88" t="s">
-        <v>19</v>
-      </c>
+      <c r="L87" s="17"/>
+    </row>
+    <row r="88" spans="4:14" x14ac:dyDescent="0.2">
       <c r="D88" s="17"/>
       <c r="E88" s="17"/>
       <c r="F88" s="17"/>
       <c r="G88" s="17"/>
       <c r="H88" s="17"/>
-      <c r="I88" s="17"/>
-    </row>
-    <row r="89" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A89" t="s">
-        <v>48</v>
-      </c>
-      <c r="C89" t="s">
-        <v>20</v>
-      </c>
+      <c r="L88" s="17"/>
+    </row>
+    <row r="89" spans="4:14" x14ac:dyDescent="0.2">
       <c r="D89" s="17"/>
       <c r="E89" s="17"/>
       <c r="F89" s="17"/>
       <c r="G89" s="17"/>
       <c r="H89" s="17"/>
-      <c r="I89" s="17"/>
-    </row>
-    <row r="90" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A90" t="s">
-        <v>48</v>
-      </c>
-      <c r="C90" t="s">
-        <v>13</v>
-      </c>
+      <c r="L89" s="17"/>
+    </row>
+    <row r="90" spans="4:14" x14ac:dyDescent="0.2">
       <c r="D90" s="17"/>
       <c r="E90" s="17"/>
       <c r="F90" s="17"/>
       <c r="G90" s="17"/>
       <c r="H90" s="17"/>
-      <c r="I90" s="17"/>
-    </row>
-    <row r="91" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A91" t="s">
-        <v>48</v>
-      </c>
-      <c r="C91" t="s">
-        <v>21</v>
-      </c>
+      <c r="L90" s="17"/>
+    </row>
+    <row r="91" spans="4:14" x14ac:dyDescent="0.2">
       <c r="D91" s="17"/>
       <c r="E91" s="17"/>
       <c r="F91" s="17"/>
       <c r="G91" s="17"/>
       <c r="H91" s="17"/>
-      <c r="I91" s="17"/>
-    </row>
-    <row r="92" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A92" t="s">
-        <v>48</v>
-      </c>
-      <c r="C92" t="s">
-        <v>24</v>
-      </c>
+      <c r="L91" s="17"/>
+    </row>
+    <row r="92" spans="4:14" x14ac:dyDescent="0.2">
       <c r="D92" s="17"/>
       <c r="E92" s="17"/>
       <c r="F92" s="17"/>
       <c r="G92" s="17"/>
       <c r="H92" s="17"/>
-      <c r="I92" s="17"/>
-    </row>
-    <row r="93" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A93" t="s">
-        <v>48</v>
-      </c>
-      <c r="C93" t="s">
-        <v>25</v>
-      </c>
+      <c r="L92" s="17"/>
+    </row>
+    <row r="93" spans="4:14" x14ac:dyDescent="0.2">
       <c r="D93" s="17"/>
       <c r="E93" s="17"/>
       <c r="F93" s="17"/>
       <c r="G93" s="17"/>
       <c r="H93" s="17"/>
-      <c r="I93" s="17"/>
-    </row>
-    <row r="94" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A94" t="s">
-        <v>48</v>
-      </c>
-      <c r="C94" t="s">
-        <v>23</v>
-      </c>
+      <c r="L93" s="17"/>
+    </row>
+    <row r="94" spans="4:14" x14ac:dyDescent="0.2">
       <c r="D94" s="17"/>
       <c r="E94" s="17"/>
       <c r="F94" s="17"/>
       <c r="G94" s="17"/>
       <c r="H94" s="17"/>
-      <c r="I94" s="17"/>
-    </row>
-    <row r="95" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A95" t="s">
-        <v>49</v>
-      </c>
-      <c r="C95" t="s">
-        <v>42</v>
-      </c>
+      <c r="L94" s="17"/>
+    </row>
+    <row r="95" spans="4:14" x14ac:dyDescent="0.2">
       <c r="D95" s="17"/>
       <c r="E95" s="17"/>
       <c r="F95" s="17"/>
       <c r="G95" s="17"/>
       <c r="H95" s="17"/>
-      <c r="I95" s="17"/>
-    </row>
-    <row r="96" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A96" t="s">
-        <v>49</v>
-      </c>
-      <c r="C96" t="s">
-        <v>43</v>
-      </c>
+      <c r="L95" s="17"/>
+    </row>
+    <row r="96" spans="4:14" x14ac:dyDescent="0.2">
       <c r="D96" s="17"/>
       <c r="E96" s="17"/>
       <c r="F96" s="17"/>
       <c r="G96" s="17"/>
       <c r="H96" s="17"/>
-      <c r="I96" s="17"/>
-    </row>
-    <row r="97" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A97" t="s">
-        <v>49</v>
-      </c>
-      <c r="C97" t="s">
-        <v>44</v>
-      </c>
+      <c r="L96" s="17"/>
+    </row>
+    <row r="97" spans="4:15" x14ac:dyDescent="0.2">
       <c r="D97" s="17"/>
       <c r="E97" s="17"/>
       <c r="F97" s="17"/>
       <c r="G97" s="17"/>
       <c r="H97" s="17"/>
-      <c r="I97" s="17"/>
-    </row>
-    <row r="98" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A98" t="s">
-        <v>49</v>
-      </c>
-      <c r="C98" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="99" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A99" t="s">
-        <v>49</v>
-      </c>
-      <c r="C99" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="100" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A100" t="s">
-        <v>49</v>
-      </c>
-      <c r="C100" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="101" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A101" t="s">
-        <v>49</v>
-      </c>
-      <c r="C101" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="102" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A102" t="s">
-        <v>49</v>
-      </c>
-      <c r="C102" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="103" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A103" t="s">
-        <v>49</v>
-      </c>
-      <c r="C103" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="104" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A104" t="s">
-        <v>49</v>
-      </c>
-      <c r="C104" t="s">
-        <v>16</v>
-      </c>
-      <c r="D104" s="10">
-        <v>1.00441</v>
-      </c>
-      <c r="E104" s="10">
-        <v>0.54228920000000003</v>
-      </c>
-      <c r="F104" s="10">
-        <v>0</v>
-      </c>
-      <c r="G104" s="10">
-        <v>0</v>
-      </c>
-      <c r="H104" s="10">
-        <v>9.0740779999999993E-2</v>
-      </c>
-      <c r="J104" s="10"/>
-      <c r="K104" s="10"/>
-      <c r="L104" s="10"/>
-      <c r="M104" s="10"/>
-      <c r="N104" s="10"/>
-      <c r="O104" s="10"/>
-    </row>
-    <row r="105" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A105" t="s">
-        <v>49</v>
-      </c>
-      <c r="C105" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="106" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A106" t="s">
-        <v>49</v>
-      </c>
-      <c r="C106" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="107" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A107" t="s">
-        <v>49</v>
-      </c>
-      <c r="C107" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="108" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A108" t="s">
-        <v>49</v>
-      </c>
-      <c r="C108" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="109" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A109" t="s">
-        <v>49</v>
-      </c>
-      <c r="C109" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="110" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A110" t="s">
-        <v>49</v>
-      </c>
-      <c r="C110" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="111" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A111" t="s">
-        <v>49</v>
-      </c>
-      <c r="C111" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="112" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A112" t="s">
-        <v>49</v>
-      </c>
-      <c r="C112" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A113" t="s">
-        <v>49</v>
-      </c>
-      <c r="C113" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A114" t="s">
-        <v>49</v>
-      </c>
-      <c r="C114" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A115" t="s">
-        <v>49</v>
-      </c>
-      <c r="C115" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A116" t="s">
-        <v>49</v>
-      </c>
-      <c r="C116" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A117" t="s">
-        <v>49</v>
-      </c>
-      <c r="C117" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A118" t="s">
-        <v>49</v>
-      </c>
-      <c r="C118" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A119" t="s">
-        <v>49</v>
-      </c>
-      <c r="C119" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A120" t="s">
-        <v>49</v>
-      </c>
-      <c r="C120" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A121" t="s">
-        <v>49</v>
-      </c>
-      <c r="C121" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A122" t="s">
-        <v>49</v>
-      </c>
-      <c r="C122" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A123" t="s">
-        <v>49</v>
-      </c>
-      <c r="C123" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A124" t="s">
-        <v>49</v>
-      </c>
-      <c r="C124" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A125" t="s">
-        <v>49</v>
-      </c>
-      <c r="C125" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A126" t="s">
-        <v>49</v>
-      </c>
-      <c r="C126" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A127" t="s">
-        <v>50</v>
-      </c>
-      <c r="B127" t="s">
-        <v>38</v>
-      </c>
-      <c r="C127" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A128" t="s">
-        <v>50</v>
-      </c>
-      <c r="B128" t="s">
-        <v>38</v>
-      </c>
-      <c r="C128" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A129" t="s">
-        <v>50</v>
-      </c>
-      <c r="B129" t="s">
-        <v>38</v>
-      </c>
-      <c r="C129" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A130" t="s">
-        <v>50</v>
-      </c>
-      <c r="B130" t="s">
-        <v>38</v>
-      </c>
-      <c r="C130" t="s">
-        <v>16</v>
-      </c>
-      <c r="D130" s="10">
-        <v>0.96697319999999998</v>
-      </c>
-      <c r="E130" s="10">
-        <v>1.7532269999999999E-2</v>
-      </c>
-    </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A131" t="s">
-        <v>50</v>
-      </c>
-      <c r="B131" t="s">
-        <v>38</v>
-      </c>
-      <c r="C131" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A132" t="s">
-        <v>50</v>
-      </c>
-      <c r="B132" t="s">
-        <v>38</v>
-      </c>
-      <c r="C132" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A133" t="s">
-        <v>50</v>
-      </c>
-      <c r="B133" t="s">
-        <v>38</v>
-      </c>
-      <c r="C133" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A134" t="s">
-        <v>50</v>
-      </c>
-      <c r="B134" t="s">
-        <v>38</v>
-      </c>
-      <c r="C134" t="s">
-        <v>20</v>
-      </c>
-      <c r="D134" s="10">
-        <v>0.96848080000000003</v>
-      </c>
-      <c r="E134" s="10">
-        <v>1.131946E-2</v>
-      </c>
-    </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A135" t="s">
-        <v>50</v>
-      </c>
-      <c r="B135" t="s">
-        <v>38</v>
-      </c>
-      <c r="C135" t="s">
-        <v>13</v>
-      </c>
-      <c r="D135" s="10">
-        <v>0.96776340000000005</v>
-      </c>
-      <c r="E135" s="10">
-        <v>9.1905170000000005E-3</v>
-      </c>
-    </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A136" t="s">
-        <v>50</v>
-      </c>
-      <c r="B136" t="s">
-        <v>38</v>
-      </c>
-      <c r="C136" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A137" t="s">
-        <v>50</v>
-      </c>
-      <c r="B137" t="s">
-        <v>38</v>
-      </c>
-      <c r="C137" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A138" t="s">
-        <v>50</v>
-      </c>
-      <c r="B138" t="s">
-        <v>38</v>
-      </c>
-      <c r="C138" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A139" t="s">
-        <v>50</v>
-      </c>
-      <c r="B139" t="s">
-        <v>38</v>
-      </c>
-      <c r="C139" t="s">
-        <v>23</v>
-      </c>
-      <c r="D139" s="10">
-        <v>0.92447060000000003</v>
-      </c>
-      <c r="E139" s="10">
-        <v>1.5865689999999998E-2</v>
-      </c>
-      <c r="F139" s="10"/>
-      <c r="G139" s="10"/>
-    </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A140" t="s">
-        <v>50</v>
-      </c>
-      <c r="B140" t="s">
-        <v>41</v>
-      </c>
-      <c r="C140" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A141" t="s">
-        <v>50</v>
-      </c>
-      <c r="B141" t="s">
-        <v>41</v>
-      </c>
-      <c r="C141" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A142" t="s">
-        <v>50</v>
-      </c>
-      <c r="B142" t="s">
-        <v>41</v>
-      </c>
-      <c r="C142" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A143" t="s">
-        <v>50</v>
-      </c>
-      <c r="B143" t="s">
-        <v>41</v>
-      </c>
-      <c r="C143" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A144" t="s">
-        <v>50</v>
-      </c>
-      <c r="B144" t="s">
-        <v>41</v>
-      </c>
-      <c r="C144" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A145" t="s">
-        <v>50</v>
-      </c>
-      <c r="B145" t="s">
-        <v>41</v>
-      </c>
-      <c r="C145" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A146" t="s">
-        <v>50</v>
-      </c>
-      <c r="B146" t="s">
-        <v>41</v>
-      </c>
-      <c r="C146" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A147" t="s">
-        <v>50</v>
-      </c>
-      <c r="B147" t="s">
-        <v>41</v>
-      </c>
-      <c r="C147" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A148" t="s">
-        <v>50</v>
-      </c>
-      <c r="B148" t="s">
-        <v>41</v>
-      </c>
-      <c r="C148" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A149" t="s">
-        <v>50</v>
-      </c>
-      <c r="B149" t="s">
-        <v>41</v>
-      </c>
-      <c r="C149" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A150" t="s">
-        <v>50</v>
-      </c>
-      <c r="B150" t="s">
-        <v>41</v>
-      </c>
-      <c r="C150" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A151" t="s">
-        <v>50</v>
-      </c>
-      <c r="B151" t="s">
-        <v>41</v>
-      </c>
-      <c r="C151" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A152" t="s">
-        <v>50</v>
-      </c>
-      <c r="B152" t="s">
-        <v>41</v>
-      </c>
-      <c r="C152" t="s">
-        <v>23</v>
-      </c>
+      <c r="L97" s="17"/>
+    </row>
+    <row r="98" spans="4:15" x14ac:dyDescent="0.2">
+      <c r="D98" s="17"/>
+      <c r="E98" s="17"/>
+      <c r="F98" s="17"/>
+      <c r="G98" s="17"/>
+      <c r="H98" s="17"/>
+      <c r="L98" s="17"/>
+    </row>
+    <row r="99" spans="4:15" x14ac:dyDescent="0.2">
+      <c r="D99" s="17"/>
+      <c r="E99" s="17"/>
+      <c r="F99" s="17"/>
+      <c r="G99" s="17"/>
+      <c r="H99" s="17"/>
+      <c r="L99" s="17"/>
+    </row>
+    <row r="100" spans="4:15" x14ac:dyDescent="0.2">
+      <c r="D100" s="17"/>
+      <c r="E100" s="17"/>
+      <c r="F100" s="17"/>
+      <c r="G100" s="17"/>
+      <c r="H100" s="17"/>
+      <c r="L100" s="17"/>
+    </row>
+    <row r="107" spans="4:15" x14ac:dyDescent="0.2">
+      <c r="D107" s="10"/>
+      <c r="E107" s="10"/>
+      <c r="F107" s="10"/>
+      <c r="G107" s="10"/>
+      <c r="H107" s="10"/>
+      <c r="I107" s="10"/>
+      <c r="J107" s="10"/>
+      <c r="M107" s="10"/>
+      <c r="N107" s="10"/>
+      <c r="O107" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3816,14 +2495,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72036DB8-0B38-F34C-BC45-FD8C9084D1F2}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E76DD058-857C-664B-9CE3-61361CE9BAB5}">
-  <dimension ref="A1:J131"/>
+  <dimension ref="A1:K282"/>
   <sheetViews>
     <sheetView zoomScale="167" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B77" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="F124" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" sqref="A1:XFD1"/>
+      <selection pane="bottomRight" activeCell="A132" sqref="A132:Z160"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8022,13 +6721,2784 @@
         <v>23</v>
       </c>
     </row>
+    <row r="132" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="D132" s="10"/>
+      <c r="E132" s="10"/>
+      <c r="F132" s="10"/>
+      <c r="G132" s="10"/>
+      <c r="H132" s="10"/>
+      <c r="I132" s="10"/>
+    </row>
+    <row r="133" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="D133" s="10"/>
+      <c r="E133" s="10"/>
+      <c r="F133" s="10"/>
+      <c r="G133" s="10"/>
+      <c r="H133" s="10"/>
+      <c r="I133" s="10"/>
+    </row>
+    <row r="134" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="D134" s="10"/>
+      <c r="E134" s="10"/>
+      <c r="F134" s="10"/>
+      <c r="G134" s="10"/>
+      <c r="H134" s="10"/>
+      <c r="I134" s="10"/>
+    </row>
+    <row r="135" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="D135" s="10"/>
+      <c r="E135" s="10"/>
+      <c r="F135" s="10"/>
+      <c r="G135" s="10"/>
+      <c r="H135" s="10"/>
+      <c r="I135" s="10"/>
+    </row>
+    <row r="136" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="D136" s="10"/>
+      <c r="E136" s="10"/>
+      <c r="F136" s="10"/>
+      <c r="G136" s="10"/>
+      <c r="H136" s="10"/>
+      <c r="I136" s="10"/>
+    </row>
+    <row r="137" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="D137" s="10"/>
+      <c r="E137" s="10"/>
+      <c r="F137" s="10"/>
+      <c r="G137" s="10"/>
+      <c r="H137" s="10"/>
+      <c r="I137" s="10"/>
+    </row>
+    <row r="138" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="D138" s="10"/>
+      <c r="E138" s="10"/>
+      <c r="F138" s="10"/>
+      <c r="G138" s="10"/>
+      <c r="H138" s="10"/>
+      <c r="I138" s="10"/>
+    </row>
+    <row r="139" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="D139" s="10"/>
+      <c r="E139" s="10"/>
+      <c r="F139" s="10"/>
+      <c r="G139" s="10"/>
+      <c r="H139" s="10"/>
+      <c r="I139" s="10"/>
+    </row>
+    <row r="140" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="D140" s="10"/>
+      <c r="E140" s="10"/>
+      <c r="F140" s="10"/>
+      <c r="G140" s="10"/>
+      <c r="H140" s="10"/>
+      <c r="I140" s="10"/>
+    </row>
+    <row r="141" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="D141" s="10"/>
+      <c r="E141" s="10"/>
+      <c r="F141" s="10"/>
+      <c r="G141" s="10"/>
+      <c r="H141" s="10"/>
+      <c r="I141" s="10"/>
+    </row>
+    <row r="142" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="D142" s="10"/>
+      <c r="E142" s="10"/>
+      <c r="F142" s="10"/>
+      <c r="G142" s="10"/>
+      <c r="H142" s="10"/>
+      <c r="I142" s="10"/>
+    </row>
+    <row r="143" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="D143" s="10"/>
+      <c r="E143" s="10"/>
+      <c r="F143" s="10"/>
+      <c r="G143" s="10"/>
+      <c r="H143" s="10"/>
+      <c r="I143" s="10"/>
+    </row>
+    <row r="144" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="D144" s="10"/>
+      <c r="E144" s="10"/>
+      <c r="F144" s="10"/>
+      <c r="G144" s="10"/>
+      <c r="H144" s="10"/>
+      <c r="I144" s="10"/>
+    </row>
+    <row r="145" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D145" s="10"/>
+      <c r="E145" s="10"/>
+      <c r="F145" s="10"/>
+      <c r="G145" s="10"/>
+      <c r="H145" s="10"/>
+      <c r="I145" s="10"/>
+    </row>
+    <row r="146" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D146" s="10"/>
+      <c r="E146" s="10"/>
+      <c r="F146" s="10"/>
+      <c r="G146" s="10"/>
+      <c r="H146" s="10"/>
+      <c r="I146" s="10"/>
+    </row>
+    <row r="147" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D147" s="10"/>
+      <c r="E147" s="10"/>
+      <c r="F147" s="10"/>
+      <c r="G147" s="10"/>
+      <c r="H147" s="10"/>
+      <c r="I147" s="10"/>
+    </row>
+    <row r="148" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D148" s="10"/>
+      <c r="E148" s="10"/>
+      <c r="F148" s="10"/>
+      <c r="G148" s="10"/>
+      <c r="H148" s="10"/>
+      <c r="I148" s="10"/>
+    </row>
+    <row r="149" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D149" s="10"/>
+      <c r="E149" s="10"/>
+      <c r="F149" s="10"/>
+      <c r="G149" s="10"/>
+      <c r="H149" s="10"/>
+      <c r="I149" s="10"/>
+    </row>
+    <row r="150" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D150" s="10"/>
+      <c r="E150" s="10"/>
+      <c r="F150" s="10"/>
+      <c r="G150" s="10"/>
+      <c r="H150" s="10"/>
+      <c r="I150" s="10"/>
+    </row>
+    <row r="151" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D151" s="10"/>
+      <c r="E151" s="10"/>
+      <c r="F151" s="10"/>
+      <c r="G151" s="10"/>
+      <c r="H151" s="10"/>
+      <c r="I151" s="10"/>
+    </row>
+    <row r="152" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D152" s="10"/>
+      <c r="E152" s="10"/>
+      <c r="F152" s="10"/>
+      <c r="G152" s="10"/>
+      <c r="H152" s="10"/>
+      <c r="I152" s="10"/>
+    </row>
+    <row r="153" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D153" s="10"/>
+      <c r="E153" s="10"/>
+      <c r="F153" s="10"/>
+      <c r="G153" s="10"/>
+      <c r="H153" s="10"/>
+      <c r="I153" s="10"/>
+    </row>
+    <row r="154" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D154" s="10"/>
+      <c r="E154" s="10"/>
+      <c r="F154" s="10"/>
+      <c r="G154" s="10"/>
+      <c r="H154" s="10"/>
+      <c r="I154" s="10"/>
+    </row>
+    <row r="155" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D155" s="10"/>
+      <c r="E155" s="10"/>
+      <c r="F155" s="10"/>
+      <c r="G155" s="10"/>
+      <c r="H155" s="10"/>
+      <c r="I155" s="10"/>
+    </row>
+    <row r="156" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D156" s="10"/>
+      <c r="E156" s="10"/>
+      <c r="F156" s="10"/>
+      <c r="G156" s="10"/>
+      <c r="H156" s="10"/>
+      <c r="I156" s="10"/>
+    </row>
+    <row r="157" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D157" s="10"/>
+      <c r="E157" s="10"/>
+      <c r="F157" s="10"/>
+      <c r="G157" s="10"/>
+      <c r="H157" s="10"/>
+      <c r="I157" s="10"/>
+    </row>
+    <row r="158" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D158" s="10"/>
+      <c r="E158" s="10"/>
+      <c r="F158" s="10"/>
+      <c r="G158" s="10"/>
+      <c r="H158" s="10"/>
+      <c r="I158"/>
+    </row>
+    <row r="159" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D159" s="10"/>
+      <c r="E159" s="10"/>
+      <c r="F159" s="10"/>
+      <c r="G159" s="10"/>
+      <c r="H159" s="10"/>
+      <c r="I159"/>
+    </row>
+    <row r="160" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D160" s="10"/>
+      <c r="E160" s="10"/>
+      <c r="F160" s="10"/>
+      <c r="G160" s="10"/>
+      <c r="H160" s="10"/>
+      <c r="I160"/>
+    </row>
+    <row r="161" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A161" t="s">
+        <v>46</v>
+      </c>
+      <c r="B161" t="s">
+        <v>41</v>
+      </c>
+      <c r="C161" t="s">
+        <v>42</v>
+      </c>
+      <c r="D161" s="10">
+        <v>0.72591519999999998</v>
+      </c>
+      <c r="E161" s="10">
+        <v>0.28742410000000002</v>
+      </c>
+      <c r="F161" s="10">
+        <v>0</v>
+      </c>
+      <c r="G161" s="10">
+        <v>0</v>
+      </c>
+      <c r="H161" s="10">
+        <v>71040.17</v>
+      </c>
+      <c r="I161"/>
+      <c r="J161" s="17"/>
+      <c r="K161" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="162" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A162" t="s">
+        <v>46</v>
+      </c>
+      <c r="B162" t="s">
+        <v>41</v>
+      </c>
+      <c r="C162" t="s">
+        <v>43</v>
+      </c>
+      <c r="D162" s="10">
+        <v>0.8286192</v>
+      </c>
+      <c r="E162" s="10">
+        <v>8.6988499999999996E-2</v>
+      </c>
+      <c r="F162" s="10">
+        <v>0</v>
+      </c>
+      <c r="G162" s="10">
+        <v>0</v>
+      </c>
+      <c r="H162" s="10">
+        <v>50085.98</v>
+      </c>
+      <c r="I162"/>
+      <c r="J162" s="17"/>
+      <c r="K162" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="163" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A163" t="s">
+        <v>46</v>
+      </c>
+      <c r="B163" t="s">
+        <v>41</v>
+      </c>
+      <c r="C163" t="s">
+        <v>44</v>
+      </c>
+      <c r="D163" s="10">
+        <v>0.91434890000000002</v>
+      </c>
+      <c r="E163" s="10">
+        <v>4.4133690000000003E-2</v>
+      </c>
+      <c r="F163" s="10">
+        <v>0</v>
+      </c>
+      <c r="G163" s="10">
+        <v>0</v>
+      </c>
+      <c r="H163" s="10">
+        <v>62173.23</v>
+      </c>
+      <c r="I163"/>
+      <c r="J163" s="17"/>
+      <c r="K163" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="164" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A164" t="s">
+        <v>46</v>
+      </c>
+      <c r="B164" t="s">
+        <v>38</v>
+      </c>
+      <c r="C164" t="s">
+        <v>42</v>
+      </c>
+      <c r="D164"/>
+      <c r="E164"/>
+      <c r="F164"/>
+      <c r="G164"/>
+      <c r="H164"/>
+      <c r="I164"/>
+      <c r="K164" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="165" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A165" t="s">
+        <v>46</v>
+      </c>
+      <c r="B165" t="s">
+        <v>38</v>
+      </c>
+      <c r="C165" t="s">
+        <v>43</v>
+      </c>
+      <c r="D165"/>
+      <c r="E165"/>
+      <c r="F165"/>
+      <c r="G165"/>
+      <c r="H165"/>
+      <c r="I165"/>
+      <c r="K165" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="166" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A166" t="s">
+        <v>46</v>
+      </c>
+      <c r="B166" t="s">
+        <v>38</v>
+      </c>
+      <c r="C166" t="s">
+        <v>44</v>
+      </c>
+      <c r="D166"/>
+      <c r="E166"/>
+      <c r="F166"/>
+      <c r="G166"/>
+      <c r="H166"/>
+      <c r="I166"/>
+      <c r="K166" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="167" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A167" t="s">
+        <v>46</v>
+      </c>
+      <c r="B167" t="s">
+        <v>38</v>
+      </c>
+      <c r="C167" t="s">
+        <v>10</v>
+      </c>
+      <c r="D167" s="10">
+        <v>0.97874839999999996</v>
+      </c>
+      <c r="E167" s="10">
+        <v>0.13455600000000001</v>
+      </c>
+      <c r="F167" s="10">
+        <v>0</v>
+      </c>
+      <c r="G167" s="10">
+        <v>0</v>
+      </c>
+      <c r="H167" s="10">
+        <v>2.2118390000000002E-2</v>
+      </c>
+      <c r="I167" s="17"/>
+      <c r="J167" t="s">
+        <v>13</v>
+      </c>
+      <c r="K167" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="168" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A168" t="s">
+        <v>46</v>
+      </c>
+      <c r="B168" t="s">
+        <v>38</v>
+      </c>
+      <c r="C168" t="s">
+        <v>14</v>
+      </c>
+      <c r="D168" s="10">
+        <v>0.9771048</v>
+      </c>
+      <c r="E168" s="10">
+        <v>0.1094456</v>
+      </c>
+      <c r="F168" s="10">
+        <v>0</v>
+      </c>
+      <c r="G168" s="10">
+        <v>0</v>
+      </c>
+      <c r="H168" s="10">
+        <v>1.9641570000000001E-2</v>
+      </c>
+      <c r="I168" s="17"/>
+      <c r="J168" t="s">
+        <v>13</v>
+      </c>
+      <c r="K168" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="169" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A169" t="s">
+        <v>46</v>
+      </c>
+      <c r="B169" t="s">
+        <v>38</v>
+      </c>
+      <c r="C169" t="s">
+        <v>15</v>
+      </c>
+      <c r="D169" s="10">
+        <v>0.96703380000000005</v>
+      </c>
+      <c r="E169" s="10">
+        <v>0.1881873</v>
+      </c>
+      <c r="F169" s="10">
+        <v>0</v>
+      </c>
+      <c r="G169" s="10">
+        <v>0</v>
+      </c>
+      <c r="H169" s="10">
+        <v>2.616982E-2</v>
+      </c>
+      <c r="I169" s="17"/>
+      <c r="J169" t="s">
+        <v>13</v>
+      </c>
+      <c r="K169" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="170" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A170" t="s">
+        <v>46</v>
+      </c>
+      <c r="B170" t="s">
+        <v>38</v>
+      </c>
+      <c r="C170" t="s">
+        <v>16</v>
+      </c>
+      <c r="D170" s="10">
+        <v>0.97536990000000001</v>
+      </c>
+      <c r="E170" s="10">
+        <v>7.4261030000000006E-2</v>
+      </c>
+      <c r="F170" s="10">
+        <v>0</v>
+      </c>
+      <c r="G170" s="10">
+        <v>0</v>
+      </c>
+      <c r="H170" s="10">
+        <v>2.162478E-2</v>
+      </c>
+      <c r="I170" s="17"/>
+      <c r="J170" t="s">
+        <v>13</v>
+      </c>
+      <c r="K170" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="171" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A171" t="s">
+        <v>46</v>
+      </c>
+      <c r="B171" t="s">
+        <v>38</v>
+      </c>
+      <c r="C171" t="s">
+        <v>17</v>
+      </c>
+      <c r="D171" s="10">
+        <v>0.98030289999999998</v>
+      </c>
+      <c r="E171" s="10">
+        <v>8.6276549999999994E-2</v>
+      </c>
+      <c r="F171" s="10">
+        <v>0</v>
+      </c>
+      <c r="G171" s="10">
+        <v>0</v>
+      </c>
+      <c r="H171" s="10">
+        <v>1.9630539999999998E-2</v>
+      </c>
+      <c r="I171" s="17"/>
+      <c r="J171" t="s">
+        <v>13</v>
+      </c>
+      <c r="K171" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="172" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A172" t="s">
+        <v>46</v>
+      </c>
+      <c r="B172" t="s">
+        <v>38</v>
+      </c>
+      <c r="C172" t="s">
+        <v>18</v>
+      </c>
+      <c r="D172" s="10">
+        <v>0.97410620000000003</v>
+      </c>
+      <c r="E172" s="10">
+        <v>0.117481</v>
+      </c>
+      <c r="F172" s="10">
+        <v>0</v>
+      </c>
+      <c r="G172" s="10">
+        <v>0</v>
+      </c>
+      <c r="H172" s="10">
+        <v>2.311305E-2</v>
+      </c>
+      <c r="I172" s="17"/>
+      <c r="J172" t="s">
+        <v>13</v>
+      </c>
+      <c r="K172" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="173" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A173" t="s">
+        <v>46</v>
+      </c>
+      <c r="B173" t="s">
+        <v>38</v>
+      </c>
+      <c r="C173" t="s">
+        <v>19</v>
+      </c>
+      <c r="D173" s="10">
+        <v>0.96659629999999996</v>
+      </c>
+      <c r="E173" s="10">
+        <v>0.2325632</v>
+      </c>
+      <c r="F173" s="10">
+        <v>0</v>
+      </c>
+      <c r="G173" s="10">
+        <v>0</v>
+      </c>
+      <c r="H173" s="10">
+        <v>3.6133390000000001E-2</v>
+      </c>
+      <c r="I173" s="17"/>
+      <c r="J173" t="s">
+        <v>13</v>
+      </c>
+      <c r="K173" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="174" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A174" t="s">
+        <v>46</v>
+      </c>
+      <c r="B174" t="s">
+        <v>38</v>
+      </c>
+      <c r="C174" t="s">
+        <v>20</v>
+      </c>
+      <c r="D174" s="10">
+        <v>0.97459070000000003</v>
+      </c>
+      <c r="E174" s="10">
+        <v>7.0521909999999993E-2</v>
+      </c>
+      <c r="F174" s="10">
+        <v>0</v>
+      </c>
+      <c r="G174" s="10">
+        <v>0</v>
+      </c>
+      <c r="H174" s="10">
+        <v>2.5181100000000001E-2</v>
+      </c>
+      <c r="I174" s="17"/>
+      <c r="J174" t="s">
+        <v>13</v>
+      </c>
+      <c r="K174" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="175" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A175" t="s">
+        <v>46</v>
+      </c>
+      <c r="B175" t="s">
+        <v>38</v>
+      </c>
+      <c r="C175" t="s">
+        <v>13</v>
+      </c>
+      <c r="D175" s="10">
+        <v>0.97488839999999999</v>
+      </c>
+      <c r="E175" s="10">
+        <v>5.1114119999999999E-2</v>
+      </c>
+      <c r="F175" s="10">
+        <v>0</v>
+      </c>
+      <c r="G175" s="10">
+        <v>0</v>
+      </c>
+      <c r="H175" s="10">
+        <v>2.382768E-2</v>
+      </c>
+      <c r="I175" s="17"/>
+      <c r="J175" t="s">
+        <v>13</v>
+      </c>
+      <c r="K175" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="176" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A176" t="s">
+        <v>46</v>
+      </c>
+      <c r="B176" t="s">
+        <v>38</v>
+      </c>
+      <c r="C176" t="s">
+        <v>21</v>
+      </c>
+      <c r="D176" s="10">
+        <v>0.92894489999999996</v>
+      </c>
+      <c r="E176" s="10">
+        <v>1.579637</v>
+      </c>
+      <c r="F176" s="10">
+        <v>0</v>
+      </c>
+      <c r="G176" s="10">
+        <v>0</v>
+      </c>
+      <c r="H176" s="10">
+        <v>1.7391859999999999E-2</v>
+      </c>
+      <c r="I176" s="17"/>
+      <c r="J176" t="s">
+        <v>23</v>
+      </c>
+      <c r="K176" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="177" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A177" t="s">
+        <v>46</v>
+      </c>
+      <c r="B177" t="s">
+        <v>38</v>
+      </c>
+      <c r="C177" t="s">
+        <v>24</v>
+      </c>
+      <c r="D177" s="10">
+        <v>0.95129520000000001</v>
+      </c>
+      <c r="E177" s="10">
+        <v>0.3523114</v>
+      </c>
+      <c r="F177" s="10">
+        <v>0</v>
+      </c>
+      <c r="G177" s="10">
+        <v>0</v>
+      </c>
+      <c r="H177" s="10">
+        <v>2.1374629999999999E-2</v>
+      </c>
+      <c r="I177" s="17"/>
+      <c r="J177" t="s">
+        <v>23</v>
+      </c>
+      <c r="K177" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="178" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A178" t="s">
+        <v>46</v>
+      </c>
+      <c r="B178" t="s">
+        <v>38</v>
+      </c>
+      <c r="C178" t="s">
+        <v>25</v>
+      </c>
+      <c r="D178" s="10">
+        <v>0.90117579999999997</v>
+      </c>
+      <c r="E178" s="10">
+        <v>0.99819040000000003</v>
+      </c>
+      <c r="F178" s="10">
+        <v>0</v>
+      </c>
+      <c r="G178" s="10">
+        <v>0</v>
+      </c>
+      <c r="H178" s="10">
+        <v>1.767939E-2</v>
+      </c>
+      <c r="I178" s="17"/>
+      <c r="J178" t="s">
+        <v>23</v>
+      </c>
+      <c r="K178" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="179" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A179" t="s">
+        <v>46</v>
+      </c>
+      <c r="B179" t="s">
+        <v>38</v>
+      </c>
+      <c r="C179" t="s">
+        <v>23</v>
+      </c>
+      <c r="D179" s="10">
+        <v>0.9283981</v>
+      </c>
+      <c r="E179" s="10">
+        <v>0.37393670000000001</v>
+      </c>
+      <c r="F179" s="10">
+        <v>0</v>
+      </c>
+      <c r="G179" s="10">
+        <v>0</v>
+      </c>
+      <c r="H179" s="10">
+        <v>2.4525160000000001E-2</v>
+      </c>
+      <c r="I179" s="17"/>
+      <c r="J179" t="s">
+        <v>23</v>
+      </c>
+      <c r="K179" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="180" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A180" t="s">
+        <v>46</v>
+      </c>
+      <c r="B180" t="s">
+        <v>41</v>
+      </c>
+      <c r="C180" t="s">
+        <v>10</v>
+      </c>
+      <c r="D180" s="10">
+        <v>0.86122670000000001</v>
+      </c>
+      <c r="E180" s="10">
+        <v>0.164884</v>
+      </c>
+      <c r="F180" s="10">
+        <v>0</v>
+      </c>
+      <c r="G180" s="10">
+        <v>0</v>
+      </c>
+      <c r="H180" s="10">
+        <v>91925.91</v>
+      </c>
+      <c r="I180" s="17"/>
+      <c r="J180" t="s">
+        <v>13</v>
+      </c>
+      <c r="K180" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="181" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A181" t="s">
+        <v>46</v>
+      </c>
+      <c r="B181" t="s">
+        <v>41</v>
+      </c>
+      <c r="C181" t="s">
+        <v>14</v>
+      </c>
+      <c r="D181" s="10">
+        <v>0.83327399999999996</v>
+      </c>
+      <c r="E181" s="10">
+        <v>0.1416346</v>
+      </c>
+      <c r="F181" s="10">
+        <v>0</v>
+      </c>
+      <c r="G181" s="10">
+        <v>0</v>
+      </c>
+      <c r="H181" s="10">
+        <v>55532.49</v>
+      </c>
+      <c r="I181" s="17"/>
+      <c r="J181" t="s">
+        <v>13</v>
+      </c>
+      <c r="K181" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="182" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A182" t="s">
+        <v>46</v>
+      </c>
+      <c r="B182" t="s">
+        <v>41</v>
+      </c>
+      <c r="C182" t="s">
+        <v>15</v>
+      </c>
+      <c r="D182" s="10">
+        <v>0.86044790000000004</v>
+      </c>
+      <c r="E182" s="10">
+        <v>0.1668008</v>
+      </c>
+      <c r="F182" s="10">
+        <v>0</v>
+      </c>
+      <c r="G182" s="10">
+        <v>0</v>
+      </c>
+      <c r="H182" s="10">
+        <v>50617.4</v>
+      </c>
+      <c r="I182" s="17"/>
+      <c r="J182" t="s">
+        <v>13</v>
+      </c>
+      <c r="K182" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="183" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A183" t="s">
+        <v>46</v>
+      </c>
+      <c r="B183" t="s">
+        <v>41</v>
+      </c>
+      <c r="C183" t="s">
+        <v>16</v>
+      </c>
+      <c r="D183" s="10">
+        <v>0.8459508</v>
+      </c>
+      <c r="E183" s="10">
+        <v>8.7223949999999995E-2</v>
+      </c>
+      <c r="F183" s="10">
+        <v>0</v>
+      </c>
+      <c r="G183" s="10">
+        <v>0</v>
+      </c>
+      <c r="H183" s="10">
+        <v>64400.89</v>
+      </c>
+      <c r="I183" s="17"/>
+      <c r="J183" t="s">
+        <v>13</v>
+      </c>
+      <c r="K183" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="184" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A184" t="s">
+        <v>46</v>
+      </c>
+      <c r="B184" t="s">
+        <v>41</v>
+      </c>
+      <c r="C184" t="s">
+        <v>17</v>
+      </c>
+      <c r="D184" s="10">
+        <v>0.89983329999999995</v>
+      </c>
+      <c r="E184" s="10">
+        <v>7.2771920000000004E-2</v>
+      </c>
+      <c r="F184" s="10">
+        <v>0</v>
+      </c>
+      <c r="G184" s="10">
+        <v>0</v>
+      </c>
+      <c r="H184" s="10">
+        <v>43313.93</v>
+      </c>
+      <c r="I184" s="10"/>
+      <c r="J184" t="s">
+        <v>13</v>
+      </c>
+      <c r="K184" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="185" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A185" t="s">
+        <v>46</v>
+      </c>
+      <c r="B185" t="s">
+        <v>41</v>
+      </c>
+      <c r="C185" t="s">
+        <v>18</v>
+      </c>
+      <c r="D185" s="10">
+        <v>0.85242379999999995</v>
+      </c>
+      <c r="E185" s="10">
+        <v>0.1159483</v>
+      </c>
+      <c r="F185" s="10">
+        <v>0</v>
+      </c>
+      <c r="G185" s="10">
+        <v>0</v>
+      </c>
+      <c r="H185" s="10">
+        <v>77275.259999999995</v>
+      </c>
+      <c r="I185" s="17"/>
+      <c r="J185" t="s">
+        <v>13</v>
+      </c>
+      <c r="K185" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="186" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A186" t="s">
+        <v>46</v>
+      </c>
+      <c r="B186" t="s">
+        <v>41</v>
+      </c>
+      <c r="C186" t="s">
+        <v>19</v>
+      </c>
+      <c r="D186" s="10">
+        <v>0.84098810000000002</v>
+      </c>
+      <c r="E186" s="10">
+        <v>0.20086270000000001</v>
+      </c>
+      <c r="F186" s="10">
+        <v>0</v>
+      </c>
+      <c r="G186" s="10">
+        <v>0</v>
+      </c>
+      <c r="H186" s="10">
+        <v>87907.92</v>
+      </c>
+      <c r="I186" s="17"/>
+      <c r="J186" t="s">
+        <v>13</v>
+      </c>
+      <c r="K186" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="187" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A187" t="s">
+        <v>46</v>
+      </c>
+      <c r="B187" t="s">
+        <v>41</v>
+      </c>
+      <c r="C187" t="s">
+        <v>20</v>
+      </c>
+      <c r="D187" s="10">
+        <v>0.8643535</v>
+      </c>
+      <c r="E187" s="10">
+        <v>6.5263370000000001E-2</v>
+      </c>
+      <c r="F187" s="10">
+        <v>0</v>
+      </c>
+      <c r="G187" s="10">
+        <v>0</v>
+      </c>
+      <c r="H187" s="10">
+        <v>70170.149999999994</v>
+      </c>
+      <c r="I187" s="17"/>
+      <c r="J187" t="s">
+        <v>13</v>
+      </c>
+      <c r="K187" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="188" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A188" t="s">
+        <v>46</v>
+      </c>
+      <c r="B188" t="s">
+        <v>41</v>
+      </c>
+      <c r="C188" t="s">
+        <v>13</v>
+      </c>
+      <c r="D188" s="10">
+        <v>0.85624199999999995</v>
+      </c>
+      <c r="E188" s="10">
+        <v>5.1939329999999999E-2</v>
+      </c>
+      <c r="F188" s="10">
+        <v>0</v>
+      </c>
+      <c r="G188" s="10">
+        <v>0</v>
+      </c>
+      <c r="H188" s="10">
+        <v>68007.19</v>
+      </c>
+      <c r="I188" s="17"/>
+      <c r="J188" t="s">
+        <v>13</v>
+      </c>
+      <c r="K188" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="189" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A189" t="s">
+        <v>46</v>
+      </c>
+      <c r="B189" t="s">
+        <v>41</v>
+      </c>
+      <c r="C189" t="s">
+        <v>21</v>
+      </c>
+      <c r="D189" s="10">
+        <v>0.73908750000000001</v>
+      </c>
+      <c r="E189" s="10">
+        <v>1.4657530000000001</v>
+      </c>
+      <c r="F189" s="10">
+        <v>0</v>
+      </c>
+      <c r="G189" s="10">
+        <v>0</v>
+      </c>
+      <c r="H189" s="10">
+        <v>23918.63</v>
+      </c>
+      <c r="I189" s="17"/>
+      <c r="J189" t="s">
+        <v>23</v>
+      </c>
+      <c r="K189" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="190" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A190" t="s">
+        <v>46</v>
+      </c>
+      <c r="B190" t="s">
+        <v>41</v>
+      </c>
+      <c r="C190" t="s">
+        <v>24</v>
+      </c>
+      <c r="D190" s="10">
+        <v>0.85115810000000003</v>
+      </c>
+      <c r="E190" s="10">
+        <v>0.2307458</v>
+      </c>
+      <c r="F190" s="10">
+        <v>0</v>
+      </c>
+      <c r="G190" s="10">
+        <v>0</v>
+      </c>
+      <c r="H190" s="10">
+        <v>34306.04</v>
+      </c>
+      <c r="I190" s="17"/>
+      <c r="J190" t="s">
+        <v>23</v>
+      </c>
+      <c r="K190" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="191" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A191" t="s">
+        <v>46</v>
+      </c>
+      <c r="B191" t="s">
+        <v>41</v>
+      </c>
+      <c r="C191" t="s">
+        <v>25</v>
+      </c>
+      <c r="D191" s="10">
+        <v>0.63076960000000004</v>
+      </c>
+      <c r="E191" s="10">
+        <v>0.93355469999999996</v>
+      </c>
+      <c r="F191" s="10">
+        <v>0</v>
+      </c>
+      <c r="G191" s="10">
+        <v>0</v>
+      </c>
+      <c r="H191" s="10">
+        <v>44012.18</v>
+      </c>
+      <c r="I191" s="17"/>
+      <c r="J191" t="s">
+        <v>23</v>
+      </c>
+      <c r="K191" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="192" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A192" t="s">
+        <v>46</v>
+      </c>
+      <c r="B192" t="s">
+        <v>41</v>
+      </c>
+      <c r="C192" t="s">
+        <v>23</v>
+      </c>
+      <c r="D192" s="10">
+        <v>0.74320370000000002</v>
+      </c>
+      <c r="E192" s="10">
+        <v>0.29368509999999998</v>
+      </c>
+      <c r="F192" s="10">
+        <v>0</v>
+      </c>
+      <c r="G192" s="10">
+        <v>0</v>
+      </c>
+      <c r="H192" s="10">
+        <v>52774.79</v>
+      </c>
+      <c r="I192" s="17"/>
+      <c r="J192" t="s">
+        <v>23</v>
+      </c>
+      <c r="K192" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="193" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A193" t="s">
+        <v>47</v>
+      </c>
+      <c r="C193" t="s">
+        <v>42</v>
+      </c>
+      <c r="D193"/>
+      <c r="E193"/>
+      <c r="F193"/>
+      <c r="G193"/>
+      <c r="H193"/>
+      <c r="I193"/>
+    </row>
+    <row r="194" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A194" t="s">
+        <v>47</v>
+      </c>
+      <c r="C194" t="s">
+        <v>43</v>
+      </c>
+      <c r="D194"/>
+      <c r="E194"/>
+      <c r="F194"/>
+      <c r="G194"/>
+      <c r="H194"/>
+      <c r="I194"/>
+    </row>
+    <row r="195" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A195" t="s">
+        <v>47</v>
+      </c>
+      <c r="C195" t="s">
+        <v>44</v>
+      </c>
+      <c r="D195"/>
+      <c r="E195"/>
+      <c r="F195"/>
+      <c r="G195"/>
+      <c r="H195"/>
+      <c r="I195"/>
+    </row>
+    <row r="196" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A196" t="s">
+        <v>47</v>
+      </c>
+      <c r="C196" t="s">
+        <v>42</v>
+      </c>
+      <c r="D196"/>
+      <c r="E196"/>
+      <c r="F196"/>
+      <c r="G196"/>
+      <c r="H196"/>
+      <c r="I196"/>
+    </row>
+    <row r="197" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A197" t="s">
+        <v>47</v>
+      </c>
+      <c r="C197" t="s">
+        <v>43</v>
+      </c>
+      <c r="D197"/>
+      <c r="E197"/>
+      <c r="F197"/>
+      <c r="G197"/>
+      <c r="H197"/>
+      <c r="I197"/>
+    </row>
+    <row r="198" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A198" t="s">
+        <v>47</v>
+      </c>
+      <c r="C198" t="s">
+        <v>44</v>
+      </c>
+      <c r="D198" s="17"/>
+      <c r="E198" s="17"/>
+      <c r="F198" s="17"/>
+      <c r="G198" s="17"/>
+      <c r="H198" s="17"/>
+      <c r="I198" s="17"/>
+      <c r="J198" s="17"/>
+      <c r="K198" s="17"/>
+    </row>
+    <row r="199" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A199" t="s">
+        <v>47</v>
+      </c>
+      <c r="C199" t="s">
+        <v>10</v>
+      </c>
+      <c r="D199" s="10">
+        <v>0.98038959999999997</v>
+      </c>
+      <c r="E199" s="10">
+        <v>7.8211600000000006E-2</v>
+      </c>
+      <c r="F199" s="10">
+        <v>0</v>
+      </c>
+      <c r="G199" s="10">
+        <v>0</v>
+      </c>
+      <c r="H199" s="10">
+        <v>1.929322E-2</v>
+      </c>
+      <c r="I199" s="17"/>
+      <c r="J199" s="17"/>
+      <c r="K199" s="17"/>
+    </row>
+    <row r="200" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A200" t="s">
+        <v>47</v>
+      </c>
+      <c r="C200" t="s">
+        <v>14</v>
+      </c>
+      <c r="D200" s="10">
+        <v>0.9781493</v>
+      </c>
+      <c r="E200" s="10">
+        <v>6.5003240000000004E-2</v>
+      </c>
+      <c r="F200" s="10">
+        <v>0</v>
+      </c>
+      <c r="G200" s="10">
+        <v>0</v>
+      </c>
+      <c r="H200" s="10">
+        <v>2.124469E-2</v>
+      </c>
+      <c r="I200" s="17"/>
+      <c r="J200" s="17"/>
+      <c r="K200" s="17"/>
+    </row>
+    <row r="201" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A201" t="s">
+        <v>47</v>
+      </c>
+      <c r="C201" t="s">
+        <v>15</v>
+      </c>
+      <c r="D201" s="10">
+        <v>0.97616000000000003</v>
+      </c>
+      <c r="E201" s="10">
+        <v>7.4169959999999993E-2</v>
+      </c>
+      <c r="F201" s="10">
+        <v>0</v>
+      </c>
+      <c r="G201" s="10">
+        <v>0</v>
+      </c>
+      <c r="H201" s="10">
+        <v>2.4888819999999999E-2</v>
+      </c>
+      <c r="I201" s="17"/>
+      <c r="J201" s="17"/>
+      <c r="K201" s="17"/>
+    </row>
+    <row r="202" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A202" t="s">
+        <v>47</v>
+      </c>
+      <c r="C202" t="s">
+        <v>16</v>
+      </c>
+      <c r="D202" s="10">
+        <v>0.9780816</v>
+      </c>
+      <c r="E202" s="10">
+        <v>4.0273539999999997E-2</v>
+      </c>
+      <c r="F202" s="10">
+        <v>0</v>
+      </c>
+      <c r="G202" s="10">
+        <v>0</v>
+      </c>
+      <c r="H202" s="10">
+        <v>2.1650490000000001E-2</v>
+      </c>
+      <c r="I202" s="17"/>
+      <c r="J202" s="17"/>
+      <c r="K202" s="17"/>
+    </row>
+    <row r="203" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A203" t="s">
+        <v>47</v>
+      </c>
+      <c r="C203" t="s">
+        <v>17</v>
+      </c>
+      <c r="D203" s="10">
+        <v>0.98359289999999999</v>
+      </c>
+      <c r="E203" s="10">
+        <v>5.0028780000000002E-2</v>
+      </c>
+      <c r="F203" s="10">
+        <v>0</v>
+      </c>
+      <c r="G203" s="10">
+        <v>0</v>
+      </c>
+      <c r="H203" s="10">
+        <v>2.1733559999999999E-2</v>
+      </c>
+      <c r="I203" s="17"/>
+      <c r="J203" s="17"/>
+      <c r="K203" s="17"/>
+    </row>
+    <row r="204" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A204" t="s">
+        <v>47</v>
+      </c>
+      <c r="C204" t="s">
+        <v>18</v>
+      </c>
+      <c r="D204" s="10">
+        <v>0.97584959999999998</v>
+      </c>
+      <c r="E204" s="10">
+        <v>6.241389E-2</v>
+      </c>
+      <c r="F204" s="10">
+        <v>0</v>
+      </c>
+      <c r="G204" s="10">
+        <v>0</v>
+      </c>
+      <c r="H204" s="10">
+        <v>2.1530549999999999E-2</v>
+      </c>
+      <c r="I204" s="17"/>
+      <c r="J204" s="17"/>
+      <c r="K204" s="17"/>
+    </row>
+    <row r="205" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A205" t="s">
+        <v>47</v>
+      </c>
+      <c r="C205" t="s">
+        <v>19</v>
+      </c>
+      <c r="D205" s="10">
+        <v>0.96719109999999997</v>
+      </c>
+      <c r="E205" s="10">
+        <v>0.13097710000000001</v>
+      </c>
+      <c r="F205" s="10">
+        <v>0</v>
+      </c>
+      <c r="G205" s="10">
+        <v>0</v>
+      </c>
+      <c r="H205" s="10">
+        <v>4.1436279999999999E-2</v>
+      </c>
+      <c r="I205" s="17"/>
+      <c r="J205" s="17"/>
+      <c r="K205" s="17"/>
+    </row>
+    <row r="206" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A206" t="s">
+        <v>47</v>
+      </c>
+      <c r="C206" t="s">
+        <v>20</v>
+      </c>
+      <c r="D206" s="10">
+        <v>0.97643979999999997</v>
+      </c>
+      <c r="E206" s="10">
+        <v>3.8384080000000001E-2</v>
+      </c>
+      <c r="F206" s="10">
+        <v>0</v>
+      </c>
+      <c r="G206" s="10">
+        <v>0</v>
+      </c>
+      <c r="H206" s="10">
+        <v>2.6769899999999999E-2</v>
+      </c>
+      <c r="I206" s="17"/>
+      <c r="J206" s="17"/>
+      <c r="K206" s="17"/>
+    </row>
+    <row r="207" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A207" t="s">
+        <v>47</v>
+      </c>
+      <c r="C207" t="s">
+        <v>13</v>
+      </c>
+      <c r="D207" s="10">
+        <v>0.97710960000000002</v>
+      </c>
+      <c r="E207" s="10">
+        <v>2.7841879999999999E-2</v>
+      </c>
+      <c r="F207" s="10">
+        <v>0</v>
+      </c>
+      <c r="G207" s="10">
+        <v>0</v>
+      </c>
+      <c r="H207" s="10">
+        <v>2.4803809999999999E-2</v>
+      </c>
+      <c r="I207" s="17"/>
+      <c r="J207" s="17"/>
+      <c r="K207" s="17"/>
+    </row>
+    <row r="208" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A208" t="s">
+        <v>47</v>
+      </c>
+      <c r="C208" t="s">
+        <v>21</v>
+      </c>
+      <c r="D208" s="10">
+        <v>0.92894489999999996</v>
+      </c>
+      <c r="E208" s="10">
+        <v>1.579637</v>
+      </c>
+      <c r="F208" s="10">
+        <v>0</v>
+      </c>
+      <c r="G208" s="10">
+        <v>0</v>
+      </c>
+      <c r="H208" s="10">
+        <v>1.7391859999999999E-2</v>
+      </c>
+      <c r="I208" s="17"/>
+      <c r="J208" s="17"/>
+      <c r="K208" s="17"/>
+    </row>
+    <row r="209" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A209" t="s">
+        <v>47</v>
+      </c>
+      <c r="C209" t="s">
+        <v>24</v>
+      </c>
+      <c r="D209" s="10">
+        <v>0.95153010000000005</v>
+      </c>
+      <c r="E209" s="10">
+        <v>0.32526189999999999</v>
+      </c>
+      <c r="F209" s="10">
+        <v>0</v>
+      </c>
+      <c r="G209" s="10">
+        <v>0</v>
+      </c>
+      <c r="H209" s="10">
+        <v>2.070381E-2</v>
+      </c>
+      <c r="I209" s="17"/>
+      <c r="J209" s="17"/>
+      <c r="K209" s="17"/>
+    </row>
+    <row r="210" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A210" t="s">
+        <v>47</v>
+      </c>
+      <c r="C210" t="s">
+        <v>25</v>
+      </c>
+      <c r="D210" s="10">
+        <v>0.89234349999999996</v>
+      </c>
+      <c r="E210" s="10">
+        <v>1.0878559999999999</v>
+      </c>
+      <c r="F210" s="10">
+        <v>0</v>
+      </c>
+      <c r="G210" s="10">
+        <v>0</v>
+      </c>
+      <c r="H210" s="10">
+        <v>2.6455719999999999E-2</v>
+      </c>
+      <c r="I210" s="17"/>
+      <c r="J210" s="17"/>
+      <c r="K210" s="17"/>
+    </row>
+    <row r="211" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A211" t="s">
+        <v>47</v>
+      </c>
+      <c r="C211" t="s">
+        <v>23</v>
+      </c>
+      <c r="D211" s="10">
+        <v>0.92481329999999995</v>
+      </c>
+      <c r="E211" s="10">
+        <v>0.37277120000000002</v>
+      </c>
+      <c r="F211" s="10">
+        <v>0</v>
+      </c>
+      <c r="G211" s="10">
+        <v>0</v>
+      </c>
+      <c r="H211" s="10">
+        <v>2.897918E-2</v>
+      </c>
+      <c r="I211" s="17"/>
+      <c r="J211" s="10"/>
+      <c r="K211" s="10"/>
+    </row>
+    <row r="212" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A212" t="s">
+        <v>47</v>
+      </c>
+      <c r="C212" t="s">
+        <v>10</v>
+      </c>
+      <c r="D212" s="17"/>
+      <c r="E212" s="17"/>
+      <c r="F212" s="17"/>
+      <c r="G212" s="17"/>
+      <c r="H212" s="17"/>
+      <c r="I212" s="17"/>
+      <c r="J212" s="17"/>
+      <c r="K212" s="17"/>
+    </row>
+    <row r="213" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A213" t="s">
+        <v>47</v>
+      </c>
+      <c r="C213" t="s">
+        <v>14</v>
+      </c>
+      <c r="D213" s="17"/>
+      <c r="E213" s="17"/>
+      <c r="F213" s="17"/>
+      <c r="G213" s="17"/>
+      <c r="H213" s="17"/>
+      <c r="I213" s="17"/>
+      <c r="J213" s="17"/>
+      <c r="K213" s="17"/>
+    </row>
+    <row r="214" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A214" t="s">
+        <v>47</v>
+      </c>
+      <c r="C214" t="s">
+        <v>15</v>
+      </c>
+      <c r="D214" s="17"/>
+      <c r="E214" s="17"/>
+      <c r="F214" s="17"/>
+      <c r="G214" s="17"/>
+      <c r="H214" s="17"/>
+      <c r="I214" s="17"/>
+    </row>
+    <row r="215" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A215" t="s">
+        <v>47</v>
+      </c>
+      <c r="C215" t="s">
+        <v>16</v>
+      </c>
+      <c r="D215" s="17"/>
+      <c r="E215" s="17"/>
+      <c r="F215" s="17"/>
+      <c r="G215" s="17"/>
+      <c r="H215" s="17"/>
+      <c r="I215" s="17"/>
+    </row>
+    <row r="216" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A216" t="s">
+        <v>47</v>
+      </c>
+      <c r="C216" t="s">
+        <v>17</v>
+      </c>
+      <c r="D216" s="17"/>
+      <c r="E216" s="17"/>
+      <c r="F216" s="17"/>
+      <c r="G216" s="17"/>
+      <c r="H216" s="17"/>
+      <c r="I216" s="17"/>
+    </row>
+    <row r="217" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A217" t="s">
+        <v>47</v>
+      </c>
+      <c r="C217" t="s">
+        <v>18</v>
+      </c>
+      <c r="D217" s="17"/>
+      <c r="E217" s="17"/>
+      <c r="F217" s="17"/>
+      <c r="G217" s="17"/>
+      <c r="H217" s="17"/>
+      <c r="I217" s="17"/>
+    </row>
+    <row r="218" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A218" t="s">
+        <v>47</v>
+      </c>
+      <c r="C218" t="s">
+        <v>19</v>
+      </c>
+      <c r="D218" s="17"/>
+      <c r="E218" s="17"/>
+      <c r="F218" s="17"/>
+      <c r="G218" s="17"/>
+      <c r="H218" s="17"/>
+      <c r="I218" s="17"/>
+    </row>
+    <row r="219" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A219" t="s">
+        <v>47</v>
+      </c>
+      <c r="C219" t="s">
+        <v>20</v>
+      </c>
+      <c r="D219" s="17"/>
+      <c r="E219" s="17"/>
+      <c r="F219" s="17"/>
+      <c r="G219" s="17"/>
+      <c r="H219" s="17"/>
+      <c r="I219" s="17"/>
+    </row>
+    <row r="220" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A220" t="s">
+        <v>47</v>
+      </c>
+      <c r="C220" t="s">
+        <v>13</v>
+      </c>
+      <c r="D220" s="17"/>
+      <c r="E220" s="17"/>
+      <c r="F220" s="17"/>
+      <c r="G220" s="17"/>
+      <c r="H220" s="17"/>
+      <c r="I220" s="17"/>
+    </row>
+    <row r="221" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A221" t="s">
+        <v>47</v>
+      </c>
+      <c r="C221" t="s">
+        <v>21</v>
+      </c>
+      <c r="D221" s="17"/>
+      <c r="E221" s="17"/>
+      <c r="F221" s="17"/>
+      <c r="G221" s="17"/>
+      <c r="H221" s="17"/>
+      <c r="I221" s="17"/>
+    </row>
+    <row r="222" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A222" t="s">
+        <v>47</v>
+      </c>
+      <c r="C222" t="s">
+        <v>24</v>
+      </c>
+      <c r="D222" s="17"/>
+      <c r="E222" s="17"/>
+      <c r="F222" s="17"/>
+      <c r="G222" s="17"/>
+      <c r="H222" s="17"/>
+      <c r="I222" s="17"/>
+    </row>
+    <row r="223" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A223" t="s">
+        <v>47</v>
+      </c>
+      <c r="C223" t="s">
+        <v>25</v>
+      </c>
+      <c r="D223" s="17"/>
+      <c r="E223" s="17"/>
+      <c r="F223" s="17"/>
+      <c r="G223" s="17"/>
+      <c r="H223" s="17"/>
+      <c r="I223" s="17"/>
+    </row>
+    <row r="224" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A224" t="s">
+        <v>47</v>
+      </c>
+      <c r="C224" t="s">
+        <v>23</v>
+      </c>
+      <c r="D224" s="17"/>
+      <c r="E224" s="17"/>
+      <c r="F224" s="17"/>
+      <c r="G224" s="17"/>
+      <c r="H224" s="17"/>
+      <c r="I224" s="17"/>
+    </row>
+    <row r="225" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A225" t="s">
+        <v>48</v>
+      </c>
+      <c r="C225" t="s">
+        <v>42</v>
+      </c>
+      <c r="D225" s="17"/>
+      <c r="E225" s="17"/>
+      <c r="F225" s="17"/>
+      <c r="G225" s="17"/>
+      <c r="H225" s="17"/>
+      <c r="I225" s="17"/>
+    </row>
+    <row r="226" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A226" t="s">
+        <v>48</v>
+      </c>
+      <c r="C226" t="s">
+        <v>43</v>
+      </c>
+      <c r="D226" s="17"/>
+      <c r="E226" s="17"/>
+      <c r="F226" s="17"/>
+      <c r="G226" s="17"/>
+      <c r="H226" s="17"/>
+      <c r="I226" s="17"/>
+    </row>
+    <row r="227" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A227" t="s">
+        <v>48</v>
+      </c>
+      <c r="C227" t="s">
+        <v>44</v>
+      </c>
+      <c r="D227" s="17"/>
+      <c r="E227" s="17"/>
+      <c r="F227" s="17"/>
+      <c r="G227" s="17"/>
+      <c r="H227" s="17"/>
+      <c r="I227" s="17"/>
+    </row>
+    <row r="228" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A228" t="s">
+        <v>48</v>
+      </c>
+      <c r="C228" t="s">
+        <v>42</v>
+      </c>
+      <c r="D228"/>
+      <c r="E228"/>
+      <c r="F228"/>
+      <c r="G228"/>
+      <c r="H228"/>
+      <c r="I228"/>
+    </row>
+    <row r="229" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A229" t="s">
+        <v>48</v>
+      </c>
+      <c r="C229" t="s">
+        <v>43</v>
+      </c>
+      <c r="D229"/>
+      <c r="E229"/>
+      <c r="F229"/>
+      <c r="G229"/>
+      <c r="H229"/>
+      <c r="I229"/>
+    </row>
+    <row r="230" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A230" t="s">
+        <v>48</v>
+      </c>
+      <c r="C230" t="s">
+        <v>44</v>
+      </c>
+      <c r="D230"/>
+      <c r="E230"/>
+      <c r="F230"/>
+      <c r="G230"/>
+      <c r="H230"/>
+      <c r="I230"/>
+    </row>
+    <row r="231" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A231" t="s">
+        <v>48</v>
+      </c>
+      <c r="C231" t="s">
+        <v>10</v>
+      </c>
+      <c r="D231"/>
+      <c r="E231"/>
+      <c r="F231"/>
+      <c r="G231"/>
+      <c r="H231"/>
+      <c r="I231"/>
+    </row>
+    <row r="232" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A232" t="s">
+        <v>48</v>
+      </c>
+      <c r="C232" t="s">
+        <v>14</v>
+      </c>
+      <c r="D232"/>
+      <c r="E232"/>
+      <c r="F232"/>
+      <c r="G232"/>
+      <c r="H232"/>
+      <c r="I232"/>
+    </row>
+    <row r="233" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A233" t="s">
+        <v>48</v>
+      </c>
+      <c r="C233" t="s">
+        <v>15</v>
+      </c>
+      <c r="D233"/>
+      <c r="E233"/>
+      <c r="F233"/>
+      <c r="G233"/>
+      <c r="H233"/>
+      <c r="I233"/>
+    </row>
+    <row r="234" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A234" t="s">
+        <v>48</v>
+      </c>
+      <c r="C234" t="s">
+        <v>16</v>
+      </c>
+      <c r="D234" s="10">
+        <v>1.00441</v>
+      </c>
+      <c r="E234" s="10">
+        <v>0.54228920000000003</v>
+      </c>
+      <c r="F234" s="10">
+        <v>0</v>
+      </c>
+      <c r="G234" s="10">
+        <v>0</v>
+      </c>
+      <c r="H234" s="10">
+        <v>9.0740779999999993E-2</v>
+      </c>
+      <c r="I234"/>
+      <c r="J234" s="10"/>
+      <c r="K234" s="10"/>
+    </row>
+    <row r="235" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A235" t="s">
+        <v>48</v>
+      </c>
+      <c r="C235" t="s">
+        <v>17</v>
+      </c>
+      <c r="D235"/>
+      <c r="E235"/>
+      <c r="F235"/>
+      <c r="G235"/>
+      <c r="H235"/>
+      <c r="I235"/>
+    </row>
+    <row r="236" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A236" t="s">
+        <v>48</v>
+      </c>
+      <c r="C236" t="s">
+        <v>18</v>
+      </c>
+      <c r="D236"/>
+      <c r="E236"/>
+      <c r="F236"/>
+      <c r="G236"/>
+      <c r="H236"/>
+      <c r="I236"/>
+    </row>
+    <row r="237" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A237" t="s">
+        <v>48</v>
+      </c>
+      <c r="C237" t="s">
+        <v>19</v>
+      </c>
+      <c r="D237"/>
+      <c r="E237"/>
+      <c r="F237"/>
+      <c r="G237"/>
+      <c r="H237"/>
+      <c r="I237"/>
+    </row>
+    <row r="238" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A238" t="s">
+        <v>48</v>
+      </c>
+      <c r="C238" t="s">
+        <v>20</v>
+      </c>
+      <c r="D238"/>
+      <c r="E238"/>
+      <c r="F238"/>
+      <c r="G238"/>
+      <c r="H238"/>
+      <c r="I238"/>
+    </row>
+    <row r="239" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A239" t="s">
+        <v>48</v>
+      </c>
+      <c r="C239" t="s">
+        <v>13</v>
+      </c>
+      <c r="D239"/>
+      <c r="E239"/>
+      <c r="F239"/>
+      <c r="G239"/>
+      <c r="H239"/>
+      <c r="I239"/>
+    </row>
+    <row r="240" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A240" t="s">
+        <v>48</v>
+      </c>
+      <c r="C240" t="s">
+        <v>21</v>
+      </c>
+      <c r="D240"/>
+      <c r="E240"/>
+      <c r="F240"/>
+      <c r="G240"/>
+      <c r="H240"/>
+      <c r="I240"/>
+    </row>
+    <row r="241" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A241" t="s">
+        <v>48</v>
+      </c>
+      <c r="C241" t="s">
+        <v>24</v>
+      </c>
+      <c r="D241"/>
+      <c r="E241"/>
+      <c r="F241"/>
+      <c r="G241"/>
+      <c r="H241"/>
+      <c r="I241"/>
+    </row>
+    <row r="242" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A242" t="s">
+        <v>48</v>
+      </c>
+      <c r="C242" t="s">
+        <v>25</v>
+      </c>
+      <c r="D242"/>
+      <c r="E242"/>
+      <c r="F242"/>
+      <c r="G242"/>
+      <c r="H242"/>
+      <c r="I242"/>
+    </row>
+    <row r="243" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A243" t="s">
+        <v>48</v>
+      </c>
+      <c r="C243" t="s">
+        <v>23</v>
+      </c>
+      <c r="D243"/>
+      <c r="E243"/>
+      <c r="F243"/>
+      <c r="G243"/>
+      <c r="H243"/>
+      <c r="I243"/>
+    </row>
+    <row r="244" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A244" t="s">
+        <v>48</v>
+      </c>
+      <c r="C244" t="s">
+        <v>10</v>
+      </c>
+      <c r="D244"/>
+      <c r="E244"/>
+      <c r="F244"/>
+      <c r="G244"/>
+      <c r="H244"/>
+      <c r="I244"/>
+    </row>
+    <row r="245" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A245" t="s">
+        <v>48</v>
+      </c>
+      <c r="C245" t="s">
+        <v>14</v>
+      </c>
+      <c r="D245"/>
+      <c r="E245"/>
+      <c r="F245"/>
+      <c r="G245"/>
+      <c r="H245"/>
+      <c r="I245"/>
+    </row>
+    <row r="246" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A246" t="s">
+        <v>48</v>
+      </c>
+      <c r="C246" t="s">
+        <v>15</v>
+      </c>
+      <c r="D246"/>
+      <c r="E246"/>
+      <c r="F246"/>
+      <c r="G246"/>
+      <c r="H246"/>
+      <c r="I246"/>
+    </row>
+    <row r="247" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A247" t="s">
+        <v>48</v>
+      </c>
+      <c r="C247" t="s">
+        <v>16</v>
+      </c>
+      <c r="D247"/>
+      <c r="E247"/>
+      <c r="F247"/>
+      <c r="G247"/>
+      <c r="H247"/>
+      <c r="I247"/>
+    </row>
+    <row r="248" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A248" t="s">
+        <v>48</v>
+      </c>
+      <c r="C248" t="s">
+        <v>17</v>
+      </c>
+      <c r="D248"/>
+      <c r="E248"/>
+      <c r="F248"/>
+      <c r="G248"/>
+      <c r="H248"/>
+      <c r="I248"/>
+    </row>
+    <row r="249" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A249" t="s">
+        <v>48</v>
+      </c>
+      <c r="C249" t="s">
+        <v>18</v>
+      </c>
+      <c r="D249"/>
+      <c r="E249"/>
+      <c r="F249"/>
+      <c r="G249"/>
+      <c r="H249"/>
+      <c r="I249"/>
+    </row>
+    <row r="250" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A250" t="s">
+        <v>48</v>
+      </c>
+      <c r="C250" t="s">
+        <v>19</v>
+      </c>
+      <c r="D250"/>
+      <c r="E250"/>
+      <c r="F250"/>
+      <c r="G250"/>
+      <c r="H250"/>
+      <c r="I250"/>
+    </row>
+    <row r="251" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A251" t="s">
+        <v>48</v>
+      </c>
+      <c r="C251" t="s">
+        <v>20</v>
+      </c>
+      <c r="D251"/>
+      <c r="E251"/>
+      <c r="F251"/>
+      <c r="G251"/>
+      <c r="H251"/>
+      <c r="I251"/>
+    </row>
+    <row r="252" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A252" t="s">
+        <v>48</v>
+      </c>
+      <c r="C252" t="s">
+        <v>13</v>
+      </c>
+      <c r="D252"/>
+      <c r="E252"/>
+      <c r="F252"/>
+      <c r="G252"/>
+      <c r="H252"/>
+      <c r="I252"/>
+    </row>
+    <row r="253" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A253" t="s">
+        <v>48</v>
+      </c>
+      <c r="C253" t="s">
+        <v>21</v>
+      </c>
+      <c r="D253"/>
+      <c r="E253"/>
+      <c r="F253"/>
+      <c r="G253"/>
+      <c r="H253"/>
+      <c r="I253"/>
+    </row>
+    <row r="254" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A254" t="s">
+        <v>48</v>
+      </c>
+      <c r="C254" t="s">
+        <v>24</v>
+      </c>
+      <c r="D254"/>
+      <c r="E254"/>
+      <c r="F254"/>
+      <c r="G254"/>
+      <c r="H254"/>
+      <c r="I254"/>
+    </row>
+    <row r="255" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A255" t="s">
+        <v>48</v>
+      </c>
+      <c r="C255" t="s">
+        <v>25</v>
+      </c>
+      <c r="D255"/>
+      <c r="E255"/>
+      <c r="F255"/>
+      <c r="G255"/>
+      <c r="H255"/>
+      <c r="I255"/>
+    </row>
+    <row r="256" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A256" t="s">
+        <v>48</v>
+      </c>
+      <c r="C256" t="s">
+        <v>23</v>
+      </c>
+      <c r="D256"/>
+      <c r="E256"/>
+      <c r="F256"/>
+      <c r="G256"/>
+      <c r="H256"/>
+      <c r="I256"/>
+    </row>
+    <row r="257" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A257" t="s">
+        <v>49</v>
+      </c>
+      <c r="B257" t="s">
+        <v>38</v>
+      </c>
+      <c r="C257" t="s">
+        <v>10</v>
+      </c>
+      <c r="D257"/>
+      <c r="E257"/>
+      <c r="F257"/>
+      <c r="G257"/>
+      <c r="H257"/>
+      <c r="I257"/>
+    </row>
+    <row r="258" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A258" t="s">
+        <v>49</v>
+      </c>
+      <c r="B258" t="s">
+        <v>38</v>
+      </c>
+      <c r="C258" t="s">
+        <v>14</v>
+      </c>
+      <c r="D258"/>
+      <c r="E258"/>
+      <c r="F258"/>
+      <c r="G258"/>
+      <c r="H258"/>
+      <c r="I258"/>
+    </row>
+    <row r="259" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A259" t="s">
+        <v>49</v>
+      </c>
+      <c r="B259" t="s">
+        <v>38</v>
+      </c>
+      <c r="C259" t="s">
+        <v>15</v>
+      </c>
+      <c r="D259"/>
+      <c r="E259"/>
+      <c r="F259"/>
+      <c r="G259"/>
+      <c r="H259"/>
+      <c r="I259"/>
+    </row>
+    <row r="260" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A260" t="s">
+        <v>49</v>
+      </c>
+      <c r="B260" t="s">
+        <v>38</v>
+      </c>
+      <c r="C260" t="s">
+        <v>16</v>
+      </c>
+      <c r="D260" s="10">
+        <v>0.96697319999999998</v>
+      </c>
+      <c r="E260" s="10">
+        <v>1.7532269999999999E-2</v>
+      </c>
+      <c r="F260"/>
+      <c r="G260"/>
+      <c r="H260"/>
+      <c r="I260"/>
+    </row>
+    <row r="261" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A261" t="s">
+        <v>49</v>
+      </c>
+      <c r="B261" t="s">
+        <v>38</v>
+      </c>
+      <c r="C261" t="s">
+        <v>17</v>
+      </c>
+      <c r="D261"/>
+      <c r="E261"/>
+      <c r="F261"/>
+      <c r="G261"/>
+      <c r="H261"/>
+      <c r="I261"/>
+    </row>
+    <row r="262" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A262" t="s">
+        <v>49</v>
+      </c>
+      <c r="B262" t="s">
+        <v>38</v>
+      </c>
+      <c r="C262" t="s">
+        <v>18</v>
+      </c>
+      <c r="D262"/>
+      <c r="E262"/>
+      <c r="F262"/>
+      <c r="G262"/>
+      <c r="H262"/>
+      <c r="I262"/>
+    </row>
+    <row r="263" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A263" t="s">
+        <v>49</v>
+      </c>
+      <c r="B263" t="s">
+        <v>38</v>
+      </c>
+      <c r="C263" t="s">
+        <v>19</v>
+      </c>
+      <c r="D263"/>
+      <c r="E263"/>
+      <c r="F263"/>
+      <c r="G263"/>
+      <c r="H263"/>
+      <c r="I263"/>
+    </row>
+    <row r="264" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A264" t="s">
+        <v>49</v>
+      </c>
+      <c r="B264" t="s">
+        <v>38</v>
+      </c>
+      <c r="C264" t="s">
+        <v>20</v>
+      </c>
+      <c r="D264" s="10">
+        <v>0.96848080000000003</v>
+      </c>
+      <c r="E264" s="10">
+        <v>1.131946E-2</v>
+      </c>
+      <c r="F264"/>
+      <c r="G264"/>
+      <c r="H264"/>
+      <c r="I264"/>
+    </row>
+    <row r="265" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A265" t="s">
+        <v>49</v>
+      </c>
+      <c r="B265" t="s">
+        <v>38</v>
+      </c>
+      <c r="C265" t="s">
+        <v>13</v>
+      </c>
+      <c r="D265" s="10">
+        <v>0.96776340000000005</v>
+      </c>
+      <c r="E265" s="10">
+        <v>9.1905170000000005E-3</v>
+      </c>
+      <c r="F265"/>
+      <c r="G265"/>
+      <c r="H265"/>
+      <c r="I265"/>
+    </row>
+    <row r="266" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A266" t="s">
+        <v>49</v>
+      </c>
+      <c r="B266" t="s">
+        <v>38</v>
+      </c>
+      <c r="C266" t="s">
+        <v>21</v>
+      </c>
+      <c r="D266"/>
+      <c r="E266"/>
+      <c r="F266"/>
+      <c r="G266"/>
+      <c r="H266"/>
+      <c r="I266"/>
+    </row>
+    <row r="267" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A267" t="s">
+        <v>49</v>
+      </c>
+      <c r="B267" t="s">
+        <v>38</v>
+      </c>
+      <c r="C267" t="s">
+        <v>24</v>
+      </c>
+      <c r="D267"/>
+      <c r="E267"/>
+      <c r="F267"/>
+      <c r="G267"/>
+      <c r="H267"/>
+      <c r="I267"/>
+    </row>
+    <row r="268" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A268" t="s">
+        <v>49</v>
+      </c>
+      <c r="B268" t="s">
+        <v>38</v>
+      </c>
+      <c r="C268" t="s">
+        <v>25</v>
+      </c>
+      <c r="D268"/>
+      <c r="E268"/>
+      <c r="F268"/>
+      <c r="G268"/>
+      <c r="H268"/>
+      <c r="I268"/>
+    </row>
+    <row r="269" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A269" t="s">
+        <v>49</v>
+      </c>
+      <c r="B269" t="s">
+        <v>38</v>
+      </c>
+      <c r="C269" t="s">
+        <v>23</v>
+      </c>
+      <c r="D269" s="10">
+        <v>0.92447060000000003</v>
+      </c>
+      <c r="E269" s="10">
+        <v>1.5865689999999998E-2</v>
+      </c>
+      <c r="F269" s="10"/>
+      <c r="G269" s="10"/>
+      <c r="H269"/>
+      <c r="I269"/>
+    </row>
+    <row r="270" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A270" t="s">
+        <v>49</v>
+      </c>
+      <c r="B270" t="s">
+        <v>41</v>
+      </c>
+      <c r="C270" t="s">
+        <v>10</v>
+      </c>
+      <c r="D270"/>
+      <c r="E270"/>
+      <c r="F270"/>
+      <c r="G270"/>
+      <c r="H270"/>
+      <c r="I270"/>
+    </row>
+    <row r="271" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A271" t="s">
+        <v>49</v>
+      </c>
+      <c r="B271" t="s">
+        <v>41</v>
+      </c>
+      <c r="C271" t="s">
+        <v>14</v>
+      </c>
+      <c r="D271"/>
+      <c r="E271"/>
+      <c r="F271"/>
+      <c r="G271"/>
+      <c r="H271"/>
+      <c r="I271"/>
+    </row>
+    <row r="272" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A272" t="s">
+        <v>49</v>
+      </c>
+      <c r="B272" t="s">
+        <v>41</v>
+      </c>
+      <c r="C272" t="s">
+        <v>15</v>
+      </c>
+      <c r="D272"/>
+      <c r="E272"/>
+      <c r="F272"/>
+      <c r="G272"/>
+      <c r="H272"/>
+      <c r="I272"/>
+    </row>
+    <row r="273" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A273" t="s">
+        <v>49</v>
+      </c>
+      <c r="B273" t="s">
+        <v>41</v>
+      </c>
+      <c r="C273" t="s">
+        <v>16</v>
+      </c>
+      <c r="D273"/>
+      <c r="E273"/>
+      <c r="F273"/>
+      <c r="G273"/>
+      <c r="H273"/>
+      <c r="I273"/>
+    </row>
+    <row r="274" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A274" t="s">
+        <v>49</v>
+      </c>
+      <c r="B274" t="s">
+        <v>41</v>
+      </c>
+      <c r="C274" t="s">
+        <v>17</v>
+      </c>
+      <c r="D274"/>
+      <c r="E274"/>
+      <c r="F274"/>
+      <c r="G274"/>
+      <c r="H274"/>
+      <c r="I274"/>
+    </row>
+    <row r="275" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A275" t="s">
+        <v>49</v>
+      </c>
+      <c r="B275" t="s">
+        <v>41</v>
+      </c>
+      <c r="C275" t="s">
+        <v>18</v>
+      </c>
+      <c r="D275"/>
+      <c r="E275"/>
+      <c r="F275"/>
+      <c r="G275"/>
+      <c r="H275"/>
+      <c r="I275"/>
+    </row>
+    <row r="276" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A276" t="s">
+        <v>49</v>
+      </c>
+      <c r="B276" t="s">
+        <v>41</v>
+      </c>
+      <c r="C276" t="s">
+        <v>19</v>
+      </c>
+      <c r="D276"/>
+      <c r="E276"/>
+      <c r="F276"/>
+      <c r="G276"/>
+      <c r="H276"/>
+      <c r="I276"/>
+    </row>
+    <row r="277" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A277" t="s">
+        <v>49</v>
+      </c>
+      <c r="B277" t="s">
+        <v>41</v>
+      </c>
+      <c r="C277" t="s">
+        <v>20</v>
+      </c>
+      <c r="D277"/>
+      <c r="E277"/>
+      <c r="F277"/>
+      <c r="G277"/>
+      <c r="H277"/>
+      <c r="I277"/>
+    </row>
+    <row r="278" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A278" t="s">
+        <v>49</v>
+      </c>
+      <c r="B278" t="s">
+        <v>41</v>
+      </c>
+      <c r="C278" t="s">
+        <v>13</v>
+      </c>
+      <c r="D278"/>
+      <c r="E278"/>
+      <c r="F278"/>
+      <c r="G278"/>
+      <c r="H278"/>
+      <c r="I278"/>
+    </row>
+    <row r="279" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A279" t="s">
+        <v>49</v>
+      </c>
+      <c r="B279" t="s">
+        <v>41</v>
+      </c>
+      <c r="C279" t="s">
+        <v>21</v>
+      </c>
+      <c r="D279"/>
+      <c r="E279"/>
+      <c r="F279"/>
+      <c r="G279"/>
+      <c r="H279"/>
+      <c r="I279"/>
+    </row>
+    <row r="280" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A280" t="s">
+        <v>49</v>
+      </c>
+      <c r="B280" t="s">
+        <v>41</v>
+      </c>
+      <c r="C280" t="s">
+        <v>24</v>
+      </c>
+      <c r="D280"/>
+      <c r="E280"/>
+      <c r="F280"/>
+      <c r="G280"/>
+      <c r="H280"/>
+      <c r="I280"/>
+    </row>
+    <row r="281" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A281" t="s">
+        <v>49</v>
+      </c>
+      <c r="B281" t="s">
+        <v>41</v>
+      </c>
+      <c r="C281" t="s">
+        <v>25</v>
+      </c>
+      <c r="D281"/>
+      <c r="E281"/>
+      <c r="F281"/>
+      <c r="G281"/>
+      <c r="H281"/>
+      <c r="I281"/>
+    </row>
+    <row r="282" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A282" t="s">
+        <v>49</v>
+      </c>
+      <c r="B282" t="s">
+        <v>41</v>
+      </c>
+      <c r="C282" t="s">
+        <v>23</v>
+      </c>
+      <c r="D282"/>
+      <c r="E282"/>
+      <c r="F282"/>
+      <c r="G282"/>
+      <c r="H282"/>
+      <c r="I282"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD6E9ED3-B118-FB4D-941A-232D422450BC}">
   <dimension ref="A1:K28"/>
   <sheetViews>
@@ -8999,7 +10469,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9808F33F-C525-D948-8003-82AA40F8E7ED}">
   <dimension ref="A1:J131"/>
   <sheetViews>

--- a/Linear Reg Results.xlsx
+++ b/Linear Reg Results.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10613"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/spencerzeigler/Documents/Flowers Lab/Apatite Nano-CT Project_Feb 2019_June 2020/apatite-project-git/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC8C2B7A-ABEA-134F-9A0F-D678F78CE50E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE3F2753-AC93-F649-B136-99B2B69F16DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15800" xr2:uid="{1F4BBB5C-D696-084E-A23E-1931277E5F2D}"/>
+    <workbookView xWindow="4800" yWindow="500" windowWidth="28800" windowHeight="15800" xr2:uid="{1F4BBB5C-D696-084E-A23E-1931277E5F2D}"/>
   </bookViews>
   <sheets>
     <sheet name="comp" sheetId="4" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <sheet name="ft.comp" sheetId="3" r:id="rId4"/>
     <sheet name="vol.reg.master" sheetId="2" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1835" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1963" uniqueCount="68">
   <si>
     <t>gem</t>
   </si>
@@ -190,7 +190,58 @@
     <t>bootstrapped.common</t>
   </si>
   <si>
-    <t>bootstrapped.common= I switched x and y in my regression so it is now s.ft ~ db.ft</t>
+    <t>common.only</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I used to be regressing like: lm (db.ft ~ s.ft)-- this is backwards and implies all the uncertainty is in the 3D values. </t>
+  </si>
+  <si>
+    <t>I fixed my regression, so now it is: lm(s.ft ~ 0 + db.ft)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">but this slope requires that I plot my graphs so that db.ft is the x axis and s.fr is they-- this looks fucked up. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SO I inverted the slopes (ie. 1/slope)= and THAT value plots normally on a graph with x = s.ft and y = db.ft (god bless) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">the inverted slope values, which should be the ones that are reported in the correction, are </t>
+  </si>
+  <si>
+    <t>plot.slope</t>
+  </si>
+  <si>
+    <t>common.only.lm.fixed ON ft.comp</t>
+  </si>
+  <si>
+    <t>std.err</t>
+  </si>
+  <si>
+    <t>bootstrap.common</t>
+  </si>
+  <si>
+    <t>*possibly unreliable due to small sample set</t>
+  </si>
+  <si>
+    <t>AB.term0</t>
+  </si>
+  <si>
+    <t>AB.term1</t>
+  </si>
+  <si>
+    <t>AB.term2</t>
+  </si>
+  <si>
+    <t>C.term0</t>
+  </si>
+  <si>
+    <t>C.term1</t>
+  </si>
+  <si>
+    <t>C.term2</t>
+  </si>
+  <si>
+    <t>esr</t>
   </si>
 </sst>
 </file>
@@ -200,7 +251,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -229,19 +280,25 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Lucida Grande"/>
-      <family val="2"/>
-    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -256,7 +313,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -275,7 +332,13 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -590,19 +653,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C39293A-6B04-6F45-BB06-32CE19F4B4C3}">
-  <dimension ref="A1:P107"/>
+  <dimension ref="A1:I107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="150" workbookViewId="0">
+      <selection activeCell="I31" sqref="I31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="31.5" customWidth="1"/>
-    <col min="10" max="10" width="15.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>36</v>
       </c>
@@ -618,1875 +680,2418 @@
       <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I1" s="1" t="s">
+      <c r="F1" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B2" t="s">
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="B2" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="18" t="s">
         <v>10</v>
       </c>
       <c r="D2" s="10">
-        <v>0.97874839999999996</v>
+        <v>1.0205789999999999</v>
       </c>
       <c r="E2" s="10">
-        <v>8.9148569999999996E-2</v>
+        <v>8.4901069999999995E-2</v>
       </c>
       <c r="F2" s="10">
-        <v>0</v>
+        <v>2.2586100000000001E-2</v>
       </c>
       <c r="G2" s="10">
-        <v>0</v>
-      </c>
-      <c r="H2" s="10">
-        <v>2.2118390000000002E-2</v>
-      </c>
-      <c r="I2" t="s">
-        <v>13</v>
-      </c>
-      <c r="J2" t="s">
-        <v>12</v>
-      </c>
-      <c r="L2" s="10">
-        <v>3.9468969999999999E-2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B3" t="s">
+        <v>0.97983600000000004</v>
+      </c>
+      <c r="H2" s="18" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="B3" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="18" t="s">
         <v>14</v>
       </c>
       <c r="D3" s="10">
-        <v>0.9771048</v>
+        <v>1.0224979999999999</v>
       </c>
       <c r="E3" s="10">
-        <v>5.7398869999999998E-2</v>
+        <v>6.1590010000000001E-2</v>
       </c>
       <c r="F3" s="10">
-        <v>0</v>
+        <v>2.009263E-2</v>
       </c>
       <c r="G3" s="10">
-        <v>0</v>
-      </c>
-      <c r="H3" s="10">
-        <v>1.9641570000000001E-2</v>
-      </c>
-      <c r="I3" t="s">
-        <v>13</v>
-      </c>
-      <c r="J3" t="s">
-        <v>12</v>
-      </c>
-      <c r="L3" s="10">
-        <v>3.3166359999999999E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>34</v>
-      </c>
-      <c r="B4" t="s">
+        <v>0.97799729999999996</v>
+      </c>
+      <c r="H3" s="18" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="B4" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="18" t="s">
         <v>15</v>
       </c>
       <c r="D4" s="10">
-        <v>0.96703380000000005</v>
+        <v>1.032349</v>
       </c>
       <c r="E4" s="10">
-        <v>0.1215118</v>
+        <v>0.10245310000000001</v>
       </c>
       <c r="F4" s="10">
-        <v>0</v>
+        <v>2.703916E-2</v>
       </c>
       <c r="G4" s="10">
-        <v>0</v>
-      </c>
-      <c r="H4" s="10">
-        <v>2.616982E-2</v>
-      </c>
-      <c r="I4" t="s">
-        <v>13</v>
-      </c>
-      <c r="J4" t="s">
-        <v>12</v>
-      </c>
-      <c r="L4" s="10">
-        <v>5.0990269999999997E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>34</v>
-      </c>
-      <c r="B5" t="s">
+        <v>0.96866450000000004</v>
+      </c>
+      <c r="H4" s="18" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="B5" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="18" t="s">
         <v>16</v>
       </c>
       <c r="D5" s="10">
-        <v>0.97536990000000001</v>
+        <v>1.0240819999999999</v>
       </c>
       <c r="E5" s="10">
-        <v>4.4346900000000002E-2</v>
+        <v>4.3012920000000003E-2</v>
       </c>
       <c r="F5" s="10">
-        <v>0</v>
+        <v>2.2158199999999999E-2</v>
       </c>
       <c r="G5" s="10">
-        <v>0</v>
-      </c>
-      <c r="H5" s="10"/>
-      <c r="I5" t="s">
-        <v>13</v>
-      </c>
-      <c r="J5" t="s">
-        <v>12</v>
-      </c>
-      <c r="L5" s="10">
-        <v>3.8303839999999999E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>34</v>
-      </c>
-      <c r="B6" t="s">
+        <v>0.97648409999999997</v>
+      </c>
+      <c r="H5" s="18" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="B6" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="18" t="s">
         <v>17</v>
       </c>
       <c r="D6" s="10">
-        <v>0.98030289999999998</v>
+        <v>1.0190840000000001</v>
       </c>
       <c r="E6" s="10">
-        <v>5.7729389999999998E-2</v>
+        <v>5.4969949999999997E-2</v>
       </c>
       <c r="F6" s="10">
-        <v>0</v>
+        <v>2.0015069999999999E-2</v>
       </c>
       <c r="G6" s="10">
-        <v>0</v>
-      </c>
-      <c r="H6" s="10">
-        <v>1.9630539999999998E-2</v>
-      </c>
-      <c r="I6" t="s">
-        <v>13</v>
-      </c>
-      <c r="J6" t="s">
-        <v>12</v>
-      </c>
-      <c r="L6" s="10">
-        <v>3.5186820000000001E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>34</v>
-      </c>
-      <c r="B7" t="s">
+        <v>0.98127299999999995</v>
+      </c>
+      <c r="H6" s="18" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="B7" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="18" t="s">
         <v>18</v>
       </c>
       <c r="D7" s="10">
-        <v>0.97410620000000003</v>
+        <v>1.0252870000000001</v>
       </c>
       <c r="E7" s="10">
-        <v>7.2101689999999996E-2</v>
+        <v>6.8134799999999995E-2</v>
       </c>
       <c r="F7" s="10">
-        <v>0</v>
+        <v>2.3712469999999999E-2</v>
       </c>
       <c r="G7" s="10">
-        <v>0</v>
-      </c>
-      <c r="H7" s="10">
-        <v>2.311305E-2</v>
-      </c>
-      <c r="I7" t="s">
-        <v>13</v>
-      </c>
-      <c r="J7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L7" s="10">
-        <v>3.8765269999999998E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>34</v>
-      </c>
-      <c r="B8" t="s">
+        <v>0.97533650000000005</v>
+      </c>
+      <c r="H7" s="18" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="B8" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="18" t="s">
         <v>19</v>
       </c>
       <c r="D8" s="10">
-        <v>0.96659629999999996</v>
+        <v>1.031326</v>
       </c>
       <c r="E8" s="10">
-        <v>0.23584659999999999</v>
+        <v>0.1548033</v>
       </c>
       <c r="F8" s="10">
-        <v>0</v>
+        <v>3.7323639999999998E-2</v>
       </c>
       <c r="G8" s="10">
-        <v>0</v>
-      </c>
-      <c r="H8" s="10">
-        <v>3.6133390000000001E-2</v>
-      </c>
-      <c r="I8" t="s">
-        <v>13</v>
-      </c>
-      <c r="J8" t="s">
-        <v>12</v>
-      </c>
-      <c r="L8" s="10">
-        <v>6.3703869999999996E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>34</v>
-      </c>
-      <c r="B9" t="s">
+        <v>0.96962559999999998</v>
+      </c>
+      <c r="H8" s="18" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="B9" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="18" t="s">
         <v>20</v>
       </c>
       <c r="D9" s="10">
-        <v>0.97459070000000003</v>
+        <v>1.0244549999999999</v>
       </c>
       <c r="E9" s="10">
-        <v>4.8481719999999999E-2</v>
+        <v>4.4587130000000003E-2</v>
       </c>
       <c r="F9" s="10">
-        <v>0</v>
+        <v>2.5817260000000002E-2</v>
       </c>
       <c r="G9" s="10">
-        <v>0</v>
-      </c>
-      <c r="H9" s="10">
-        <v>2.5181100000000001E-2</v>
-      </c>
-      <c r="I9" t="s">
-        <v>13</v>
-      </c>
-      <c r="J9" t="s">
-        <v>12</v>
-      </c>
-      <c r="L9" s="10">
-        <v>4.335833E-2</v>
-      </c>
-      <c r="M9" s="10"/>
-      <c r="N9" s="10"/>
-      <c r="O9" s="10"/>
-      <c r="P9" s="10"/>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>34</v>
-      </c>
-      <c r="B10" t="s">
+        <v>0.97612840000000001</v>
+      </c>
+      <c r="H9" s="18" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="B10" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="18" t="s">
         <v>13</v>
       </c>
       <c r="D10" s="10">
-        <v>0.97488839999999999</v>
+        <v>1.024313</v>
       </c>
       <c r="E10" s="10">
-        <v>3.3324560000000003E-2</v>
+        <v>3.1401539999999999E-2</v>
       </c>
       <c r="F10" s="10">
-        <v>0</v>
+        <v>2.4424209999999998E-2</v>
       </c>
       <c r="G10" s="10">
-        <v>0</v>
-      </c>
-      <c r="H10" s="10">
-        <v>2.382768E-2</v>
-      </c>
-      <c r="I10" t="s">
-        <v>13</v>
-      </c>
-      <c r="J10" t="s">
-        <v>12</v>
-      </c>
-      <c r="L10" s="10">
-        <v>4.1278629999999997E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>34</v>
-      </c>
-      <c r="B11" t="s">
+        <v>0.97626429999999997</v>
+      </c>
+      <c r="H10" s="18" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="B11" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="18" t="s">
         <v>21</v>
       </c>
       <c r="D11" s="10">
-        <v>0.92894489999999996</v>
+        <v>1.075787</v>
       </c>
       <c r="E11" s="10">
-        <v>0.36221769999999998</v>
+        <v>0.29072490000000001</v>
       </c>
       <c r="F11" s="10">
-        <v>0</v>
+        <v>1.8716050000000001E-2</v>
       </c>
       <c r="G11" s="10">
-        <v>0</v>
-      </c>
-      <c r="H11" s="10">
-        <v>1.7391859999999999E-2</v>
-      </c>
-      <c r="I11" t="s">
+        <v>0.92955169999999998</v>
+      </c>
+      <c r="H11" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="J11" t="s">
-        <v>22</v>
-      </c>
-      <c r="L11" s="10">
-        <v>3.441893E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>34</v>
-      </c>
-      <c r="B12" t="s">
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="B12" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="18" t="s">
         <v>24</v>
       </c>
       <c r="D12" s="10">
-        <v>0.95129520000000001</v>
+        <v>1.0500579999999999</v>
       </c>
       <c r="E12" s="10">
-        <v>0.10272679999999999</v>
+        <v>0.1164954</v>
       </c>
       <c r="F12" s="10">
-        <v>0</v>
+        <v>2.2456790000000001E-2</v>
       </c>
       <c r="G12" s="10">
-        <v>0</v>
-      </c>
-      <c r="H12" s="10">
-        <v>2.1374629999999999E-2</v>
-      </c>
-      <c r="I12" t="s">
+        <v>0.95232819999999996</v>
+      </c>
+      <c r="H12" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="J12" t="s">
-        <v>22</v>
-      </c>
-      <c r="L12" s="10">
-        <v>3.7500739999999998E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>34</v>
-      </c>
-      <c r="B13" t="s">
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="B13" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="18" t="s">
         <v>25</v>
       </c>
       <c r="D13" s="10">
-        <v>0.90117579999999997</v>
+        <v>1.108795</v>
       </c>
       <c r="E13" s="10">
-        <v>0.13307430000000001</v>
+        <v>0.14740639999999999</v>
       </c>
       <c r="F13" s="10">
-        <v>0</v>
+        <v>1.9610470000000001E-2</v>
       </c>
       <c r="G13" s="10">
-        <v>0</v>
-      </c>
-      <c r="H13" s="10">
-        <v>1.767939E-2</v>
-      </c>
-      <c r="I13" t="s">
+        <v>0.90188020000000002</v>
+      </c>
+      <c r="H13" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="J13" t="s">
-        <v>22</v>
-      </c>
-      <c r="L13" s="10">
-        <v>3.0836579999999999E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>34</v>
-      </c>
-      <c r="B14" t="s">
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="B14" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="18" t="s">
         <v>23</v>
       </c>
       <c r="D14" s="10">
-        <v>0.9283981</v>
+        <v>1.0754760000000001</v>
       </c>
       <c r="E14" s="10">
-        <v>9.3615500000000004E-2</v>
+        <v>0.1029032</v>
       </c>
       <c r="F14" s="10">
-        <v>0</v>
+        <v>2.6396429999999999E-2</v>
       </c>
       <c r="G14" s="10">
-        <v>0</v>
-      </c>
-      <c r="H14" s="10">
-        <v>2.4525160000000001E-2</v>
-      </c>
-      <c r="I14" t="s">
+        <v>0.92982070000000006</v>
+      </c>
+      <c r="H14" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="J14" t="s">
-        <v>22</v>
-      </c>
-      <c r="L14" s="10">
-        <v>4.1644519999999997E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>34</v>
-      </c>
-      <c r="B15" t="s">
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="B15" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="C15" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="D15" s="10">
+        <v>1.0452939999999999</v>
+      </c>
+      <c r="E15" s="10">
+        <v>0.10654370000000001</v>
+      </c>
+      <c r="F15" s="10">
+        <v>2.9252009999999998E-2</v>
+      </c>
+      <c r="G15" s="10">
+        <v>0.95666819999999997</v>
+      </c>
+      <c r="H15" s="18"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="B16" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="C16" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="D16" s="10">
+        <v>1.0315110000000001</v>
+      </c>
+      <c r="E16" s="10">
+        <v>4.7011600000000001E-2</v>
+      </c>
+      <c r="F16" s="10">
+        <v>2.6061419999999998E-2</v>
+      </c>
+      <c r="G16" s="10">
+        <v>0.96945139999999996</v>
+      </c>
+      <c r="H16" s="18"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A17" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="B17" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="C17" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="D17" s="10">
+        <v>1.0297449999999999</v>
+      </c>
+      <c r="E17" s="10">
+        <v>5.2668850000000003E-2</v>
+      </c>
+      <c r="F17" s="10">
+        <v>2.8019499999999999E-2</v>
+      </c>
+      <c r="G17" s="10">
+        <v>0.97111389999999997</v>
+      </c>
+      <c r="H17" s="18"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A18" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="B18" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C18" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="D15" s="10">
-        <v>0.86122670000000001</v>
-      </c>
-      <c r="E15" s="10">
-        <v>7.4891079999999999E-2</v>
-      </c>
-      <c r="F15" s="10">
-        <v>0</v>
-      </c>
-      <c r="G15" s="10">
-        <v>0</v>
-      </c>
-      <c r="H15" s="10">
-        <v>91925.91</v>
-      </c>
-      <c r="I15" t="s">
-        <v>13</v>
-      </c>
-      <c r="J15" t="s">
-        <v>12</v>
-      </c>
-      <c r="L15" s="10">
-        <v>0.20309530000000001</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>34</v>
-      </c>
-      <c r="B16" t="s">
+      <c r="D18" s="10">
+        <v>1.1307160000000001</v>
+      </c>
+      <c r="E18" s="10">
+        <v>9.3474639999999998E-2</v>
+      </c>
+      <c r="F18" s="10">
+        <v>105330.9</v>
+      </c>
+      <c r="G18" s="10">
+        <v>0.8843955</v>
+      </c>
+      <c r="H18" s="18" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A19" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="B19" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C19" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="D16" s="10">
-        <v>0.83327399999999996</v>
-      </c>
-      <c r="E16" s="10">
-        <v>3.5344319999999999E-2</v>
-      </c>
-      <c r="F16" s="10">
-        <v>0</v>
-      </c>
-      <c r="G16" s="10">
-        <v>0</v>
-      </c>
-      <c r="H16" s="10">
-        <v>55532.49</v>
-      </c>
-      <c r="I16" t="s">
-        <v>13</v>
-      </c>
-      <c r="J16" t="s">
-        <v>12</v>
-      </c>
-      <c r="L16" s="10">
-        <v>0.16486999999999999</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>34</v>
-      </c>
-      <c r="B17" t="s">
+      <c r="D19" s="10">
+        <v>1.183899</v>
+      </c>
+      <c r="E19" s="10">
+        <v>5.2012210000000003E-2</v>
+      </c>
+      <c r="F19" s="10">
+        <v>66192.759999999995</v>
+      </c>
+      <c r="G19" s="10">
+        <v>0.84466669999999999</v>
+      </c>
+      <c r="H19" s="18" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A20" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="B20" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C20" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="D17" s="10">
-        <v>0.86044790000000004</v>
-      </c>
-      <c r="E17" s="10">
-        <v>5.7664590000000002E-2</v>
-      </c>
-      <c r="F17" s="10">
-        <v>0</v>
-      </c>
-      <c r="G17" s="10">
-        <v>0</v>
-      </c>
-      <c r="H17" s="10">
-        <v>50617.4</v>
-      </c>
-      <c r="I17" t="s">
-        <v>13</v>
-      </c>
-      <c r="J17" t="s">
-        <v>12</v>
-      </c>
-      <c r="L17" s="10">
-        <v>0.17925869999999999</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>34</v>
-      </c>
-      <c r="B18" t="s">
+      <c r="D20" s="10">
+        <v>1.145699</v>
+      </c>
+      <c r="E20" s="10">
+        <v>7.2400179999999995E-2</v>
+      </c>
+      <c r="F20" s="10">
+        <v>58408.06</v>
+      </c>
+      <c r="G20" s="10">
+        <v>0.87282950000000004</v>
+      </c>
+      <c r="H20" s="18" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A21" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="B21" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C21" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="D18" s="10">
-        <v>0.8459508</v>
-      </c>
-      <c r="E18" s="10">
-        <v>2.8658110000000001E-2</v>
-      </c>
-      <c r="F18" s="10">
-        <v>0</v>
-      </c>
-      <c r="G18" s="10">
-        <v>0</v>
-      </c>
-      <c r="H18" s="10">
-        <v>64400.89</v>
-      </c>
-      <c r="I18" t="s">
-        <v>13</v>
-      </c>
-      <c r="J18" t="s">
-        <v>12</v>
-      </c>
-      <c r="L18" s="10">
-        <v>0.16873730000000001</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>34</v>
-      </c>
-      <c r="B19" t="s">
+      <c r="D21" s="10">
+        <v>1.161006</v>
+      </c>
+      <c r="E21" s="10">
+        <v>3.8803829999999997E-2</v>
+      </c>
+      <c r="F21" s="10">
+        <v>75446.06</v>
+      </c>
+      <c r="G21" s="10">
+        <v>0.86132200000000003</v>
+      </c>
+      <c r="H21" s="18" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A22" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="B22" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C22" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="D19" s="10">
-        <v>0.89983329999999995</v>
-      </c>
-      <c r="E19" s="10">
-        <v>2.9619980000000001E-2</v>
-      </c>
-      <c r="F19" s="10">
-        <v>0</v>
-      </c>
-      <c r="G19" s="10">
-        <v>0</v>
-      </c>
-      <c r="H19" s="10">
-        <v>43313.93</v>
-      </c>
-      <c r="I19" t="s">
-        <v>13</v>
-      </c>
-      <c r="J19" t="s">
-        <v>12</v>
-      </c>
-      <c r="L19" s="10">
-        <v>0.13763040000000001</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>34</v>
-      </c>
-      <c r="B20" t="s">
+      <c r="D22" s="10">
+        <v>1.099062</v>
+      </c>
+      <c r="E22" s="10">
+        <v>3.6629399999999999E-2</v>
+      </c>
+      <c r="F22" s="10">
+        <v>47869.37</v>
+      </c>
+      <c r="G22" s="10">
+        <v>0.90986650000000002</v>
+      </c>
+      <c r="H22" s="18" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A23" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="B23" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C23" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="D20" s="10">
-        <v>0.85242379999999995</v>
-      </c>
-      <c r="E20" s="10">
-        <v>4.6803789999999998E-2</v>
-      </c>
-      <c r="F20" s="10">
-        <v>0</v>
-      </c>
-      <c r="G20" s="10">
-        <v>0</v>
-      </c>
-      <c r="H20" s="10">
-        <v>77275.259999999995</v>
-      </c>
-      <c r="I20" t="s">
-        <v>13</v>
-      </c>
-      <c r="J20" t="s">
-        <v>12</v>
-      </c>
-      <c r="L20" s="10">
-        <v>0.17839669999999999</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>34</v>
-      </c>
-      <c r="B21" t="s">
+      <c r="D23" s="10">
+        <v>1.142587</v>
+      </c>
+      <c r="E23" s="10">
+        <v>6.2762159999999997E-2</v>
+      </c>
+      <c r="F23" s="10">
+        <v>89465.87</v>
+      </c>
+      <c r="G23" s="10">
+        <v>0.8752067</v>
+      </c>
+      <c r="H23" s="18" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A24" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="B24" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C24" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="D21" s="10">
-        <v>0.84098810000000002</v>
-      </c>
-      <c r="E21" s="10">
-        <v>0.1163207</v>
-      </c>
-      <c r="F21" s="10">
-        <v>0</v>
-      </c>
-      <c r="G21" s="10">
-        <v>0</v>
-      </c>
-      <c r="H21" s="10">
-        <v>87907.92</v>
-      </c>
-      <c r="I21" t="s">
-        <v>13</v>
-      </c>
-      <c r="J21" t="s">
-        <v>12</v>
-      </c>
-      <c r="L21" s="10">
-        <v>0.37666230000000001</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>34</v>
-      </c>
-      <c r="B22" t="s">
+      <c r="D24" s="10">
+        <v>1.1271789999999999</v>
+      </c>
+      <c r="E24" s="10">
+        <v>0.13623109999999999</v>
+      </c>
+      <c r="F24" s="10">
+        <v>101772.3</v>
+      </c>
+      <c r="G24" s="10">
+        <v>0.88717029999999997</v>
+      </c>
+      <c r="H24" s="18" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A25" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="B25" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C25" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="D22" s="10">
-        <v>0.8643535</v>
-      </c>
-      <c r="E22" s="10">
-        <v>2.9077550000000001E-2</v>
-      </c>
-      <c r="F22" s="10">
-        <v>0</v>
-      </c>
-      <c r="G22" s="10">
-        <v>0</v>
-      </c>
-      <c r="H22" s="10">
-        <v>70170.149999999994</v>
-      </c>
-      <c r="I22" t="s">
-        <v>13</v>
-      </c>
-      <c r="J22" t="s">
-        <v>12</v>
-      </c>
-      <c r="L22" s="10">
-        <v>0.22421199999999999</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>34</v>
-      </c>
-      <c r="B23" t="s">
+      <c r="D25" s="10">
+        <v>1.126744</v>
+      </c>
+      <c r="E25" s="10">
+        <v>3.7530059999999997E-2</v>
+      </c>
+      <c r="F25" s="10">
+        <v>80116.009999999995</v>
+      </c>
+      <c r="G25" s="10">
+        <v>0.887513</v>
+      </c>
+      <c r="H25" s="18" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A26" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="B26" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="C23" t="s">
-        <v>13</v>
-      </c>
-      <c r="D23" s="10">
-        <v>0.85624199999999995</v>
-      </c>
-      <c r="E23" s="10">
-        <v>2.046276E-2</v>
-      </c>
-      <c r="F23" s="10">
-        <v>0</v>
-      </c>
-      <c r="G23" s="10">
-        <v>0</v>
-      </c>
-      <c r="H23" s="10">
-        <v>68007.19</v>
-      </c>
-      <c r="I23" t="s">
-        <v>13</v>
-      </c>
-      <c r="J23" t="s">
-        <v>12</v>
-      </c>
-      <c r="L23" s="10">
-        <v>0.2029608</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>34</v>
-      </c>
-      <c r="B24" t="s">
+      <c r="C26" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="D26" s="10">
+        <v>1.141413</v>
+      </c>
+      <c r="E26" s="10">
+        <v>2.7036850000000001E-2</v>
+      </c>
+      <c r="F26" s="10">
+        <v>78519.570000000007</v>
+      </c>
+      <c r="G26" s="10">
+        <v>0.87610730000000003</v>
+      </c>
+      <c r="H26" s="18" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A27" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="B27" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C27" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="D24" s="10">
-        <v>0.73908750000000001</v>
-      </c>
-      <c r="E24" s="10">
-        <v>0.19909389999999999</v>
-      </c>
-      <c r="F24" s="10">
-        <v>0</v>
-      </c>
-      <c r="G24" s="10">
-        <v>0</v>
-      </c>
-      <c r="H24" s="10">
-        <v>23918.63</v>
-      </c>
-      <c r="I24" t="s">
+      <c r="D27" s="10">
+        <v>1.3401479999999999</v>
+      </c>
+      <c r="E27" s="10">
+        <v>0.31290020000000002</v>
+      </c>
+      <c r="F27" s="10">
+        <v>32208.080000000002</v>
+      </c>
+      <c r="G27" s="10">
+        <v>0.74618609999999996</v>
+      </c>
+      <c r="H27" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="J24" t="s">
-        <v>22</v>
-      </c>
-      <c r="L24" s="10">
-        <v>0.15190629999999999</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>34</v>
-      </c>
-      <c r="B25" t="s">
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A28" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="B28" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C28" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="D25" s="10">
-        <v>0.85115810000000003</v>
-      </c>
-      <c r="E25" s="10">
-        <v>6.2930680000000003E-2</v>
-      </c>
-      <c r="F25" s="10">
-        <v>0</v>
-      </c>
-      <c r="G25" s="10">
-        <v>0</v>
-      </c>
-      <c r="H25" s="10">
-        <v>34306.04</v>
-      </c>
-      <c r="I25" t="s">
+      <c r="D28" s="10">
+        <v>1.1611089999999999</v>
+      </c>
+      <c r="E28" s="10">
+        <v>8.7134429999999999E-2</v>
+      </c>
+      <c r="F28" s="10">
+        <v>40068.400000000001</v>
+      </c>
+      <c r="G28" s="10">
+        <v>0.86124540000000005</v>
+      </c>
+      <c r="H28" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="J25" t="s">
-        <v>22</v>
-      </c>
-      <c r="L25" s="10">
-        <v>0.15509880000000001</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>34</v>
-      </c>
-      <c r="B26" t="s">
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A29" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="B29" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C29" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="D26" s="10">
-        <v>0.63076960000000004</v>
-      </c>
-      <c r="E26" s="10">
-        <v>8.7562310000000004E-2</v>
-      </c>
-      <c r="F26" s="10">
-        <v>0</v>
-      </c>
-      <c r="G26" s="10">
-        <v>0</v>
-      </c>
-      <c r="H26" s="10">
-        <v>44012.18</v>
-      </c>
-      <c r="I26" t="s">
+      <c r="D29" s="10">
+        <v>1.539436</v>
+      </c>
+      <c r="E29" s="10">
+        <v>0.26219140000000002</v>
+      </c>
+      <c r="F29" s="10">
+        <v>68757.210000000006</v>
+      </c>
+      <c r="G29" s="10">
+        <v>0.64958870000000002</v>
+      </c>
+      <c r="H29" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="J26" t="s">
-        <v>22</v>
-      </c>
-      <c r="L26" s="10">
-        <v>0.15978400000000001</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>34</v>
-      </c>
-      <c r="B27" t="s">
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A30" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="B30" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C30" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="D27" s="10">
-        <v>0.74320370000000002</v>
-      </c>
-      <c r="E27" s="10">
-        <v>6.7392880000000002E-2</v>
-      </c>
-      <c r="F27" s="10">
-        <v>0</v>
-      </c>
-      <c r="G27" s="10">
-        <v>0</v>
-      </c>
-      <c r="H27" s="10">
-        <v>52774.79</v>
-      </c>
-      <c r="I27" t="s">
+      <c r="D30" s="10">
+        <v>1.297031</v>
+      </c>
+      <c r="E30" s="10">
+        <v>0.1211501</v>
+      </c>
+      <c r="F30" s="10">
+        <v>69718.47</v>
+      </c>
+      <c r="G30" s="10">
+        <v>0.77099139999999999</v>
+      </c>
+      <c r="H30" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="J27" t="s">
-        <v>22</v>
-      </c>
-      <c r="L27" s="10">
-        <v>0.18870110000000001</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>34</v>
-      </c>
-      <c r="B28" t="s">
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A31" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="B31" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C31" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="D28" s="10">
-        <v>0.72591519999999998</v>
-      </c>
-      <c r="E28" s="10">
-        <v>5.4824900000000003E-2</v>
-      </c>
-      <c r="F28" s="10">
-        <v>0</v>
-      </c>
-      <c r="G28" s="10">
-        <v>0</v>
-      </c>
-      <c r="H28" s="10">
-        <v>71040.17</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>34</v>
-      </c>
-      <c r="B29" t="s">
+      <c r="D31" s="10">
+        <v>1.3392660000000001</v>
+      </c>
+      <c r="E31" s="10">
+        <v>9.9567279999999994E-2</v>
+      </c>
+      <c r="F31" s="10">
+        <v>96492.72</v>
+      </c>
+      <c r="G31" s="10">
+        <v>0.74667749999999999</v>
+      </c>
+      <c r="H31" s="18"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A32" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="B32" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C32" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="D29" s="10">
-        <v>0.8286192</v>
-      </c>
-      <c r="E29" s="10">
-        <v>2.3192460000000002E-2</v>
-      </c>
-      <c r="F29" s="10">
-        <v>0</v>
-      </c>
-      <c r="G29" s="10">
-        <v>0</v>
-      </c>
-      <c r="H29" s="10">
-        <v>50085.98</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>34</v>
-      </c>
-      <c r="B30" t="s">
+      <c r="D32" s="10">
+        <v>1.188941</v>
+      </c>
+      <c r="E32" s="10">
+        <v>3.263431E-2</v>
+      </c>
+      <c r="F32" s="10">
+        <v>59995.519999999997</v>
+      </c>
+      <c r="G32" s="10">
+        <v>0.84108490000000002</v>
+      </c>
+      <c r="H32" s="17"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A33" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="B33" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C33" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="D30" s="10">
-        <v>0.91434890000000002</v>
-      </c>
-      <c r="E30" s="10">
-        <v>2.676079E-2</v>
-      </c>
-      <c r="F30" s="10">
-        <v>0</v>
-      </c>
-      <c r="G30" s="10">
-        <v>0</v>
-      </c>
-      <c r="H30" s="10">
-        <v>62173.23</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>49</v>
-      </c>
-      <c r="B31" t="s">
+      <c r="D33" s="10">
+        <v>1.0723400000000001</v>
+      </c>
+      <c r="E33" s="10">
+        <v>3.052003E-2</v>
+      </c>
+      <c r="F33" s="10">
+        <v>67330.8</v>
+      </c>
+      <c r="G33" s="10">
+        <v>0.93253989999999998</v>
+      </c>
+      <c r="H33" s="17"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A34" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="B34" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C34" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="D31" s="10"/>
-      <c r="E31" s="10"/>
-      <c r="F31" s="17"/>
-      <c r="G31" s="17"/>
-      <c r="I31" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>49</v>
-      </c>
-      <c r="B32" t="s">
+      <c r="D34" s="10">
+        <v>1.020975</v>
+      </c>
+      <c r="E34" s="10">
+        <v>8.2744310000000005E-3</v>
+      </c>
+      <c r="F34" s="10">
+        <v>8.7657580000000002E-3</v>
+      </c>
+      <c r="G34" s="10">
+        <v>0.9794564</v>
+      </c>
+      <c r="H34" s="17"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A35" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="B35" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C35" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="D32" s="10"/>
-      <c r="E32" s="10"/>
-      <c r="F32" s="17"/>
-      <c r="G32" s="17"/>
-      <c r="I32" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
-        <v>49</v>
-      </c>
-      <c r="B33" t="s">
+      <c r="D35" s="10">
+        <v>1.022216</v>
+      </c>
+      <c r="E35" s="10">
+        <v>4.8610010000000002E-3</v>
+      </c>
+      <c r="F35" s="10">
+        <v>5.2607369999999997E-3</v>
+      </c>
+      <c r="G35" s="10">
+        <v>0.9782672</v>
+      </c>
+      <c r="H35" s="17"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A36" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="B36" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C36" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="D33" s="10"/>
-      <c r="E33" s="10"/>
-      <c r="F33" s="17"/>
-      <c r="G33" s="17"/>
-      <c r="I33" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>49</v>
-      </c>
-      <c r="B34" t="s">
+      <c r="D36" s="10">
+        <v>1.033005</v>
+      </c>
+      <c r="E36" s="10">
+        <v>1.032273E-2</v>
+      </c>
+      <c r="F36" s="10">
+        <v>1.124788E-2</v>
+      </c>
+      <c r="G36" s="10">
+        <v>0.96804950000000001</v>
+      </c>
+      <c r="H36" s="17"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A37" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="B37" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C37" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="D34" s="10"/>
-      <c r="E34" s="10"/>
-      <c r="F34" s="10"/>
-      <c r="G34" s="10"/>
-      <c r="I34" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
-        <v>49</v>
-      </c>
-      <c r="B35" t="s">
+      <c r="D37" s="10">
+        <v>1.024146</v>
+      </c>
+      <c r="E37" s="10">
+        <v>3.8884140000000002E-3</v>
+      </c>
+      <c r="F37" s="10">
+        <v>4.3266010000000002E-3</v>
+      </c>
+      <c r="G37" s="10">
+        <v>0.9764235</v>
+      </c>
+      <c r="H37" s="17"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A38" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="B38" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C38" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="D35" s="10"/>
-      <c r="E35" s="10"/>
-      <c r="F35" s="17"/>
-      <c r="G35" s="17"/>
-      <c r="I35" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
-        <v>49</v>
-      </c>
-      <c r="B36" t="s">
+      <c r="D38" s="10">
+        <v>1.019183</v>
+      </c>
+      <c r="E38" s="10">
+        <v>5.2029140000000003E-3</v>
+      </c>
+      <c r="F38" s="10">
+        <v>5.3433990000000004E-3</v>
+      </c>
+      <c r="G38" s="10">
+        <v>0.98117790000000005</v>
+      </c>
+      <c r="H38" s="17"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A39" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="B39" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C39" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="D36" s="10"/>
-      <c r="E36" s="10"/>
-      <c r="F36" s="17"/>
-      <c r="G36" s="17"/>
-      <c r="I36" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
-        <v>49</v>
-      </c>
-      <c r="B37" t="s">
+      <c r="D39" s="10">
+        <v>1.0254829999999999</v>
+      </c>
+      <c r="E39" s="10">
+        <v>5.2198829999999998E-3</v>
+      </c>
+      <c r="F39" s="10">
+        <v>5.3481709999999997E-3</v>
+      </c>
+      <c r="G39" s="10">
+        <v>0.97515030000000003</v>
+      </c>
+      <c r="H39" s="17"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A40" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="B40" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="C37" t="s">
+      <c r="C40" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="D37" s="10"/>
-      <c r="E37" s="10"/>
-      <c r="F37" s="17"/>
-      <c r="G37" s="17"/>
-      <c r="I37" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
-        <v>49</v>
-      </c>
-      <c r="B38" t="s">
+      <c r="D40" s="10">
+        <v>1.032324</v>
+      </c>
+      <c r="E40" s="10">
+        <v>1.250121E-2</v>
+      </c>
+      <c r="F40" s="10">
+        <v>1.246558E-2</v>
+      </c>
+      <c r="G40" s="10">
+        <v>0.96868790000000005</v>
+      </c>
+      <c r="H40" s="17"/>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A41" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="B41" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C41" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="D38" s="10"/>
-      <c r="E38" s="10"/>
-      <c r="F38" s="10"/>
-      <c r="G38" s="10"/>
-      <c r="I38" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
-        <v>49</v>
-      </c>
-      <c r="B39" t="s">
+      <c r="D41" s="10">
+        <v>1.024427</v>
+      </c>
+      <c r="E41" s="10">
+        <v>3.8531220000000001E-3</v>
+      </c>
+      <c r="F41" s="10">
+        <v>3.9926909999999996E-3</v>
+      </c>
+      <c r="G41" s="10">
+        <v>0.97615510000000005</v>
+      </c>
+      <c r="H41" s="17"/>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A42" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="B42" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="C39" t="s">
-        <v>13</v>
-      </c>
-      <c r="D39" s="10"/>
-      <c r="E39" s="10"/>
-      <c r="F39" s="17"/>
-      <c r="G39" s="17"/>
-      <c r="I39" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
-        <v>49</v>
-      </c>
-      <c r="B40" t="s">
+      <c r="C42" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="D42" s="10">
+        <v>1.0243199999999999</v>
+      </c>
+      <c r="E42" s="10">
+        <v>2.871139E-3</v>
+      </c>
+      <c r="F42" s="10">
+        <v>2.976177E-3</v>
+      </c>
+      <c r="G42" s="10">
+        <v>0.97625770000000001</v>
+      </c>
+      <c r="H42" s="17"/>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A43" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="B43" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="C40" t="s">
+      <c r="C43" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="D40" s="10"/>
-      <c r="E40" s="10"/>
-      <c r="F40" s="17"/>
-      <c r="G40" s="17"/>
-      <c r="I40" t="s">
+      <c r="D43" s="10">
+        <v>1.076093</v>
+      </c>
+      <c r="E43" s="10">
+        <v>1.18545E-2</v>
+      </c>
+      <c r="F43" s="10">
+        <v>1.16846E-2</v>
+      </c>
+      <c r="G43" s="10">
+        <v>0.92928750000000004</v>
+      </c>
+      <c r="H43" s="17"/>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A44" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="B44" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="C44" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="D44" s="10">
+        <v>1.049976</v>
+      </c>
+      <c r="E44" s="10">
+        <v>8.2820559999999994E-3</v>
+      </c>
+      <c r="F44" s="10">
+        <v>8.5964170000000003E-3</v>
+      </c>
+      <c r="G44" s="10">
+        <v>0.95240279999999999</v>
+      </c>
+      <c r="H44" s="17"/>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A45" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="B45" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="C45" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D45" s="10">
+        <v>1.108652</v>
+      </c>
+      <c r="E45" s="10">
+        <v>8.4667240000000001E-3</v>
+      </c>
+      <c r="F45" s="10">
+        <v>8.5231419999999992E-3</v>
+      </c>
+      <c r="G45" s="10">
+        <v>0.90199609999999997</v>
+      </c>
+      <c r="H45" s="17"/>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A46" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="B46" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="C46" s="18" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
-        <v>49</v>
-      </c>
-      <c r="B41" t="s">
+      <c r="D46" s="10">
+        <v>1.075814</v>
+      </c>
+      <c r="E46" s="10">
+        <v>7.0122739999999998E-3</v>
+      </c>
+      <c r="F46" s="10">
+        <v>7.2424220000000001E-3</v>
+      </c>
+      <c r="G46" s="10">
+        <v>0.92952840000000003</v>
+      </c>
+      <c r="H46" s="17"/>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A47" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="B47" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="C41" t="s">
+      <c r="C47" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="D47" s="10">
+        <v>1.0445899999999999</v>
+      </c>
+      <c r="E47" s="10">
+        <v>8.1352639999999997E-3</v>
+      </c>
+      <c r="F47" s="10">
+        <v>8.4680810000000006E-3</v>
+      </c>
+      <c r="G47" s="10">
+        <v>0.95731330000000003</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A48" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="B48" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="C48" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="D48" s="10">
+        <v>1.031353</v>
+      </c>
+      <c r="E48" s="10">
+        <v>4.0026030000000004E-3</v>
+      </c>
+      <c r="F48" s="10">
+        <v>4.466416E-3</v>
+      </c>
+      <c r="G48" s="10">
+        <v>0.96960029999999997</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A49" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="B49" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="C49" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="D49" s="10">
+        <v>1.0297559999999999</v>
+      </c>
+      <c r="E49" s="10">
+        <v>4.1774220000000001E-3</v>
+      </c>
+      <c r="F49" s="10">
+        <v>4.6916299999999996E-3</v>
+      </c>
+      <c r="G49" s="10">
+        <v>0.97110430000000003</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A50" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="B50" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="C50" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="D50" s="10">
+        <v>1.033463</v>
+      </c>
+      <c r="E50" s="10">
+        <v>9.7148960000000006E-3</v>
+      </c>
+      <c r="F50" s="10">
+        <v>9.9051599999999997E-3</v>
+      </c>
+      <c r="G50" s="10">
+        <v>0.96762029999999999</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A51" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="B51" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="C51" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="D51" s="10">
+        <v>1.0268969999999999</v>
+      </c>
+      <c r="E51" s="10">
+        <v>3.7537909999999998E-3</v>
+      </c>
+      <c r="F51" s="10">
+        <v>4.1670099999999996E-3</v>
+      </c>
+      <c r="G51" s="10">
+        <v>0.97380750000000005</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A52" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="B52" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="C52" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="D52" s="10">
+        <v>1.0189159999999999</v>
+      </c>
+      <c r="E52" s="10">
+        <v>4.1905379999999997E-3</v>
+      </c>
+      <c r="F52" s="10">
+        <v>4.5080570000000002E-3</v>
+      </c>
+      <c r="G52" s="10">
+        <v>0.9814349</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A53" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="B53" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="C53" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="D53" s="9">
+        <v>1.0668530000000001</v>
+      </c>
+      <c r="E53" s="9">
+        <v>1.305861E-2</v>
+      </c>
+      <c r="F53" s="9">
+        <v>1.284223E-2</v>
+      </c>
+      <c r="G53" s="10">
+        <v>0.93733610000000001</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A54" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="B54" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="C54" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="D54" s="9">
+        <v>1.102141</v>
+      </c>
+      <c r="E54" s="9">
+        <v>1.4936919999999999E-2</v>
+      </c>
+      <c r="F54" s="9">
+        <v>1.524914E-2</v>
+      </c>
+      <c r="G54" s="10">
+        <v>0.90732489999999999</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A55" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="B55" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="C55" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="D55" s="9">
+        <v>1.0731299999999999</v>
+      </c>
+      <c r="E55" s="9">
+        <v>9.4227860000000007E-3</v>
+      </c>
+      <c r="F55" s="9">
+        <v>9.4449979999999996E-3</v>
+      </c>
+      <c r="G55" s="10">
+        <v>0.9318533</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A56" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="B56" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="C56" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="D56" s="10">
+        <v>1.144781</v>
+      </c>
+      <c r="E56" s="10">
+        <v>6.8387050000000005E-2</v>
+      </c>
+      <c r="F56" s="10">
+        <v>4.65198E-2</v>
+      </c>
+      <c r="G56" s="10">
+        <v>0.87352989999999997</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A57" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="B57" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="C57" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="D57" s="10">
+        <v>1.1830080000000001</v>
+      </c>
+      <c r="E57" s="10">
+        <v>2.208483E-2</v>
+      </c>
+      <c r="F57" s="10">
+        <v>2.386071E-2</v>
+      </c>
+      <c r="G57" s="10">
+        <v>0.84530269999999996</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A58" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="B58" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="C58" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="D58" s="10">
+        <v>1.1550260000000001</v>
+      </c>
+      <c r="E58" s="10">
+        <v>6.0079649999999998E-2</v>
+      </c>
+      <c r="F58" s="10">
+        <v>3.3666250000000002E-2</v>
+      </c>
+      <c r="G58" s="10">
+        <v>0.86578120000000003</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A59" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="B59" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="C59" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="D59" s="10">
+        <v>1.161859</v>
+      </c>
+      <c r="E59" s="10">
+        <v>2.619289E-2</v>
+      </c>
+      <c r="F59" s="10">
+        <v>1.9564229999999998E-2</v>
+      </c>
+      <c r="G59" s="10">
+        <v>0.86068990000000001</v>
+      </c>
+      <c r="H59" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A60" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="B60" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="C60" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="D60" s="10">
+        <v>1.0984100000000001</v>
+      </c>
+      <c r="E60" s="10">
+        <v>2.6061879999999999E-2</v>
+      </c>
+      <c r="F60" s="10">
+        <v>1.9337409999999999E-2</v>
+      </c>
+      <c r="G60" s="10">
+        <v>0.91040719999999997</v>
+      </c>
+      <c r="I60" s="10"/>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A61" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="B61" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="C61" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="D61" s="10">
+        <v>1.1448959999999999</v>
+      </c>
+      <c r="E61" s="10">
+        <v>3.8723670000000002E-2</v>
+      </c>
+      <c r="F61" s="10">
+        <v>2.7042170000000001E-2</v>
+      </c>
+      <c r="G61" s="10">
+        <v>0.8734421</v>
+      </c>
+      <c r="I61" s="10"/>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A62" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="B62" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="C62" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="D62" s="10">
+        <v>1.1296250000000001</v>
+      </c>
+      <c r="E62" s="10">
+        <v>5.6783439999999998E-2</v>
+      </c>
+      <c r="F62" s="10">
+        <v>5.9175350000000002E-2</v>
+      </c>
+      <c r="G62" s="10">
+        <v>0.88524959999999997</v>
+      </c>
+      <c r="I62" s="10"/>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A63" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="B63" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="C63" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="D63" s="10">
+        <v>1.1281859999999999</v>
+      </c>
+      <c r="E63" s="10">
+        <v>2.4422719999999998E-2</v>
+      </c>
+      <c r="F63" s="10">
+        <v>1.809885E-2</v>
+      </c>
+      <c r="G63" s="10">
+        <v>0.88637900000000003</v>
+      </c>
+      <c r="I63" s="10"/>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A64" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="B64" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="C64" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="D64" s="10">
+        <v>1.1410899999999999</v>
+      </c>
+      <c r="E64" s="10">
+        <v>1.847789E-2</v>
+      </c>
+      <c r="F64" s="10">
+        <v>1.34053E-2</v>
+      </c>
+      <c r="G64" s="10">
+        <v>0.87635490000000005</v>
+      </c>
+      <c r="I64" s="10"/>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A65" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="B65" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="C65" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="D65" s="10">
+        <v>1.346824</v>
+      </c>
+      <c r="E65" s="10">
+        <v>5.926969E-2</v>
+      </c>
+      <c r="F65" s="10">
+        <v>5.8687349999999999E-2</v>
+      </c>
+      <c r="G65" s="10">
+        <v>0.74248740000000002</v>
+      </c>
+      <c r="I65" s="10"/>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A66" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="B66" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="C66" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="D41" s="10"/>
-      <c r="E41" s="10"/>
-      <c r="F41" s="17"/>
-      <c r="G41" s="17"/>
-      <c r="I41" t="s">
+      <c r="D66" s="10">
+        <v>1.163189</v>
+      </c>
+      <c r="E66" s="10">
+        <v>2.9644940000000002E-2</v>
+      </c>
+      <c r="F66" s="10">
+        <v>3.2116609999999997E-2</v>
+      </c>
+      <c r="G66" s="10">
+        <v>0.85970579999999996</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A67" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="B67" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="C67" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D67" s="10">
+        <v>1.5331109999999999</v>
+      </c>
+      <c r="E67" s="10">
+        <v>9.3628299999999998E-2</v>
+      </c>
+      <c r="F67" s="10">
+        <v>6.6564300000000007E-2</v>
+      </c>
+      <c r="G67" s="10">
+        <v>0.65226859999999998</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A68" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="B68" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="C68" s="18" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
-        <v>49</v>
-      </c>
-      <c r="B42" t="s">
-        <v>38</v>
-      </c>
-      <c r="C42" t="s">
-        <v>25</v>
-      </c>
-      <c r="D42" s="10"/>
-      <c r="E42" s="10"/>
-      <c r="F42" s="17"/>
-      <c r="G42" s="17"/>
-      <c r="I42" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
-        <v>49</v>
-      </c>
-      <c r="B43" t="s">
-        <v>38</v>
-      </c>
-      <c r="C43" t="s">
-        <v>23</v>
-      </c>
-      <c r="D43" s="10"/>
-      <c r="E43" s="10"/>
-      <c r="F43" s="10"/>
-      <c r="G43" s="10"/>
-      <c r="I43" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
-        <v>49</v>
-      </c>
-      <c r="B44" t="s">
-        <v>38</v>
-      </c>
-      <c r="C44" t="s">
+      <c r="D68" s="10">
+        <v>1.300683</v>
+      </c>
+      <c r="E68" s="10">
+        <v>5.2630709999999997E-2</v>
+      </c>
+      <c r="F68" s="10">
+        <v>4.2244339999999998E-2</v>
+      </c>
+      <c r="G68" s="10">
+        <v>0.76882700000000004</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A69" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="B69" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="C69" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="D44" s="10"/>
-      <c r="E44" s="10"/>
-      <c r="F44" s="10"/>
-      <c r="G44" s="10"/>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
-        <v>49</v>
-      </c>
-      <c r="B45" t="s">
-        <v>38</v>
-      </c>
-      <c r="C45" t="s">
+      <c r="D69" s="10">
+        <v>1.3364780000000001</v>
+      </c>
+      <c r="E69" s="10">
+        <v>4.6185740000000003E-2</v>
+      </c>
+      <c r="F69" s="10">
+        <v>4.316586E-2</v>
+      </c>
+      <c r="G69" s="10">
+        <v>0.74823510000000004</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A70" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="B70" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="C70" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="D45" s="10"/>
-      <c r="E45" s="10"/>
-      <c r="F45" s="10"/>
-      <c r="G45" s="10"/>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
-        <v>49</v>
-      </c>
-      <c r="B46" t="s">
-        <v>38</v>
-      </c>
-      <c r="C46" t="s">
+      <c r="D70" s="10">
+        <v>1.1888069999999999</v>
+      </c>
+      <c r="E70" s="10">
+        <v>1.8235999999999999E-2</v>
+      </c>
+      <c r="F70" s="10">
+        <v>1.5848230000000001E-2</v>
+      </c>
+      <c r="G70" s="10">
+        <v>0.84117960000000003</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A71" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="B71" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="C71" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="D46" s="10"/>
-      <c r="E46" s="10"/>
-      <c r="F46" s="10"/>
-      <c r="G46" s="10"/>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A47" t="s">
-        <v>49</v>
-      </c>
-      <c r="B47" t="s">
-        <v>41</v>
-      </c>
-      <c r="C47" t="s">
-        <v>10</v>
-      </c>
-      <c r="D47" s="10"/>
-      <c r="E47" s="10"/>
-      <c r="F47" s="10"/>
-      <c r="I47" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A48" t="s">
-        <v>49</v>
-      </c>
-      <c r="B48" t="s">
-        <v>41</v>
-      </c>
-      <c r="C48" t="s">
-        <v>14</v>
-      </c>
-      <c r="D48" s="10"/>
-      <c r="E48" s="10"/>
-      <c r="F48" s="10"/>
-      <c r="I48" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A49" t="s">
-        <v>49</v>
-      </c>
-      <c r="B49" t="s">
-        <v>41</v>
-      </c>
-      <c r="C49" t="s">
-        <v>15</v>
-      </c>
-      <c r="D49" s="10"/>
-      <c r="E49" s="10"/>
-      <c r="F49" s="10"/>
-      <c r="I49" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A50" t="s">
-        <v>49</v>
-      </c>
-      <c r="B50" t="s">
-        <v>41</v>
-      </c>
-      <c r="C50" t="s">
-        <v>16</v>
-      </c>
-      <c r="D50" s="10"/>
-      <c r="E50" s="10"/>
-      <c r="F50" s="10"/>
-      <c r="I50" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A51" t="s">
-        <v>49</v>
-      </c>
-      <c r="B51" t="s">
-        <v>41</v>
-      </c>
-      <c r="C51" t="s">
-        <v>17</v>
-      </c>
-      <c r="D51" s="17"/>
-      <c r="E51" s="17"/>
-      <c r="F51" s="17"/>
-      <c r="I51" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A52" t="s">
-        <v>49</v>
-      </c>
-      <c r="B52" t="s">
-        <v>41</v>
-      </c>
-      <c r="C52" t="s">
-        <v>18</v>
-      </c>
-      <c r="D52" s="17"/>
-      <c r="E52" s="17"/>
-      <c r="F52" s="17"/>
-      <c r="I52" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A53" t="s">
-        <v>49</v>
-      </c>
-      <c r="B53" t="s">
-        <v>41</v>
-      </c>
-      <c r="C53" t="s">
-        <v>19</v>
-      </c>
-      <c r="D53" s="17"/>
-      <c r="E53" s="17"/>
-      <c r="F53" s="17"/>
-      <c r="I53" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A54" t="s">
-        <v>49</v>
-      </c>
-      <c r="B54" t="s">
-        <v>41</v>
-      </c>
-      <c r="C54" t="s">
-        <v>20</v>
-      </c>
-      <c r="D54" s="10"/>
-      <c r="E54" s="10"/>
-      <c r="F54" s="10"/>
-      <c r="I54" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A55" t="s">
-        <v>49</v>
-      </c>
-      <c r="B55" t="s">
-        <v>41</v>
-      </c>
-      <c r="C55" t="s">
-        <v>13</v>
-      </c>
-      <c r="D55" s="10"/>
-      <c r="E55" s="10"/>
-      <c r="F55" s="10"/>
-      <c r="I55" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A56" t="s">
-        <v>49</v>
-      </c>
-      <c r="B56" t="s">
-        <v>41</v>
-      </c>
-      <c r="C56" t="s">
-        <v>21</v>
-      </c>
-      <c r="D56" s="17"/>
-      <c r="E56" s="17"/>
-      <c r="F56" s="17"/>
-      <c r="I56" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A57" t="s">
-        <v>49</v>
-      </c>
-      <c r="B57" t="s">
-        <v>41</v>
-      </c>
-      <c r="C57" t="s">
-        <v>24</v>
-      </c>
-      <c r="D57" s="17"/>
-      <c r="E57" s="17"/>
-      <c r="F57" s="17"/>
-      <c r="I57" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A58" t="s">
-        <v>49</v>
-      </c>
-      <c r="B58" t="s">
-        <v>41</v>
-      </c>
-      <c r="C58" t="s">
-        <v>25</v>
-      </c>
-      <c r="D58" s="17"/>
-      <c r="E58" s="17"/>
-      <c r="F58" s="17"/>
-      <c r="I58" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A59" t="s">
-        <v>49</v>
-      </c>
-      <c r="B59" t="s">
-        <v>41</v>
-      </c>
-      <c r="C59" t="s">
-        <v>23</v>
-      </c>
-      <c r="D59" s="10"/>
-      <c r="E59" s="10"/>
-      <c r="F59" s="10"/>
-      <c r="G59" s="18">
-        <v>181429.9</v>
-      </c>
-      <c r="I59" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A60" t="s">
-        <v>34</v>
-      </c>
-      <c r="B60" t="s">
-        <v>41</v>
-      </c>
-      <c r="C60" t="s">
-        <v>42</v>
-      </c>
-      <c r="D60" s="10"/>
-      <c r="E60" s="10"/>
-      <c r="F60" s="10"/>
-      <c r="G60" s="10"/>
-      <c r="H60" s="10"/>
-    </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A61" t="s">
-        <v>34</v>
-      </c>
-      <c r="B61" t="s">
-        <v>41</v>
-      </c>
-      <c r="C61" t="s">
-        <v>43</v>
-      </c>
-      <c r="D61" s="10"/>
-      <c r="E61" s="10"/>
-      <c r="F61" s="10"/>
-      <c r="G61" s="10"/>
-      <c r="H61" s="10"/>
-    </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A62" t="s">
-        <v>34</v>
-      </c>
-      <c r="B62" t="s">
-        <v>41</v>
-      </c>
-      <c r="C62" t="s">
-        <v>44</v>
-      </c>
-      <c r="D62" s="10"/>
-      <c r="E62" s="10"/>
-      <c r="F62" s="10"/>
-      <c r="G62" s="10"/>
-      <c r="H62" s="10"/>
-    </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="D63" s="10"/>
-      <c r="E63" s="10"/>
-      <c r="F63" s="10"/>
-      <c r="G63" s="10"/>
-      <c r="H63" s="10"/>
-      <c r="L63" s="17"/>
-    </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="D64" s="10"/>
-      <c r="E64" s="10"/>
-      <c r="F64" s="10"/>
-      <c r="G64" s="10"/>
-      <c r="H64" s="10"/>
-      <c r="L64" s="17"/>
-    </row>
-    <row r="65" spans="4:12" x14ac:dyDescent="0.2">
-      <c r="D65" s="10"/>
-      <c r="E65" s="10"/>
-      <c r="F65" s="10"/>
-      <c r="G65" s="10"/>
-      <c r="H65" s="10"/>
-      <c r="L65" s="17"/>
-    </row>
-    <row r="71" spans="4:12" x14ac:dyDescent="0.2">
-      <c r="D71" s="17"/>
-      <c r="E71" s="17"/>
-      <c r="F71" s="17"/>
-      <c r="G71" s="17"/>
+      <c r="D71" s="10">
+        <v>1.072605</v>
+      </c>
+      <c r="E71" s="10">
+        <v>1.954728E-2</v>
+      </c>
+      <c r="F71" s="10">
+        <v>1.6022970000000001E-2</v>
+      </c>
+      <c r="G71" s="10">
+        <v>0.93230930000000001</v>
+      </c>
       <c r="H71" s="17"/>
       <c r="I71" s="17"/>
-      <c r="J71" s="17"/>
-      <c r="L71" s="17"/>
-    </row>
-    <row r="72" spans="4:12" x14ac:dyDescent="0.2">
-      <c r="D72" s="10"/>
-      <c r="E72" s="10"/>
-      <c r="F72" s="10"/>
-      <c r="G72" s="10"/>
-      <c r="H72" s="10"/>
-      <c r="I72" s="17"/>
-      <c r="J72" s="17"/>
-      <c r="L72" s="17"/>
-    </row>
-    <row r="73" spans="4:12" x14ac:dyDescent="0.2">
-      <c r="D73" s="10"/>
-      <c r="E73" s="10"/>
-      <c r="F73" s="10"/>
-      <c r="G73" s="10"/>
-      <c r="H73" s="10"/>
-      <c r="I73" s="17"/>
-      <c r="J73" s="17"/>
-      <c r="L73" s="17"/>
-    </row>
-    <row r="74" spans="4:12" x14ac:dyDescent="0.2">
-      <c r="D74" s="10"/>
-      <c r="E74" s="10"/>
-      <c r="F74" s="10"/>
-      <c r="G74" s="10"/>
-      <c r="H74" s="10"/>
-      <c r="I74" s="17"/>
-      <c r="J74" s="17"/>
-      <c r="L74" s="17"/>
-    </row>
-    <row r="75" spans="4:12" x14ac:dyDescent="0.2">
-      <c r="D75" s="10"/>
-      <c r="E75" s="10"/>
-      <c r="F75" s="10"/>
-      <c r="G75" s="10"/>
-      <c r="H75" s="10"/>
-      <c r="I75" s="17"/>
-      <c r="J75" s="17"/>
-      <c r="L75" s="17"/>
-    </row>
-    <row r="76" spans="4:12" x14ac:dyDescent="0.2">
-      <c r="D76" s="10"/>
-      <c r="E76" s="10"/>
-      <c r="F76" s="10"/>
-      <c r="G76" s="10"/>
-      <c r="H76" s="10"/>
-      <c r="I76" s="17"/>
-      <c r="J76" s="17"/>
-      <c r="L76" s="17"/>
-    </row>
-    <row r="77" spans="4:12" x14ac:dyDescent="0.2">
-      <c r="D77" s="10"/>
-      <c r="E77" s="10"/>
-      <c r="F77" s="10"/>
-      <c r="G77" s="10"/>
-      <c r="H77" s="10"/>
-      <c r="I77" s="17"/>
-      <c r="J77" s="17"/>
-      <c r="L77" s="17"/>
-    </row>
-    <row r="78" spans="4:12" x14ac:dyDescent="0.2">
-      <c r="D78" s="10"/>
-      <c r="E78" s="10"/>
-      <c r="F78" s="10"/>
-      <c r="G78" s="10"/>
-      <c r="H78" s="10"/>
-      <c r="I78" s="17"/>
-      <c r="J78" s="17"/>
-      <c r="L78" s="17"/>
-    </row>
-    <row r="79" spans="4:12" x14ac:dyDescent="0.2">
-      <c r="D79" s="10"/>
-      <c r="E79" s="10"/>
-      <c r="F79" s="10"/>
-      <c r="G79" s="10"/>
-      <c r="H79" s="10"/>
-      <c r="I79" s="17"/>
-      <c r="J79" s="17"/>
-      <c r="L79" s="17"/>
-    </row>
-    <row r="80" spans="4:12" x14ac:dyDescent="0.2">
-      <c r="D80" s="10"/>
-      <c r="E80" s="10"/>
-      <c r="F80" s="10"/>
-      <c r="G80" s="10"/>
-      <c r="H80" s="10"/>
-      <c r="I80" s="17"/>
-      <c r="J80" s="17"/>
-      <c r="L80" s="17"/>
-    </row>
-    <row r="81" spans="4:14" x14ac:dyDescent="0.2">
-      <c r="D81" s="10"/>
-      <c r="E81" s="10"/>
-      <c r="F81" s="10"/>
-      <c r="G81" s="10"/>
-      <c r="H81" s="10"/>
-      <c r="I81" s="17"/>
-      <c r="J81" s="17"/>
-      <c r="L81" s="17"/>
-    </row>
-    <row r="82" spans="4:14" x14ac:dyDescent="0.2">
-      <c r="D82" s="10"/>
-      <c r="E82" s="10"/>
-      <c r="F82" s="10"/>
-      <c r="G82" s="10"/>
-      <c r="H82" s="10"/>
-      <c r="I82" s="17"/>
-      <c r="J82" s="17"/>
-      <c r="L82" s="17"/>
-    </row>
-    <row r="83" spans="4:14" x14ac:dyDescent="0.2">
-      <c r="D83" s="10"/>
-      <c r="E83" s="10"/>
-      <c r="F83" s="10"/>
-      <c r="G83" s="10"/>
-      <c r="H83" s="10"/>
-      <c r="I83" s="17"/>
-      <c r="J83" s="17"/>
-      <c r="L83" s="17"/>
-    </row>
-    <row r="84" spans="4:14" x14ac:dyDescent="0.2">
-      <c r="D84" s="10"/>
-      <c r="E84" s="10"/>
-      <c r="F84" s="10"/>
-      <c r="G84" s="10"/>
-      <c r="H84" s="10"/>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A72" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="B72" t="s">
+        <v>41</v>
+      </c>
+      <c r="C72" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="D72" s="10">
+        <v>1.354169</v>
+      </c>
+      <c r="E72" s="10">
+        <v>4.99485E-2</v>
+      </c>
+      <c r="F72" s="10">
+        <v>4.4932069999999998E-2</v>
+      </c>
+      <c r="G72" s="10">
+        <v>0.73846020000000001</v>
+      </c>
+      <c r="H72" s="17"/>
+      <c r="I72" s="10"/>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A73" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="B73" t="s">
+        <v>41</v>
+      </c>
+      <c r="C73" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="D73" s="10">
+        <v>1.1856720000000001</v>
+      </c>
+      <c r="E73" s="10">
+        <v>1.8077309999999999E-2</v>
+      </c>
+      <c r="F73" s="10">
+        <v>1.620709E-2</v>
+      </c>
+      <c r="G73" s="10">
+        <v>0.84340380000000004</v>
+      </c>
+      <c r="H73" s="17"/>
+      <c r="I73" s="10"/>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A74" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="B74" t="s">
+        <v>41</v>
+      </c>
+      <c r="C74" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="D74" s="10">
+        <v>1.0553809999999999</v>
+      </c>
+      <c r="E74" s="10">
+        <v>2.018228E-2</v>
+      </c>
+      <c r="F74" s="10">
+        <v>1.5700229999999999E-2</v>
+      </c>
+      <c r="G74" s="10">
+        <v>0.94752519999999996</v>
+      </c>
+      <c r="H74" s="17"/>
+      <c r="I74" s="10"/>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A75" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="B75" t="s">
+        <v>41</v>
+      </c>
+      <c r="C75" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="D75" s="24">
+        <v>1.2895779999999999</v>
+      </c>
+      <c r="E75" s="24">
+        <v>0.1070487</v>
+      </c>
+      <c r="F75" s="24">
+        <v>9.6371079999999998E-2</v>
+      </c>
+      <c r="G75" s="24">
+        <v>0.77544740000000001</v>
+      </c>
+      <c r="H75" s="17"/>
+      <c r="I75" s="10"/>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A76" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="B76" t="s">
+        <v>41</v>
+      </c>
+      <c r="C76" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="D76" s="24">
+        <v>1.3568990000000001</v>
+      </c>
+      <c r="E76" s="24">
+        <v>6.7020440000000001E-2</v>
+      </c>
+      <c r="F76" s="24">
+        <v>6.3931269999999998E-2</v>
+      </c>
+      <c r="G76" s="24">
+        <v>0.73697449999999998</v>
+      </c>
+      <c r="H76" s="17"/>
+      <c r="I76" s="10"/>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A77" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="B77" t="s">
+        <v>41</v>
+      </c>
+      <c r="C77" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="D77" s="24">
+        <v>1.305237</v>
+      </c>
+      <c r="E77" s="24">
+        <v>5.862386E-2</v>
+      </c>
+      <c r="F77" s="24">
+        <v>4.5851049999999997E-2</v>
+      </c>
+      <c r="G77" s="24">
+        <v>0.76614459999999995</v>
+      </c>
+      <c r="H77" s="17"/>
+      <c r="I77" s="10"/>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A78" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="B78" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="C78" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="D78" s="10">
+        <v>1.0396449999999999</v>
+      </c>
+      <c r="E78" s="10">
+        <v>1.3357809999999999E-2</v>
+      </c>
+      <c r="F78" s="10">
+        <v>1.363456E-2</v>
+      </c>
+      <c r="G78" s="10">
+        <v>0.96186669999999996</v>
+      </c>
+      <c r="I78" s="10"/>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A79" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="B79" t="s">
+        <v>67</v>
+      </c>
+      <c r="C79" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="D79" s="10">
+        <v>1.047893</v>
+      </c>
+      <c r="E79" s="10">
+        <v>9.0638720000000006E-3</v>
+      </c>
+      <c r="F79" s="10">
+        <v>9.6862819999999992E-3</v>
+      </c>
+      <c r="G79" s="10">
+        <v>0.95429609999999998</v>
+      </c>
+      <c r="I79" s="10"/>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A80" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="B80" t="s">
+        <v>67</v>
+      </c>
+      <c r="C80" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="D80" s="10">
+        <v>1.048089</v>
+      </c>
+      <c r="E80" s="10">
+        <v>1.559265E-2</v>
+      </c>
+      <c r="F80" s="10">
+        <v>1.538366E-2</v>
+      </c>
+      <c r="G80" s="10">
+        <v>0.95411710000000005</v>
+      </c>
+      <c r="I80" s="10"/>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A81" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="B81" t="s">
+        <v>67</v>
+      </c>
+      <c r="C81" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="D81" s="10">
+        <v>1.046079</v>
+      </c>
+      <c r="E81" s="10">
+        <v>6.5543379999999998E-3</v>
+      </c>
+      <c r="F81" s="10">
+        <v>7.070425E-3</v>
+      </c>
+      <c r="G81" s="10">
+        <v>0.95595079999999999</v>
+      </c>
+      <c r="I81" s="10"/>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A82" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="B82" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="C82" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="D82" s="10">
+        <v>1.0321009999999999</v>
+      </c>
+      <c r="E82" s="10">
+        <v>9.1703110000000004E-3</v>
+      </c>
+      <c r="F82" s="10">
+        <v>8.7936890000000004E-3</v>
+      </c>
+      <c r="G82" s="10">
+        <v>0.96889709999999996</v>
+      </c>
+      <c r="I82" s="10"/>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A83" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="B83" t="s">
+        <v>67</v>
+      </c>
+      <c r="C83" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="D83" s="10">
+        <v>1.047088</v>
+      </c>
+      <c r="E83" s="10">
+        <v>9.4403890000000004E-3</v>
+      </c>
+      <c r="F83" s="10">
+        <v>9.5746540000000002E-3</v>
+      </c>
+      <c r="G83" s="10">
+        <v>0.95502920000000002</v>
+      </c>
+      <c r="I83" s="10"/>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A84" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="B84" t="s">
+        <v>67</v>
+      </c>
+      <c r="C84" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="D84" s="10">
+        <v>1.046659</v>
+      </c>
+      <c r="E84" s="10">
+        <v>2.1692059999999999E-2</v>
+      </c>
+      <c r="F84" s="10">
+        <v>2.1017709999999998E-2</v>
+      </c>
+      <c r="G84" s="10">
+        <v>0.95542130000000003</v>
+      </c>
       <c r="I84" s="10"/>
-      <c r="J84" s="10"/>
-      <c r="L84" s="17"/>
-      <c r="M84" s="10"/>
-      <c r="N84" s="10"/>
-    </row>
-    <row r="85" spans="4:14" x14ac:dyDescent="0.2">
-      <c r="D85" s="17"/>
-      <c r="E85" s="17"/>
-      <c r="F85" s="17"/>
-      <c r="G85" s="17"/>
-      <c r="H85" s="17"/>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A85" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="B85" t="s">
+        <v>67</v>
+      </c>
+      <c r="C85" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="D85" s="10">
+        <v>1.0415779999999999</v>
+      </c>
+      <c r="E85" s="10">
+        <v>6.953397E-3</v>
+      </c>
+      <c r="F85" s="10">
+        <v>6.8569319999999996E-3</v>
+      </c>
+      <c r="G85" s="10">
+        <v>0.96008159999999998</v>
+      </c>
       <c r="I85" s="17"/>
-      <c r="J85" s="17"/>
-      <c r="L85" s="17"/>
-    </row>
-    <row r="86" spans="4:14" x14ac:dyDescent="0.2">
-      <c r="D86" s="17"/>
-      <c r="E86" s="17"/>
-      <c r="F86" s="17"/>
-      <c r="G86" s="17"/>
-      <c r="H86" s="17"/>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A86" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="B86" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="C86" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="D86" s="10">
+        <v>1.043201</v>
+      </c>
+      <c r="E86" s="10">
+        <v>5.0445760000000003E-3</v>
+      </c>
+      <c r="F86" s="10">
+        <v>5.0142540000000001E-3</v>
+      </c>
+      <c r="G86" s="10">
+        <v>0.95858779999999999</v>
+      </c>
       <c r="I86" s="17"/>
-      <c r="J86" s="17"/>
-      <c r="L86" s="17"/>
-    </row>
-    <row r="87" spans="4:14" x14ac:dyDescent="0.2">
-      <c r="D87" s="17"/>
-      <c r="E87" s="17"/>
-      <c r="F87" s="17"/>
-      <c r="G87" s="17"/>
-      <c r="H87" s="17"/>
-      <c r="L87" s="17"/>
-    </row>
-    <row r="88" spans="4:14" x14ac:dyDescent="0.2">
-      <c r="D88" s="17"/>
-      <c r="E88" s="17"/>
-      <c r="F88" s="17"/>
-      <c r="G88" s="17"/>
-      <c r="H88" s="17"/>
-      <c r="L88" s="17"/>
-    </row>
-    <row r="89" spans="4:14" x14ac:dyDescent="0.2">
-      <c r="D89" s="17"/>
-      <c r="E89" s="17"/>
-      <c r="F89" s="17"/>
-      <c r="G89" s="17"/>
-      <c r="H89" s="17"/>
-      <c r="L89" s="17"/>
-    </row>
-    <row r="90" spans="4:14" x14ac:dyDescent="0.2">
-      <c r="D90" s="17"/>
-      <c r="E90" s="17"/>
-      <c r="F90" s="17"/>
-      <c r="G90" s="17"/>
-      <c r="H90" s="17"/>
-      <c r="L90" s="17"/>
-    </row>
-    <row r="91" spans="4:14" x14ac:dyDescent="0.2">
-      <c r="D91" s="17"/>
-      <c r="E91" s="17"/>
-      <c r="F91" s="17"/>
-      <c r="G91" s="17"/>
-      <c r="H91" s="17"/>
-      <c r="L91" s="17"/>
-    </row>
-    <row r="92" spans="4:14" x14ac:dyDescent="0.2">
-      <c r="D92" s="17"/>
-      <c r="E92" s="17"/>
-      <c r="F92" s="17"/>
-      <c r="G92" s="17"/>
-      <c r="H92" s="17"/>
-      <c r="L92" s="17"/>
-    </row>
-    <row r="93" spans="4:14" x14ac:dyDescent="0.2">
-      <c r="D93" s="17"/>
-      <c r="E93" s="17"/>
-      <c r="F93" s="17"/>
-      <c r="G93" s="17"/>
-      <c r="H93" s="17"/>
-      <c r="L93" s="17"/>
-    </row>
-    <row r="94" spans="4:14" x14ac:dyDescent="0.2">
-      <c r="D94" s="17"/>
-      <c r="E94" s="17"/>
-      <c r="F94" s="17"/>
-      <c r="G94" s="17"/>
-      <c r="H94" s="17"/>
-      <c r="L94" s="17"/>
-    </row>
-    <row r="95" spans="4:14" x14ac:dyDescent="0.2">
-      <c r="D95" s="17"/>
-      <c r="E95" s="17"/>
-      <c r="F95" s="17"/>
-      <c r="G95" s="17"/>
-      <c r="H95" s="17"/>
-      <c r="L95" s="17"/>
-    </row>
-    <row r="96" spans="4:14" x14ac:dyDescent="0.2">
-      <c r="D96" s="17"/>
-      <c r="E96" s="17"/>
-      <c r="F96" s="17"/>
-      <c r="G96" s="17"/>
-      <c r="H96" s="17"/>
-      <c r="L96" s="17"/>
-    </row>
-    <row r="97" spans="4:15" x14ac:dyDescent="0.2">
-      <c r="D97" s="17"/>
-      <c r="E97" s="17"/>
-      <c r="F97" s="17"/>
-      <c r="G97" s="17"/>
-      <c r="H97" s="17"/>
-      <c r="L97" s="17"/>
-    </row>
-    <row r="98" spans="4:15" x14ac:dyDescent="0.2">
-      <c r="D98" s="17"/>
-      <c r="E98" s="17"/>
-      <c r="F98" s="17"/>
-      <c r="G98" s="17"/>
-      <c r="H98" s="17"/>
-      <c r="L98" s="17"/>
-    </row>
-    <row r="99" spans="4:15" x14ac:dyDescent="0.2">
-      <c r="D99" s="17"/>
-      <c r="E99" s="17"/>
-      <c r="F99" s="17"/>
-      <c r="G99" s="17"/>
-      <c r="H99" s="17"/>
-      <c r="L99" s="17"/>
-    </row>
-    <row r="100" spans="4:15" x14ac:dyDescent="0.2">
-      <c r="D100" s="17"/>
-      <c r="E100" s="17"/>
-      <c r="F100" s="17"/>
-      <c r="G100" s="17"/>
-      <c r="H100" s="17"/>
-      <c r="L100" s="17"/>
-    </row>
-    <row r="107" spans="4:15" x14ac:dyDescent="0.2">
-      <c r="D107" s="10"/>
-      <c r="E107" s="10"/>
-      <c r="F107" s="10"/>
-      <c r="G107" s="10"/>
-      <c r="H107" s="10"/>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A87" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="B87" t="s">
+        <v>67</v>
+      </c>
+      <c r="C87" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="D87" s="10">
+        <v>1.139472</v>
+      </c>
+      <c r="E87" s="10">
+        <v>1.7369320000000001E-2</v>
+      </c>
+      <c r="F87" s="10">
+        <v>1.7332440000000001E-2</v>
+      </c>
+      <c r="G87" s="10">
+        <v>0.87759909999999997</v>
+      </c>
+      <c r="I87" s="17"/>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A88" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="B88" t="s">
+        <v>67</v>
+      </c>
+      <c r="C88" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="D88" s="10">
+        <v>1.102965</v>
+      </c>
+      <c r="E88" s="10">
+        <v>1.426169E-2</v>
+      </c>
+      <c r="F88" s="10">
+        <v>1.538747E-2</v>
+      </c>
+      <c r="G88" s="10">
+        <v>0.90664690000000003</v>
+      </c>
+      <c r="I88" s="17"/>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A89" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="B89" t="s">
+        <v>67</v>
+      </c>
+      <c r="C89" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D89" s="10">
+        <v>1.221314</v>
+      </c>
+      <c r="E89" s="10">
+        <v>2.280635E-2</v>
+      </c>
+      <c r="F89" s="10">
+        <v>2.0922159999999999E-2</v>
+      </c>
+      <c r="G89" s="10">
+        <v>0.81879029999999997</v>
+      </c>
+      <c r="I89" s="17"/>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A90" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="B90" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="C90" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="D90" s="10">
+        <v>1.1513150000000001</v>
+      </c>
+      <c r="E90" s="10">
+        <v>1.499059E-2</v>
+      </c>
+      <c r="F90" s="10">
+        <v>1.4701290000000001E-2</v>
+      </c>
+      <c r="G90" s="10">
+        <v>0.86857220000000002</v>
+      </c>
+      <c r="I90" s="17"/>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A91" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="B91" t="s">
+        <v>67</v>
+      </c>
+      <c r="C91" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="D91" s="24">
+        <v>1.0888150000000001</v>
+      </c>
+      <c r="E91" s="24">
+        <v>1.786016E-2</v>
+      </c>
+      <c r="F91" s="24">
+        <v>1.7805720000000001E-2</v>
+      </c>
+      <c r="G91" s="24">
+        <v>0.91842959999999996</v>
+      </c>
+      <c r="I91" s="17"/>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A92" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="B92" t="s">
+        <v>67</v>
+      </c>
+      <c r="C92" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="D92" s="24">
+        <v>1.054991</v>
+      </c>
+      <c r="E92" s="24">
+        <v>6.9505510000000001E-3</v>
+      </c>
+      <c r="F92" s="24">
+        <v>7.376718E-3</v>
+      </c>
+      <c r="G92" s="24">
+        <v>0.94787509999999997</v>
+      </c>
+      <c r="I92" s="17"/>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A93" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="B93" t="s">
+        <v>67</v>
+      </c>
+      <c r="C93" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="D93" s="24">
+        <v>1.0540590000000001</v>
+      </c>
+      <c r="E93" s="24">
+        <v>7.8596450000000002E-3</v>
+      </c>
+      <c r="F93" s="24">
+        <v>8.4716840000000002E-3</v>
+      </c>
+      <c r="G93" s="24">
+        <v>0.94871369999999999</v>
+      </c>
+      <c r="I93" s="17"/>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A94" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="B94" t="s">
+        <v>67</v>
+      </c>
+      <c r="C94" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="D94" s="24">
+        <v>1.0575349999999999</v>
+      </c>
+      <c r="E94" s="24">
+        <v>1.657076E-2</v>
+      </c>
+      <c r="F94" s="24">
+        <v>1.6956740000000001E-2</v>
+      </c>
+      <c r="G94" s="24">
+        <v>0.94559530000000003</v>
+      </c>
+      <c r="I94" s="17"/>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A95" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="B95" t="s">
+        <v>67</v>
+      </c>
+      <c r="C95" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="D95" s="24">
+        <v>1.0480659999999999</v>
+      </c>
+      <c r="E95" s="24">
+        <v>6.4682150000000002E-3</v>
+      </c>
+      <c r="F95" s="24">
+        <v>6.8847880000000002E-3</v>
+      </c>
+      <c r="G95" s="24">
+        <v>0.95413859999999995</v>
+      </c>
+      <c r="I95" s="17"/>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A96" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="B96" t="s">
+        <v>67</v>
+      </c>
+      <c r="C96" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="D96" s="24">
+        <v>1.0338099999999999</v>
+      </c>
+      <c r="E96" s="24">
+        <v>7.503773E-3</v>
+      </c>
+      <c r="F96" s="24">
+        <v>7.7324009999999999E-3</v>
+      </c>
+      <c r="G96" s="24">
+        <v>0.96729529999999997</v>
+      </c>
+      <c r="I96" s="17"/>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A97" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="B97" t="s">
+        <v>67</v>
+      </c>
+      <c r="C97" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="D97" s="24">
+        <v>1.1523920000000001</v>
+      </c>
+      <c r="E97" s="24">
+        <v>3.3531070000000003E-2</v>
+      </c>
+      <c r="F97" s="24">
+        <v>3.234277E-2</v>
+      </c>
+      <c r="G97" s="24">
+        <v>0.86776059999999999</v>
+      </c>
+      <c r="I97" s="17"/>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A98" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="B98" t="s">
+        <v>67</v>
+      </c>
+      <c r="C98" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="D98" s="24">
+        <v>1.179414</v>
+      </c>
+      <c r="E98" s="24">
+        <v>2.541759E-2</v>
+      </c>
+      <c r="F98" s="24">
+        <v>2.463885E-2</v>
+      </c>
+      <c r="G98" s="24">
+        <v>0.84787880000000004</v>
+      </c>
+      <c r="H98" s="10"/>
+      <c r="I98" s="17"/>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A99" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="B99" t="s">
+        <v>67</v>
+      </c>
+      <c r="C99" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="D99" s="24">
+        <v>1.1433800000000001</v>
+      </c>
+      <c r="E99" s="24">
+        <v>1.849079E-2</v>
+      </c>
+      <c r="F99" s="24">
+        <v>1.8065979999999999E-2</v>
+      </c>
+      <c r="G99" s="24">
+        <v>0.87460009999999999</v>
+      </c>
+      <c r="I99" s="17"/>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I100" s="17"/>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.2">
       <c r="I107" s="10"/>
-      <c r="J107" s="10"/>
-      <c r="M107" s="10"/>
-      <c r="N107" s="10"/>
-      <c r="O107" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2496,18 +3101,552 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72036DB8-0B38-F34C-BC45-FD8C9084D1F2}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:AR107"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="Y14" sqref="Y14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="12" max="12" width="15.5" customWidth="1"/>
+    <col min="13" max="44" width="6.6640625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="L1" s="3"/>
+      <c r="M1" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="O1" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="P1" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q1" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="R1" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="S1" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="T1" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="U1" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="V1" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="X1" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y1" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="AA1" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB1" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="AC1" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="AD1" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="AE1" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="AF1" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="AG1" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="AH1" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="AI1" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="AJ1" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="AK1" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="AL1" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="AM1" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="AN1" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="AO1" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="AP1" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="AQ1" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="AR1" s="18" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>57</v>
+      </c>
+      <c r="L2" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="M2" s="21"/>
+      <c r="N2" s="19"/>
+      <c r="O2" s="20"/>
+      <c r="P2" s="20"/>
+      <c r="R2" s="10"/>
+      <c r="U2" s="20"/>
+    </row>
+    <row r="3" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>51</v>
+      </c>
+      <c r="L3" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="M3" s="19"/>
+      <c r="N3" s="21"/>
+      <c r="O3" s="20"/>
+      <c r="P3" s="20"/>
+      <c r="R3" s="10"/>
+      <c r="U3" s="20"/>
+    </row>
+    <row r="4" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>50</v>
       </c>
+      <c r="L4" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="M4" s="19"/>
+      <c r="N4" s="19"/>
+      <c r="O4" s="22"/>
+      <c r="P4" s="20"/>
+      <c r="R4" s="10"/>
+      <c r="U4" s="20"/>
+    </row>
+    <row r="5" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>52</v>
+      </c>
+      <c r="L5" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="M5" s="19"/>
+      <c r="N5" s="19"/>
+      <c r="O5" s="20"/>
+      <c r="P5" s="22"/>
+      <c r="R5" s="10"/>
+      <c r="U5" s="20"/>
+    </row>
+    <row r="6" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>53</v>
+      </c>
+      <c r="L6" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="M6" s="10"/>
+      <c r="N6" s="10"/>
+      <c r="Q6" s="23"/>
+      <c r="R6" s="19"/>
+      <c r="S6" s="20"/>
+      <c r="T6" s="20"/>
+      <c r="U6" s="20"/>
+    </row>
+    <row r="7" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>54</v>
+      </c>
+      <c r="L7" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="M7" s="10"/>
+      <c r="N7" s="10"/>
+      <c r="Q7" s="20"/>
+      <c r="R7" s="21"/>
+      <c r="S7" s="20"/>
+      <c r="T7" s="20"/>
+      <c r="U7" s="20"/>
+    </row>
+    <row r="8" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>55</v>
+      </c>
+      <c r="H8" t="s">
+        <v>56</v>
+      </c>
+      <c r="L8" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="M8" s="10"/>
+      <c r="N8" s="10"/>
+      <c r="Q8" s="20"/>
+      <c r="R8" s="19"/>
+      <c r="S8" s="22"/>
+      <c r="T8" s="20"/>
+      <c r="U8" s="20"/>
+    </row>
+    <row r="9" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="L9" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="M9" s="10"/>
+      <c r="N9" s="10"/>
+      <c r="Q9" s="20"/>
+      <c r="R9" s="19"/>
+      <c r="S9" s="19"/>
+      <c r="T9" s="22"/>
+      <c r="U9" s="20"/>
+    </row>
+    <row r="10" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="L10" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="M10" s="10"/>
+      <c r="N10" s="10"/>
+      <c r="R10" s="10"/>
+      <c r="U10" s="23"/>
+    </row>
+    <row r="11" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="L11" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="M11" s="10"/>
+      <c r="N11" s="10"/>
+      <c r="R11" s="10"/>
+      <c r="V11" s="22"/>
+      <c r="W11" s="20"/>
+      <c r="X11" s="20"/>
+      <c r="Y11" s="20"/>
+    </row>
+    <row r="12" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="L12" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="M12" s="10"/>
+      <c r="N12" s="10"/>
+      <c r="R12" s="10"/>
+      <c r="V12" s="20"/>
+      <c r="W12" s="22"/>
+      <c r="X12" s="20"/>
+      <c r="Y12" s="20"/>
+    </row>
+    <row r="13" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="L13" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="M13" s="10"/>
+      <c r="N13" s="10"/>
+      <c r="R13" s="10"/>
+      <c r="V13" s="20"/>
+      <c r="W13" s="20"/>
+      <c r="X13" s="22"/>
+      <c r="Y13" s="20"/>
+    </row>
+    <row r="14" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="L14" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="M14" s="10"/>
+      <c r="N14" s="10"/>
+      <c r="R14" s="10"/>
+      <c r="V14" s="20"/>
+      <c r="W14" s="20"/>
+      <c r="X14" s="20"/>
+      <c r="Y14" s="22"/>
+    </row>
+    <row r="15" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="L15" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="M15" s="10"/>
+      <c r="N15" s="10"/>
+      <c r="R15" s="10"/>
+    </row>
+    <row r="16" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="L16" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="M16" s="10"/>
+      <c r="N16" s="10"/>
+      <c r="R16" s="10"/>
+    </row>
+    <row r="17" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="L17" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="M17" s="10"/>
+      <c r="N17" s="10"/>
+      <c r="R17" s="10"/>
+    </row>
+    <row r="18" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="L18" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="M18" s="10"/>
+      <c r="N18" s="10"/>
+      <c r="R18" s="10"/>
+    </row>
+    <row r="19" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="L19" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="M19" s="10"/>
+      <c r="N19" s="10"/>
+      <c r="R19" s="10"/>
+    </row>
+    <row r="20" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="L20" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="M20" s="10"/>
+      <c r="N20" s="10"/>
+      <c r="R20" s="10"/>
+    </row>
+    <row r="21" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="L21" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="M21" s="10"/>
+      <c r="N21" s="10"/>
+      <c r="R21" s="10"/>
+    </row>
+    <row r="22" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="L22" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="M22" s="10"/>
+      <c r="N22" s="10"/>
+      <c r="R22" s="10"/>
+    </row>
+    <row r="23" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="L23" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="M23" s="10"/>
+      <c r="N23" s="10"/>
+      <c r="R23" s="10"/>
+    </row>
+    <row r="24" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="L24" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="M24" s="10"/>
+      <c r="N24" s="10"/>
+      <c r="R24" s="10"/>
+    </row>
+    <row r="25" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="L25" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="M25" s="10"/>
+      <c r="N25" s="10"/>
+      <c r="R25" s="10"/>
+    </row>
+    <row r="26" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="L26" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="M26" s="10"/>
+      <c r="N26" s="10"/>
+      <c r="R26" s="10"/>
+    </row>
+    <row r="27" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="L27" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="M27" s="10"/>
+      <c r="N27" s="10"/>
+      <c r="R27" s="10"/>
+    </row>
+    <row r="28" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="L28" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="M28" s="10"/>
+      <c r="N28" s="10"/>
+    </row>
+    <row r="29" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="L29" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="M29" s="10"/>
+      <c r="N29" s="10"/>
+    </row>
+    <row r="30" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="L30" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="M30" s="10"/>
+      <c r="N30" s="10"/>
+    </row>
+    <row r="31" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="L31" s="18" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="32" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="L32" s="18" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="33" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="L33" s="18" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="63" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N63" s="17"/>
+    </row>
+    <row r="64" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N64" s="17"/>
+    </row>
+    <row r="65" spans="12:14" x14ac:dyDescent="0.2">
+      <c r="N65" s="17"/>
+    </row>
+    <row r="71" spans="12:14" x14ac:dyDescent="0.2">
+      <c r="L71" s="17"/>
+      <c r="N71" s="17"/>
+    </row>
+    <row r="72" spans="12:14" x14ac:dyDescent="0.2">
+      <c r="L72" s="17"/>
+      <c r="N72" s="17"/>
+    </row>
+    <row r="73" spans="12:14" x14ac:dyDescent="0.2">
+      <c r="L73" s="17"/>
+      <c r="N73" s="17"/>
+    </row>
+    <row r="74" spans="12:14" x14ac:dyDescent="0.2">
+      <c r="L74" s="17"/>
+      <c r="N74" s="17"/>
+    </row>
+    <row r="75" spans="12:14" x14ac:dyDescent="0.2">
+      <c r="L75" s="17"/>
+      <c r="N75" s="17"/>
+    </row>
+    <row r="76" spans="12:14" x14ac:dyDescent="0.2">
+      <c r="L76" s="17"/>
+      <c r="N76" s="17"/>
+    </row>
+    <row r="77" spans="12:14" x14ac:dyDescent="0.2">
+      <c r="L77" s="17"/>
+      <c r="N77" s="17"/>
+    </row>
+    <row r="78" spans="12:14" x14ac:dyDescent="0.2">
+      <c r="L78" s="17"/>
+      <c r="N78" s="17"/>
+    </row>
+    <row r="79" spans="12:14" x14ac:dyDescent="0.2">
+      <c r="L79" s="17"/>
+      <c r="N79" s="17"/>
+    </row>
+    <row r="80" spans="12:14" x14ac:dyDescent="0.2">
+      <c r="L80" s="17"/>
+      <c r="N80" s="17"/>
+    </row>
+    <row r="81" spans="12:16" x14ac:dyDescent="0.2">
+      <c r="L81" s="17"/>
+      <c r="N81" s="17"/>
+    </row>
+    <row r="82" spans="12:16" x14ac:dyDescent="0.2">
+      <c r="L82" s="17"/>
+      <c r="N82" s="17"/>
+    </row>
+    <row r="83" spans="12:16" x14ac:dyDescent="0.2">
+      <c r="L83" s="17"/>
+      <c r="N83" s="17"/>
+    </row>
+    <row r="84" spans="12:16" x14ac:dyDescent="0.2">
+      <c r="L84" s="10"/>
+      <c r="N84" s="17"/>
+      <c r="O84" s="10"/>
+      <c r="P84" s="10"/>
+    </row>
+    <row r="85" spans="12:16" x14ac:dyDescent="0.2">
+      <c r="L85" s="17"/>
+      <c r="N85" s="17"/>
+    </row>
+    <row r="86" spans="12:16" x14ac:dyDescent="0.2">
+      <c r="L86" s="17"/>
+      <c r="N86" s="17"/>
+    </row>
+    <row r="87" spans="12:16" x14ac:dyDescent="0.2">
+      <c r="N87" s="17"/>
+    </row>
+    <row r="88" spans="12:16" x14ac:dyDescent="0.2">
+      <c r="N88" s="17"/>
+    </row>
+    <row r="89" spans="12:16" x14ac:dyDescent="0.2">
+      <c r="N89" s="17"/>
+    </row>
+    <row r="90" spans="12:16" x14ac:dyDescent="0.2">
+      <c r="N90" s="17"/>
+    </row>
+    <row r="91" spans="12:16" x14ac:dyDescent="0.2">
+      <c r="N91" s="17"/>
+    </row>
+    <row r="92" spans="12:16" x14ac:dyDescent="0.2">
+      <c r="N92" s="17"/>
+    </row>
+    <row r="93" spans="12:16" x14ac:dyDescent="0.2">
+      <c r="N93" s="17"/>
+    </row>
+    <row r="94" spans="12:16" x14ac:dyDescent="0.2">
+      <c r="N94" s="17"/>
+    </row>
+    <row r="95" spans="12:16" x14ac:dyDescent="0.2">
+      <c r="N95" s="17"/>
+    </row>
+    <row r="96" spans="12:16" x14ac:dyDescent="0.2">
+      <c r="N96" s="17"/>
+    </row>
+    <row r="97" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="N97" s="17"/>
+    </row>
+    <row r="98" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="N98" s="17"/>
+    </row>
+    <row r="99" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="N99" s="17"/>
+    </row>
+    <row r="100" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="N100" s="17"/>
+    </row>
+    <row r="107" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L107" s="10"/>
+      <c r="O107" s="10"/>
+      <c r="P107" s="10"/>
+      <c r="Q107" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2518,11 +3657,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E76DD058-857C-664B-9CE3-61361CE9BAB5}">
   <dimension ref="A1:K282"/>
   <sheetViews>
-    <sheetView zoomScale="167" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="F124" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="83" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B53" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A132" sqref="A132:Z160"/>
+      <selection pane="bottomRight" activeCell="H135" sqref="H135"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/Linear Reg Results.xlsx
+++ b/Linear Reg Results.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10613"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10711"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/spencerzeigler/Documents/Flowers Lab/Apatite Nano-CT Project_Feb 2019_June 2020/apatite-project-git/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE3F2753-AC93-F649-B136-99B2B69F16DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA50F91B-EBC5-F44F-9C5D-DE551BDD3C7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4800" yWindow="500" windowWidth="28800" windowHeight="15800" xr2:uid="{1F4BBB5C-D696-084E-A23E-1931277E5F2D}"/>
+    <workbookView xWindow="40" yWindow="500" windowWidth="28800" windowHeight="15800" xr2:uid="{1F4BBB5C-D696-084E-A23E-1931277E5F2D}"/>
   </bookViews>
   <sheets>
     <sheet name="comp" sheetId="4" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1963" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1987" uniqueCount="72">
   <si>
     <t>gem</t>
   </si>
@@ -243,6 +243,18 @@
   <si>
     <t>esr</t>
   </si>
+  <si>
+    <t>A_all</t>
+  </si>
+  <si>
+    <t>B_all</t>
+  </si>
+  <si>
+    <t>AB_all</t>
+  </si>
+  <si>
+    <t>C_all</t>
+  </si>
 </sst>
 </file>
 
@@ -251,7 +263,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -279,6 +291,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFCCCCCC"/>
+      <name val="Lucida Grande"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -313,7 +331,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -339,6 +357,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -653,10 +672,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C39293A-6B04-6F45-BB06-32CE19F4B4C3}">
-  <dimension ref="A1:I107"/>
+  <dimension ref="A1:I115"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="150" workbookViewId="0">
-      <selection activeCell="I31" sqref="I31"/>
+    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -778,17 +797,17 @@
       <c r="C5" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="10">
-        <v>1.0240819999999999</v>
-      </c>
-      <c r="E5" s="10">
-        <v>4.3012920000000003E-2</v>
-      </c>
-      <c r="F5" s="10">
-        <v>2.2158199999999999E-2</v>
-      </c>
-      <c r="G5" s="10">
-        <v>0.97648409999999997</v>
+      <c r="D5" s="25">
+        <v>1.022205</v>
+      </c>
+      <c r="E5" s="25">
+        <v>4.0991029999999998E-2</v>
+      </c>
+      <c r="F5" s="25">
+        <v>2.3063609999999998E-2</v>
+      </c>
+      <c r="G5" s="25">
+        <v>0.97827739999999996</v>
       </c>
       <c r="H5" s="18" t="s">
         <v>13</v>
@@ -882,17 +901,17 @@
       <c r="C9" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="10">
-        <v>1.0244549999999999</v>
-      </c>
-      <c r="E9" s="10">
-        <v>4.4587130000000003E-2</v>
-      </c>
-      <c r="F9" s="10">
-        <v>2.5817260000000002E-2</v>
-      </c>
-      <c r="G9" s="10">
-        <v>0.97612840000000001</v>
+      <c r="D9" s="25">
+        <v>1.0225610000000001</v>
+      </c>
+      <c r="E9" s="25">
+        <v>3.8864950000000002E-2</v>
+      </c>
+      <c r="F9" s="25">
+        <v>2.0854439999999998E-2</v>
+      </c>
+      <c r="G9" s="25">
+        <v>0.97793640000000004</v>
       </c>
       <c r="H9" s="18" t="s">
         <v>13</v>
@@ -1012,17 +1031,17 @@
       <c r="C14" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="D14" s="10">
-        <v>1.0754760000000001</v>
-      </c>
-      <c r="E14" s="10">
-        <v>0.1029032</v>
-      </c>
-      <c r="F14" s="10">
-        <v>2.6396429999999999E-2</v>
-      </c>
-      <c r="G14" s="10">
-        <v>0.92982070000000006</v>
+      <c r="D14" s="25">
+        <v>1.074567</v>
+      </c>
+      <c r="E14" s="25">
+        <v>0.108527</v>
+      </c>
+      <c r="F14" s="25">
+        <v>2.5542720000000001E-2</v>
+      </c>
+      <c r="G14" s="25">
+        <v>0.93060719999999997</v>
       </c>
       <c r="H14" s="18" t="s">
         <v>23</v>
@@ -1188,17 +1207,17 @@
       <c r="C21" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="10">
-        <v>1.161006</v>
-      </c>
-      <c r="E21" s="10">
-        <v>3.8803829999999997E-2</v>
-      </c>
-      <c r="F21" s="10">
-        <v>75446.06</v>
-      </c>
-      <c r="G21" s="10">
-        <v>0.86132200000000003</v>
+      <c r="D21" s="25">
+        <v>1.1237239999999999</v>
+      </c>
+      <c r="E21" s="25">
+        <v>3.6261090000000003E-2</v>
+      </c>
+      <c r="F21" s="25">
+        <v>76555.64</v>
+      </c>
+      <c r="G21" s="25">
+        <v>0.88989799999999997</v>
       </c>
       <c r="H21" s="18" t="s">
         <v>13</v>
@@ -1292,17 +1311,17 @@
       <c r="C25" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="D25" s="10">
-        <v>1.126744</v>
-      </c>
-      <c r="E25" s="10">
-        <v>3.7530059999999997E-2</v>
-      </c>
-      <c r="F25" s="10">
-        <v>80116.009999999995</v>
-      </c>
-      <c r="G25" s="10">
-        <v>0.887513</v>
+      <c r="D25" s="25">
+        <v>1.152819</v>
+      </c>
+      <c r="E25" s="25">
+        <v>3.4901149999999999E-2</v>
+      </c>
+      <c r="F25" s="25">
+        <v>70546.59</v>
+      </c>
+      <c r="G25" s="25">
+        <v>0.86743899999999996</v>
       </c>
       <c r="H25" s="18" t="s">
         <v>13</v>
@@ -1422,17 +1441,17 @@
       <c r="C30" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="D30" s="10">
-        <v>1.297031</v>
-      </c>
-      <c r="E30" s="10">
-        <v>0.1211501</v>
-      </c>
-      <c r="F30" s="10">
-        <v>69718.47</v>
-      </c>
-      <c r="G30" s="10">
-        <v>0.77099139999999999</v>
+      <c r="D30" s="25">
+        <v>1.2730889999999999</v>
+      </c>
+      <c r="E30" s="25">
+        <v>0.1064401</v>
+      </c>
+      <c r="F30" s="25">
+        <v>51733.96</v>
+      </c>
+      <c r="G30" s="25">
+        <v>0.78549080000000004</v>
       </c>
       <c r="H30" s="18" t="s">
         <v>23</v>
@@ -1592,18 +1611,16 @@
       <c r="C37" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="D37" s="10">
-        <v>1.024146</v>
-      </c>
-      <c r="E37" s="10">
-        <v>3.8884140000000002E-3</v>
-      </c>
-      <c r="F37" s="10">
-        <v>4.3266010000000002E-3</v>
-      </c>
-      <c r="G37" s="10">
-        <v>0.9764235</v>
-      </c>
+      <c r="D37" s="25">
+        <v>1.0221260000000001</v>
+      </c>
+      <c r="E37" s="25">
+        <v>3.610355E-3</v>
+      </c>
+      <c r="F37" s="25">
+        <v>0.97835260000000002</v>
+      </c>
+      <c r="G37" s="10"/>
       <c r="H37" s="17"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.2">
@@ -1688,18 +1705,16 @@
       <c r="C41" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="D41" s="10">
-        <v>1.024427</v>
-      </c>
-      <c r="E41" s="10">
-        <v>3.8531220000000001E-3</v>
-      </c>
-      <c r="F41" s="10">
-        <v>3.9926909999999996E-3</v>
-      </c>
-      <c r="G41" s="10">
-        <v>0.97615510000000005</v>
-      </c>
+      <c r="D41" s="25">
+        <v>1.0225960000000001</v>
+      </c>
+      <c r="E41" s="25">
+        <v>4.0462190000000002E-3</v>
+      </c>
+      <c r="F41" s="25">
+        <v>0.97790279999999996</v>
+      </c>
+      <c r="G41" s="10"/>
       <c r="H41" s="17"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.2">
@@ -1712,18 +1727,16 @@
       <c r="C42" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="D42" s="10">
-        <v>1.0243199999999999</v>
-      </c>
-      <c r="E42" s="10">
-        <v>2.871139E-3</v>
-      </c>
-      <c r="F42" s="10">
-        <v>2.976177E-3</v>
-      </c>
-      <c r="G42" s="10">
-        <v>0.97625770000000001</v>
-      </c>
+      <c r="D42" s="25">
+        <v>1.022359</v>
+      </c>
+      <c r="E42" s="25">
+        <v>2.7161720000000002E-3</v>
+      </c>
+      <c r="F42" s="25">
+        <v>0.97813030000000001</v>
+      </c>
+      <c r="G42" s="10"/>
       <c r="H42" s="17"/>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.2">
@@ -1808,18 +1821,16 @@
       <c r="C46" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="D46" s="10">
-        <v>1.075814</v>
-      </c>
-      <c r="E46" s="10">
-        <v>7.0122739999999998E-3</v>
-      </c>
-      <c r="F46" s="10">
-        <v>7.2424220000000001E-3</v>
-      </c>
-      <c r="G46" s="10">
-        <v>0.92952840000000003</v>
-      </c>
+      <c r="D46" s="25">
+        <v>1.0744819999999999</v>
+      </c>
+      <c r="E46" s="25">
+        <v>7.1640059999999997E-3</v>
+      </c>
+      <c r="F46" s="25">
+        <v>0.93068110000000004</v>
+      </c>
+      <c r="G46" s="10"/>
       <c r="H46" s="17"/>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.2">
@@ -1830,20 +1841,19 @@
         <v>38</v>
       </c>
       <c r="C47" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="D47" s="10">
-        <v>1.0445899999999999</v>
-      </c>
-      <c r="E47" s="10">
-        <v>8.1352639999999997E-3</v>
-      </c>
-      <c r="F47" s="10">
-        <v>8.4680810000000006E-3</v>
-      </c>
-      <c r="G47" s="10">
-        <v>0.95731330000000003</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="D47" s="25">
+        <v>1.0206919999999999</v>
+      </c>
+      <c r="E47" s="25">
+        <v>3.5705009999999998E-3</v>
+      </c>
+      <c r="F47" s="25">
+        <v>0.97972720000000002</v>
+      </c>
+      <c r="G47" s="10"/>
+      <c r="H47" s="17"/>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48" s="18" t="s">
@@ -1853,20 +1863,19 @@
         <v>38</v>
       </c>
       <c r="C48" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="D48" s="10">
-        <v>1.031353</v>
-      </c>
-      <c r="E48" s="10">
-        <v>4.0026030000000004E-3</v>
-      </c>
-      <c r="F48" s="10">
-        <v>4.466416E-3</v>
-      </c>
-      <c r="G48" s="10">
-        <v>0.96960029999999997</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="D48" s="25">
+        <v>1.020826</v>
+      </c>
+      <c r="E48" s="25">
+        <v>3.3987510000000002E-3</v>
+      </c>
+      <c r="F48" s="25">
+        <v>0.97959909999999994</v>
+      </c>
+      <c r="G48" s="10"/>
+      <c r="H48" s="17"/>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A49" s="18" t="s">
@@ -1876,20 +1885,19 @@
         <v>38</v>
       </c>
       <c r="C49" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="D49" s="10">
-        <v>1.0297559999999999</v>
-      </c>
-      <c r="E49" s="10">
-        <v>4.1774220000000001E-3</v>
-      </c>
-      <c r="F49" s="10">
-        <v>4.6916299999999996E-3</v>
-      </c>
-      <c r="G49" s="10">
-        <v>0.97110430000000003</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="D49" s="25">
+        <v>1.0207139999999999</v>
+      </c>
+      <c r="E49" s="25">
+        <v>2.4925770000000002E-3</v>
+      </c>
+      <c r="F49" s="25">
+        <v>0.97970670000000004</v>
+      </c>
+      <c r="G49" s="10"/>
+      <c r="H49" s="17"/>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A50" s="18" t="s">
@@ -1899,20 +1907,19 @@
         <v>38</v>
       </c>
       <c r="C50" s="18" t="s">
-        <v>61</v>
-      </c>
-      <c r="D50" s="10">
-        <v>1.033463</v>
-      </c>
-      <c r="E50" s="10">
-        <v>9.7148960000000006E-3</v>
-      </c>
-      <c r="F50" s="10">
-        <v>9.9051599999999997E-3</v>
-      </c>
-      <c r="G50" s="10">
-        <v>0.96762029999999999</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="D50" s="25">
+        <v>1.074274</v>
+      </c>
+      <c r="E50" s="25">
+        <v>7.0058760000000003E-3</v>
+      </c>
+      <c r="F50" s="25">
+        <v>0.93086089999999999</v>
+      </c>
+      <c r="G50" s="10"/>
+      <c r="H50" s="17"/>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A51" s="18" t="s">
@@ -1922,19 +1929,19 @@
         <v>38</v>
       </c>
       <c r="C51" s="18" t="s">
-        <v>62</v>
+        <v>42</v>
       </c>
       <c r="D51" s="10">
-        <v>1.0268969999999999</v>
+        <v>1.0445899999999999</v>
       </c>
       <c r="E51" s="10">
-        <v>3.7537909999999998E-3</v>
+        <v>8.1352639999999997E-3</v>
       </c>
       <c r="F51" s="10">
-        <v>4.1670099999999996E-3</v>
+        <v>8.4680810000000006E-3</v>
       </c>
       <c r="G51" s="10">
-        <v>0.97380750000000005</v>
+        <v>0.95731330000000003</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.2">
@@ -1945,19 +1952,19 @@
         <v>38</v>
       </c>
       <c r="C52" s="18" t="s">
-        <v>63</v>
+        <v>43</v>
       </c>
       <c r="D52" s="10">
-        <v>1.0189159999999999</v>
+        <v>1.031353</v>
       </c>
       <c r="E52" s="10">
-        <v>4.1905379999999997E-3</v>
+        <v>4.0026030000000004E-3</v>
       </c>
       <c r="F52" s="10">
-        <v>4.5080570000000002E-3</v>
+        <v>4.466416E-3</v>
       </c>
       <c r="G52" s="10">
-        <v>0.9814349</v>
+        <v>0.96960029999999997</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.2">
@@ -1968,19 +1975,19 @@
         <v>38</v>
       </c>
       <c r="C53" s="18" t="s">
-        <v>64</v>
-      </c>
-      <c r="D53" s="9">
-        <v>1.0668530000000001</v>
-      </c>
-      <c r="E53" s="9">
-        <v>1.305861E-2</v>
-      </c>
-      <c r="F53" s="9">
-        <v>1.284223E-2</v>
+        <v>44</v>
+      </c>
+      <c r="D53" s="10">
+        <v>1.0297559999999999</v>
+      </c>
+      <c r="E53" s="10">
+        <v>4.1774220000000001E-3</v>
+      </c>
+      <c r="F53" s="10">
+        <v>4.6916299999999996E-3</v>
       </c>
       <c r="G53" s="10">
-        <v>0.93733610000000001</v>
+        <v>0.97110430000000003</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.2">
@@ -1991,19 +1998,19 @@
         <v>38</v>
       </c>
       <c r="C54" s="18" t="s">
-        <v>65</v>
-      </c>
-      <c r="D54" s="9">
-        <v>1.102141</v>
-      </c>
-      <c r="E54" s="9">
-        <v>1.4936919999999999E-2</v>
-      </c>
-      <c r="F54" s="9">
-        <v>1.524914E-2</v>
+        <v>61</v>
+      </c>
+      <c r="D54" s="10">
+        <v>1.033463</v>
+      </c>
+      <c r="E54" s="10">
+        <v>9.7148960000000006E-3</v>
+      </c>
+      <c r="F54" s="10">
+        <v>9.9051599999999997E-3</v>
       </c>
       <c r="G54" s="10">
-        <v>0.90732489999999999</v>
+        <v>0.96762029999999999</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.2">
@@ -2014,19 +2021,19 @@
         <v>38</v>
       </c>
       <c r="C55" s="18" t="s">
-        <v>66</v>
-      </c>
-      <c r="D55" s="9">
-        <v>1.0731299999999999</v>
-      </c>
-      <c r="E55" s="9">
-        <v>9.4227860000000007E-3</v>
-      </c>
-      <c r="F55" s="9">
-        <v>9.4449979999999996E-3</v>
+        <v>62</v>
+      </c>
+      <c r="D55" s="10">
+        <v>1.0268969999999999</v>
+      </c>
+      <c r="E55" s="10">
+        <v>3.7537909999999998E-3</v>
+      </c>
+      <c r="F55" s="10">
+        <v>4.1670099999999996E-3</v>
       </c>
       <c r="G55" s="10">
-        <v>0.9318533</v>
+        <v>0.97380750000000005</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.2">
@@ -2034,22 +2041,22 @@
         <v>59</v>
       </c>
       <c r="B56" s="18" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C56" s="18" t="s">
-        <v>10</v>
+        <v>63</v>
       </c>
       <c r="D56" s="10">
-        <v>1.144781</v>
+        <v>1.0189159999999999</v>
       </c>
       <c r="E56" s="10">
-        <v>6.8387050000000005E-2</v>
+        <v>4.1905379999999997E-3</v>
       </c>
       <c r="F56" s="10">
-        <v>4.65198E-2</v>
+        <v>4.5080570000000002E-3</v>
       </c>
       <c r="G56" s="10">
-        <v>0.87352989999999997</v>
+        <v>0.9814349</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.2">
@@ -2057,22 +2064,22 @@
         <v>59</v>
       </c>
       <c r="B57" s="18" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C57" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="D57" s="10">
-        <v>1.1830080000000001</v>
-      </c>
-      <c r="E57" s="10">
-        <v>2.208483E-2</v>
-      </c>
-      <c r="F57" s="10">
-        <v>2.386071E-2</v>
+        <v>64</v>
+      </c>
+      <c r="D57" s="9">
+        <v>1.0668530000000001</v>
+      </c>
+      <c r="E57" s="9">
+        <v>1.305861E-2</v>
+      </c>
+      <c r="F57" s="9">
+        <v>1.284223E-2</v>
       </c>
       <c r="G57" s="10">
-        <v>0.84530269999999996</v>
+        <v>0.93733610000000001</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.2">
@@ -2080,22 +2087,22 @@
         <v>59</v>
       </c>
       <c r="B58" s="18" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C58" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="D58" s="10">
-        <v>1.1550260000000001</v>
-      </c>
-      <c r="E58" s="10">
-        <v>6.0079649999999998E-2</v>
-      </c>
-      <c r="F58" s="10">
-        <v>3.3666250000000002E-2</v>
+        <v>65</v>
+      </c>
+      <c r="D58" s="9">
+        <v>1.102141</v>
+      </c>
+      <c r="E58" s="9">
+        <v>1.4936919999999999E-2</v>
+      </c>
+      <c r="F58" s="9">
+        <v>1.524914E-2</v>
       </c>
       <c r="G58" s="10">
-        <v>0.86578120000000003</v>
+        <v>0.90732489999999999</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.2">
@@ -2103,25 +2110,22 @@
         <v>59</v>
       </c>
       <c r="B59" s="18" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C59" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="D59" s="10">
-        <v>1.161859</v>
-      </c>
-      <c r="E59" s="10">
-        <v>2.619289E-2</v>
-      </c>
-      <c r="F59" s="10">
-        <v>1.9564229999999998E-2</v>
+        <v>66</v>
+      </c>
+      <c r="D59" s="9">
+        <v>1.0731299999999999</v>
+      </c>
+      <c r="E59" s="9">
+        <v>9.4227860000000007E-3</v>
+      </c>
+      <c r="F59" s="9">
+        <v>9.4449979999999996E-3</v>
       </c>
       <c r="G59" s="10">
-        <v>0.86068990000000001</v>
-      </c>
-      <c r="H59" t="s">
-        <v>60</v>
+        <v>0.9318533</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.2">
@@ -2132,21 +2136,20 @@
         <v>41</v>
       </c>
       <c r="C60" s="18" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="D60" s="10">
-        <v>1.0984100000000001</v>
+        <v>1.144781</v>
       </c>
       <c r="E60" s="10">
-        <v>2.6061879999999999E-2</v>
+        <v>6.8387050000000005E-2</v>
       </c>
       <c r="F60" s="10">
-        <v>1.9337409999999999E-2</v>
+        <v>4.65198E-2</v>
       </c>
       <c r="G60" s="10">
-        <v>0.91040719999999997</v>
-      </c>
-      <c r="I60" s="10"/>
+        <v>0.87352989999999997</v>
+      </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A61" s="18" t="s">
@@ -2156,21 +2159,20 @@
         <v>41</v>
       </c>
       <c r="C61" s="18" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D61" s="10">
-        <v>1.1448959999999999</v>
+        <v>1.1830080000000001</v>
       </c>
       <c r="E61" s="10">
-        <v>3.8723670000000002E-2</v>
+        <v>2.208483E-2</v>
       </c>
       <c r="F61" s="10">
-        <v>2.7042170000000001E-2</v>
+        <v>2.386071E-2</v>
       </c>
       <c r="G61" s="10">
-        <v>0.8734421</v>
-      </c>
-      <c r="I61" s="10"/>
+        <v>0.84530269999999996</v>
+      </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A62" s="18" t="s">
@@ -2180,21 +2182,20 @@
         <v>41</v>
       </c>
       <c r="C62" s="18" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D62" s="10">
-        <v>1.1296250000000001</v>
+        <v>1.1550260000000001</v>
       </c>
       <c r="E62" s="10">
-        <v>5.6783439999999998E-2</v>
+        <v>6.0079649999999998E-2</v>
       </c>
       <c r="F62" s="10">
-        <v>5.9175350000000002E-2</v>
+        <v>3.3666250000000002E-2</v>
       </c>
       <c r="G62" s="10">
-        <v>0.88524959999999997</v>
-      </c>
-      <c r="I62" s="10"/>
+        <v>0.86578120000000003</v>
+      </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A63" s="18" t="s">
@@ -2204,21 +2205,21 @@
         <v>41</v>
       </c>
       <c r="C63" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="D63" s="10">
-        <v>1.1281859999999999</v>
-      </c>
-      <c r="E63" s="10">
-        <v>2.4422719999999998E-2</v>
-      </c>
-      <c r="F63" s="10">
-        <v>1.809885E-2</v>
-      </c>
-      <c r="G63" s="10">
-        <v>0.88637900000000003</v>
-      </c>
-      <c r="I63" s="10"/>
+        <v>16</v>
+      </c>
+      <c r="D63" s="25">
+        <v>1.12331</v>
+      </c>
+      <c r="E63" s="25">
+        <v>1.726451E-2</v>
+      </c>
+      <c r="F63" s="25">
+        <v>0.89022639999999997</v>
+      </c>
+      <c r="G63" s="10"/>
+      <c r="H63" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A64" s="18" t="s">
@@ -2228,19 +2229,19 @@
         <v>41</v>
       </c>
       <c r="C64" s="18" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D64" s="10">
-        <v>1.1410899999999999</v>
+        <v>1.0984100000000001</v>
       </c>
       <c r="E64" s="10">
-        <v>1.847789E-2</v>
+        <v>2.6061879999999999E-2</v>
       </c>
       <c r="F64" s="10">
-        <v>1.34053E-2</v>
+        <v>1.9337409999999999E-2</v>
       </c>
       <c r="G64" s="10">
-        <v>0.87635490000000005</v>
+        <v>0.91040719999999997</v>
       </c>
       <c r="I64" s="10"/>
     </row>
@@ -2252,19 +2253,19 @@
         <v>41</v>
       </c>
       <c r="C65" s="18" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D65" s="10">
-        <v>1.346824</v>
+        <v>1.1448959999999999</v>
       </c>
       <c r="E65" s="10">
-        <v>5.926969E-2</v>
+        <v>3.8723670000000002E-2</v>
       </c>
       <c r="F65" s="10">
-        <v>5.8687349999999999E-2</v>
+        <v>2.7042170000000001E-2</v>
       </c>
       <c r="G65" s="10">
-        <v>0.74248740000000002</v>
+        <v>0.8734421</v>
       </c>
       <c r="I65" s="10"/>
     </row>
@@ -2276,20 +2277,21 @@
         <v>41</v>
       </c>
       <c r="C66" s="18" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D66" s="10">
-        <v>1.163189</v>
+        <v>1.1296250000000001</v>
       </c>
       <c r="E66" s="10">
-        <v>2.9644940000000002E-2</v>
+        <v>5.6783439999999998E-2</v>
       </c>
       <c r="F66" s="10">
-        <v>3.2116609999999997E-2</v>
+        <v>5.9175350000000002E-2</v>
       </c>
       <c r="G66" s="10">
-        <v>0.85970579999999996</v>
-      </c>
+        <v>0.88524959999999997</v>
+      </c>
+      <c r="I66" s="10"/>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A67" s="18" t="s">
@@ -2299,20 +2301,19 @@
         <v>41</v>
       </c>
       <c r="C67" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="D67" s="10">
-        <v>1.5331109999999999</v>
-      </c>
-      <c r="E67" s="10">
-        <v>9.3628299999999998E-2</v>
-      </c>
-      <c r="F67" s="10">
-        <v>6.6564300000000007E-2</v>
-      </c>
-      <c r="G67" s="10">
-        <v>0.65226859999999998</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="D67" s="25">
+        <v>1.15378</v>
+      </c>
+      <c r="E67" s="25">
+        <v>1.7772960000000001E-2</v>
+      </c>
+      <c r="F67" s="25">
+        <v>0.86671620000000005</v>
+      </c>
+      <c r="G67" s="10"/>
+      <c r="I67" s="10"/>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A68" s="18" t="s">
@@ -2322,20 +2323,19 @@
         <v>41</v>
       </c>
       <c r="C68" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="D68" s="10">
-        <v>1.300683</v>
-      </c>
-      <c r="E68" s="10">
-        <v>5.2630709999999997E-2</v>
-      </c>
-      <c r="F68" s="10">
-        <v>4.2244339999999998E-2</v>
-      </c>
-      <c r="G68" s="10">
-        <v>0.76882700000000004</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="D68" s="25">
+        <v>1.1374409999999999</v>
+      </c>
+      <c r="E68" s="25">
+        <v>1.2610639999999999E-2</v>
+      </c>
+      <c r="F68" s="25">
+        <v>0.87916609999999995</v>
+      </c>
+      <c r="G68" s="10"/>
+      <c r="I68" s="10"/>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A69" s="18" t="s">
@@ -2345,20 +2345,21 @@
         <v>41</v>
       </c>
       <c r="C69" s="18" t="s">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="D69" s="10">
-        <v>1.3364780000000001</v>
+        <v>1.346824</v>
       </c>
       <c r="E69" s="10">
-        <v>4.6185740000000003E-2</v>
+        <v>5.926969E-2</v>
       </c>
       <c r="F69" s="10">
-        <v>4.316586E-2</v>
+        <v>5.8687349999999999E-2</v>
       </c>
       <c r="G69" s="10">
-        <v>0.74823510000000004</v>
-      </c>
+        <v>0.74248740000000002</v>
+      </c>
+      <c r="I69" s="10"/>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A70" s="18" t="s">
@@ -2368,19 +2369,19 @@
         <v>41</v>
       </c>
       <c r="C70" s="18" t="s">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="D70" s="10">
-        <v>1.1888069999999999</v>
+        <v>1.163189</v>
       </c>
       <c r="E70" s="10">
-        <v>1.8235999999999999E-2</v>
+        <v>2.9644940000000002E-2</v>
       </c>
       <c r="F70" s="10">
-        <v>1.5848230000000001E-2</v>
+        <v>3.2116609999999997E-2</v>
       </c>
       <c r="G70" s="10">
-        <v>0.84117960000000003</v>
+        <v>0.85970579999999996</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.2">
@@ -2391,243 +2392,220 @@
         <v>41</v>
       </c>
       <c r="C71" s="18" t="s">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="D71" s="10">
-        <v>1.072605</v>
+        <v>1.5331109999999999</v>
       </c>
       <c r="E71" s="10">
-        <v>1.954728E-2</v>
+        <v>9.3628299999999998E-2</v>
       </c>
       <c r="F71" s="10">
-        <v>1.6022970000000001E-2</v>
+        <v>6.6564300000000007E-2</v>
       </c>
       <c r="G71" s="10">
-        <v>0.93230930000000001</v>
-      </c>
-      <c r="H71" s="17"/>
-      <c r="I71" s="17"/>
+        <v>0.65226859999999998</v>
+      </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A72" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="B72" t="s">
+      <c r="B72" s="18" t="s">
         <v>41</v>
       </c>
       <c r="C72" s="18" t="s">
-        <v>61</v>
-      </c>
-      <c r="D72" s="10">
-        <v>1.354169</v>
-      </c>
-      <c r="E72" s="10">
-        <v>4.99485E-2</v>
-      </c>
-      <c r="F72" s="10">
-        <v>4.4932069999999998E-2</v>
-      </c>
-      <c r="G72" s="10">
-        <v>0.73846020000000001</v>
-      </c>
-      <c r="H72" s="17"/>
-      <c r="I72" s="10"/>
+        <v>23</v>
+      </c>
+      <c r="D72" s="25">
+        <v>1.274446</v>
+      </c>
+      <c r="E72" s="25">
+        <v>3.4439530000000003E-2</v>
+      </c>
+      <c r="F72" s="25">
+        <v>0.78465479999999999</v>
+      </c>
+      <c r="G72" s="10"/>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A73" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="B73" t="s">
+      <c r="B73" s="18" t="s">
         <v>41</v>
       </c>
       <c r="C73" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="D73" s="10">
-        <v>1.1856720000000001</v>
-      </c>
-      <c r="E73" s="10">
-        <v>1.8077309999999999E-2</v>
-      </c>
-      <c r="F73" s="10">
-        <v>1.620709E-2</v>
-      </c>
-      <c r="G73" s="10">
-        <v>0.84340380000000004</v>
-      </c>
-      <c r="H73" s="17"/>
-      <c r="I73" s="10"/>
+        <v>68</v>
+      </c>
+      <c r="D73" s="25">
+        <v>1.1884749999999999</v>
+      </c>
+      <c r="E73" s="25">
+        <v>1.474664E-2</v>
+      </c>
+      <c r="F73" s="25">
+        <v>0.84141440000000001</v>
+      </c>
+      <c r="G73" s="10"/>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A74" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="B74" t="s">
+      <c r="B74" s="18" t="s">
         <v>41</v>
       </c>
       <c r="C74" s="18" t="s">
-        <v>63</v>
-      </c>
-      <c r="D74" s="10">
-        <v>1.0553809999999999</v>
-      </c>
-      <c r="E74" s="10">
-        <v>2.018228E-2</v>
-      </c>
-      <c r="F74" s="10">
-        <v>1.5700229999999999E-2</v>
-      </c>
-      <c r="G74" s="10">
-        <v>0.94752519999999996</v>
-      </c>
-      <c r="H74" s="17"/>
-      <c r="I74" s="10"/>
+        <v>69</v>
+      </c>
+      <c r="D74" s="25">
+        <v>1.181629</v>
+      </c>
+      <c r="E74" s="25">
+        <v>2.6423240000000001E-2</v>
+      </c>
+      <c r="F74" s="25">
+        <v>0.84628930000000002</v>
+      </c>
+      <c r="G74" s="10"/>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A75" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="B75" t="s">
+      <c r="B75" s="18" t="s">
         <v>41</v>
       </c>
       <c r="C75" s="18" t="s">
-        <v>64</v>
-      </c>
-      <c r="D75" s="24">
-        <v>1.2895779999999999</v>
-      </c>
-      <c r="E75" s="24">
-        <v>0.1070487</v>
-      </c>
-      <c r="F75" s="24">
-        <v>9.6371079999999998E-2</v>
-      </c>
-      <c r="G75" s="24">
-        <v>0.77544740000000001</v>
-      </c>
-      <c r="H75" s="17"/>
-      <c r="I75" s="10"/>
+        <v>70</v>
+      </c>
+      <c r="D75" s="25">
+        <v>1.185146</v>
+      </c>
+      <c r="E75" s="25">
+        <v>1.7552849999999998E-2</v>
+      </c>
+      <c r="F75" s="25">
+        <v>0.84377820000000003</v>
+      </c>
+      <c r="G75" s="10"/>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A76" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="B76" t="s">
+      <c r="B76" s="18" t="s">
         <v>41</v>
       </c>
       <c r="C76" s="18" t="s">
-        <v>65</v>
-      </c>
-      <c r="D76" s="24">
-        <v>1.3568990000000001</v>
-      </c>
-      <c r="E76" s="24">
-        <v>6.7020440000000001E-2</v>
-      </c>
-      <c r="F76" s="24">
-        <v>6.3931269999999998E-2</v>
-      </c>
-      <c r="G76" s="24">
-        <v>0.73697449999999998</v>
-      </c>
-      <c r="H76" s="17"/>
-      <c r="I76" s="10"/>
+        <v>71</v>
+      </c>
+      <c r="D76" s="25">
+        <v>1.2841579999999999</v>
+      </c>
+      <c r="E76" s="25">
+        <v>3.9062239999999998E-2</v>
+      </c>
+      <c r="F76" s="25">
+        <v>0.77872039999999998</v>
+      </c>
+      <c r="G76" s="10"/>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A77" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="B77" t="s">
+      <c r="B77" s="18" t="s">
         <v>41</v>
       </c>
       <c r="C77" s="18" t="s">
-        <v>66</v>
-      </c>
-      <c r="D77" s="24">
-        <v>1.305237</v>
-      </c>
-      <c r="E77" s="24">
-        <v>5.862386E-2</v>
-      </c>
-      <c r="F77" s="24">
-        <v>4.5851049999999997E-2</v>
-      </c>
-      <c r="G77" s="24">
-        <v>0.76614459999999995</v>
-      </c>
-      <c r="H77" s="17"/>
-      <c r="I77" s="10"/>
+        <v>42</v>
+      </c>
+      <c r="D77" s="10">
+        <v>1.3364780000000001</v>
+      </c>
+      <c r="E77" s="10">
+        <v>4.6185740000000003E-2</v>
+      </c>
+      <c r="F77" s="10">
+        <v>4.316586E-2</v>
+      </c>
+      <c r="G77" s="10">
+        <v>0.74823510000000004</v>
+      </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A78" s="18" t="s">
         <v>59</v>
       </c>
       <c r="B78" s="18" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="C78" s="18" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="D78" s="10">
-        <v>1.0396449999999999</v>
+        <v>1.1888069999999999</v>
       </c>
       <c r="E78" s="10">
-        <v>1.3357809999999999E-2</v>
+        <v>1.8235999999999999E-2</v>
       </c>
       <c r="F78" s="10">
-        <v>1.363456E-2</v>
+        <v>1.5848230000000001E-2</v>
       </c>
       <c r="G78" s="10">
-        <v>0.96186669999999996</v>
-      </c>
-      <c r="I78" s="10"/>
+        <v>0.84117960000000003</v>
+      </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A79" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="B79" t="s">
-        <v>67</v>
+      <c r="B79" s="18" t="s">
+        <v>41</v>
       </c>
       <c r="C79" s="18" t="s">
-        <v>14</v>
+        <v>44</v>
       </c>
       <c r="D79" s="10">
-        <v>1.047893</v>
+        <v>1.072605</v>
       </c>
       <c r="E79" s="10">
-        <v>9.0638720000000006E-3</v>
+        <v>1.954728E-2</v>
       </c>
       <c r="F79" s="10">
-        <v>9.6862819999999992E-3</v>
+        <v>1.6022970000000001E-2</v>
       </c>
       <c r="G79" s="10">
-        <v>0.95429609999999998</v>
-      </c>
-      <c r="I79" s="10"/>
+        <v>0.93230930000000001</v>
+      </c>
+      <c r="H79" s="17"/>
+      <c r="I79" s="17"/>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A80" s="18" t="s">
         <v>59</v>
       </c>
       <c r="B80" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="C80" s="18" t="s">
-        <v>15</v>
+        <v>61</v>
       </c>
       <c r="D80" s="10">
-        <v>1.048089</v>
+        <v>1.354169</v>
       </c>
       <c r="E80" s="10">
-        <v>1.559265E-2</v>
+        <v>4.99485E-2</v>
       </c>
       <c r="F80" s="10">
-        <v>1.538366E-2</v>
+        <v>4.4932069999999998E-2</v>
       </c>
       <c r="G80" s="10">
-        <v>0.95411710000000005</v>
-      </c>
+        <v>0.73846020000000001</v>
+      </c>
+      <c r="H80" s="17"/>
       <c r="I80" s="10"/>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.2">
@@ -2635,47 +2613,49 @@
         <v>59</v>
       </c>
       <c r="B81" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="C81" s="18" t="s">
-        <v>16</v>
+        <v>62</v>
       </c>
       <c r="D81" s="10">
-        <v>1.046079</v>
+        <v>1.1856720000000001</v>
       </c>
       <c r="E81" s="10">
-        <v>6.5543379999999998E-3</v>
+        <v>1.8077309999999999E-2</v>
       </c>
       <c r="F81" s="10">
-        <v>7.070425E-3</v>
+        <v>1.620709E-2</v>
       </c>
       <c r="G81" s="10">
-        <v>0.95595079999999999</v>
-      </c>
+        <v>0.84340380000000004</v>
+      </c>
+      <c r="H81" s="17"/>
       <c r="I81" s="10"/>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A82" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="B82" s="18" t="s">
-        <v>67</v>
+      <c r="B82" t="s">
+        <v>41</v>
       </c>
       <c r="C82" s="18" t="s">
-        <v>17</v>
+        <v>63</v>
       </c>
       <c r="D82" s="10">
-        <v>1.0321009999999999</v>
+        <v>1.0553809999999999</v>
       </c>
       <c r="E82" s="10">
-        <v>9.1703110000000004E-3</v>
+        <v>2.018228E-2</v>
       </c>
       <c r="F82" s="10">
-        <v>8.7936890000000004E-3</v>
+        <v>1.5700229999999999E-2</v>
       </c>
       <c r="G82" s="10">
-        <v>0.96889709999999996</v>
-      </c>
+        <v>0.94752519999999996</v>
+      </c>
+      <c r="H82" s="17"/>
       <c r="I82" s="10"/>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.2">
@@ -2683,23 +2663,24 @@
         <v>59</v>
       </c>
       <c r="B83" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="C83" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="D83" s="10">
-        <v>1.047088</v>
-      </c>
-      <c r="E83" s="10">
-        <v>9.4403890000000004E-3</v>
-      </c>
-      <c r="F83" s="10">
-        <v>9.5746540000000002E-3</v>
-      </c>
-      <c r="G83" s="10">
-        <v>0.95502920000000002</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="D83" s="24">
+        <v>1.2895779999999999</v>
+      </c>
+      <c r="E83" s="24">
+        <v>0.1070487</v>
+      </c>
+      <c r="F83" s="24">
+        <v>9.6371079999999998E-2</v>
+      </c>
+      <c r="G83" s="24">
+        <v>0.77544740000000001</v>
+      </c>
+      <c r="H83" s="17"/>
       <c r="I83" s="10"/>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.2">
@@ -2707,23 +2688,24 @@
         <v>59</v>
       </c>
       <c r="B84" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="C84" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="D84" s="10">
-        <v>1.046659</v>
-      </c>
-      <c r="E84" s="10">
-        <v>2.1692059999999999E-2</v>
-      </c>
-      <c r="F84" s="10">
-        <v>2.1017709999999998E-2</v>
-      </c>
-      <c r="G84" s="10">
-        <v>0.95542130000000003</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="D84" s="24">
+        <v>1.3568990000000001</v>
+      </c>
+      <c r="E84" s="24">
+        <v>6.7020440000000001E-2</v>
+      </c>
+      <c r="F84" s="24">
+        <v>6.3931269999999998E-2</v>
+      </c>
+      <c r="G84" s="24">
+        <v>0.73697449999999998</v>
+      </c>
+      <c r="H84" s="17"/>
       <c r="I84" s="10"/>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.2">
@@ -2731,24 +2713,25 @@
         <v>59</v>
       </c>
       <c r="B85" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="C85" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="D85" s="10">
-        <v>1.0415779999999999</v>
-      </c>
-      <c r="E85" s="10">
-        <v>6.953397E-3</v>
-      </c>
-      <c r="F85" s="10">
-        <v>6.8569319999999996E-3</v>
-      </c>
-      <c r="G85" s="10">
-        <v>0.96008159999999998</v>
-      </c>
-      <c r="I85" s="17"/>
+        <v>66</v>
+      </c>
+      <c r="D85" s="24">
+        <v>1.305237</v>
+      </c>
+      <c r="E85" s="24">
+        <v>5.862386E-2</v>
+      </c>
+      <c r="F85" s="24">
+        <v>4.5851049999999997E-2</v>
+      </c>
+      <c r="G85" s="24">
+        <v>0.76614459999999995</v>
+      </c>
+      <c r="H85" s="17"/>
+      <c r="I85" s="10"/>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A86" s="18" t="s">
@@ -2758,21 +2741,21 @@
         <v>67</v>
       </c>
       <c r="C86" s="18" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D86" s="10">
-        <v>1.043201</v>
+        <v>1.0396449999999999</v>
       </c>
       <c r="E86" s="10">
-        <v>5.0445760000000003E-3</v>
+        <v>1.3357809999999999E-2</v>
       </c>
       <c r="F86" s="10">
-        <v>5.0142540000000001E-3</v>
+        <v>1.363456E-2</v>
       </c>
       <c r="G86" s="10">
-        <v>0.95858779999999999</v>
-      </c>
-      <c r="I86" s="17"/>
+        <v>0.96186669999999996</v>
+      </c>
+      <c r="I86" s="10"/>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A87" s="18" t="s">
@@ -2782,21 +2765,21 @@
         <v>67</v>
       </c>
       <c r="C87" s="18" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D87" s="10">
-        <v>1.139472</v>
+        <v>1.047893</v>
       </c>
       <c r="E87" s="10">
-        <v>1.7369320000000001E-2</v>
+        <v>9.0638720000000006E-3</v>
       </c>
       <c r="F87" s="10">
-        <v>1.7332440000000001E-2</v>
+        <v>9.6862819999999992E-3</v>
       </c>
       <c r="G87" s="10">
-        <v>0.87759909999999997</v>
-      </c>
-      <c r="I87" s="17"/>
+        <v>0.95429609999999998</v>
+      </c>
+      <c r="I87" s="10"/>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A88" s="18" t="s">
@@ -2806,21 +2789,21 @@
         <v>67</v>
       </c>
       <c r="C88" s="18" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="D88" s="10">
-        <v>1.102965</v>
+        <v>1.048089</v>
       </c>
       <c r="E88" s="10">
-        <v>1.426169E-2</v>
+        <v>1.559265E-2</v>
       </c>
       <c r="F88" s="10">
-        <v>1.538747E-2</v>
+        <v>1.538366E-2</v>
       </c>
       <c r="G88" s="10">
-        <v>0.90664690000000003</v>
-      </c>
-      <c r="I88" s="17"/>
+        <v>0.95411710000000005</v>
+      </c>
+      <c r="I88" s="10"/>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A89" s="18" t="s">
@@ -2830,21 +2813,21 @@
         <v>67</v>
       </c>
       <c r="C89" s="18" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="D89" s="10">
-        <v>1.221314</v>
+        <v>1.046079</v>
       </c>
       <c r="E89" s="10">
-        <v>2.280635E-2</v>
+        <v>6.5543379999999998E-3</v>
       </c>
       <c r="F89" s="10">
-        <v>2.0922159999999999E-2</v>
+        <v>7.070425E-3</v>
       </c>
       <c r="G89" s="10">
-        <v>0.81879029999999997</v>
-      </c>
-      <c r="I89" s="17"/>
+        <v>0.95595079999999999</v>
+      </c>
+      <c r="I89" s="10"/>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A90" s="18" t="s">
@@ -2854,21 +2837,21 @@
         <v>67</v>
       </c>
       <c r="C90" s="18" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="D90" s="10">
-        <v>1.1513150000000001</v>
+        <v>1.0321009999999999</v>
       </c>
       <c r="E90" s="10">
-        <v>1.499059E-2</v>
+        <v>9.1703110000000004E-3</v>
       </c>
       <c r="F90" s="10">
-        <v>1.4701290000000001E-2</v>
+        <v>8.7936890000000004E-3</v>
       </c>
       <c r="G90" s="10">
-        <v>0.86857220000000002</v>
-      </c>
-      <c r="I90" s="17"/>
+        <v>0.96889709999999996</v>
+      </c>
+      <c r="I90" s="10"/>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A91" s="18" t="s">
@@ -2878,21 +2861,21 @@
         <v>67</v>
       </c>
       <c r="C91" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="D91" s="24">
-        <v>1.0888150000000001</v>
-      </c>
-      <c r="E91" s="24">
-        <v>1.786016E-2</v>
-      </c>
-      <c r="F91" s="24">
-        <v>1.7805720000000001E-2</v>
-      </c>
-      <c r="G91" s="24">
-        <v>0.91842959999999996</v>
-      </c>
-      <c r="I91" s="17"/>
+        <v>18</v>
+      </c>
+      <c r="D91" s="10">
+        <v>1.047088</v>
+      </c>
+      <c r="E91" s="10">
+        <v>9.4403890000000004E-3</v>
+      </c>
+      <c r="F91" s="10">
+        <v>9.5746540000000002E-3</v>
+      </c>
+      <c r="G91" s="10">
+        <v>0.95502920000000002</v>
+      </c>
+      <c r="I91" s="10"/>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A92" s="18" t="s">
@@ -2902,21 +2885,21 @@
         <v>67</v>
       </c>
       <c r="C92" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="D92" s="24">
-        <v>1.054991</v>
-      </c>
-      <c r="E92" s="24">
-        <v>6.9505510000000001E-3</v>
-      </c>
-      <c r="F92" s="24">
-        <v>7.376718E-3</v>
-      </c>
-      <c r="G92" s="24">
-        <v>0.94787509999999997</v>
-      </c>
-      <c r="I92" s="17"/>
+        <v>19</v>
+      </c>
+      <c r="D92" s="10">
+        <v>1.046659</v>
+      </c>
+      <c r="E92" s="10">
+        <v>2.1692059999999999E-2</v>
+      </c>
+      <c r="F92" s="10">
+        <v>2.1017709999999998E-2</v>
+      </c>
+      <c r="G92" s="10">
+        <v>0.95542130000000003</v>
+      </c>
+      <c r="I92" s="10"/>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A93" s="18" t="s">
@@ -2926,19 +2909,19 @@
         <v>67</v>
       </c>
       <c r="C93" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="D93" s="24">
-        <v>1.0540590000000001</v>
-      </c>
-      <c r="E93" s="24">
-        <v>7.8596450000000002E-3</v>
-      </c>
-      <c r="F93" s="24">
-        <v>8.4716840000000002E-3</v>
-      </c>
-      <c r="G93" s="24">
-        <v>0.94871369999999999</v>
+        <v>20</v>
+      </c>
+      <c r="D93" s="10">
+        <v>1.0415779999999999</v>
+      </c>
+      <c r="E93" s="10">
+        <v>6.953397E-3</v>
+      </c>
+      <c r="F93" s="10">
+        <v>6.8569319999999996E-3</v>
+      </c>
+      <c r="G93" s="10">
+        <v>0.96008159999999998</v>
       </c>
       <c r="I93" s="17"/>
     </row>
@@ -2946,23 +2929,23 @@
       <c r="A94" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="B94" t="s">
+      <c r="B94" s="18" t="s">
         <v>67</v>
       </c>
       <c r="C94" s="18" t="s">
-        <v>61</v>
-      </c>
-      <c r="D94" s="24">
-        <v>1.0575349999999999</v>
-      </c>
-      <c r="E94" s="24">
-        <v>1.657076E-2</v>
-      </c>
-      <c r="F94" s="24">
-        <v>1.6956740000000001E-2</v>
-      </c>
-      <c r="G94" s="24">
-        <v>0.94559530000000003</v>
+        <v>13</v>
+      </c>
+      <c r="D94" s="10">
+        <v>1.043201</v>
+      </c>
+      <c r="E94" s="10">
+        <v>5.0445760000000003E-3</v>
+      </c>
+      <c r="F94" s="10">
+        <v>5.0142540000000001E-3</v>
+      </c>
+      <c r="G94" s="10">
+        <v>0.95858779999999999</v>
       </c>
       <c r="I94" s="17"/>
     </row>
@@ -2974,19 +2957,19 @@
         <v>67</v>
       </c>
       <c r="C95" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="D95" s="24">
-        <v>1.0480659999999999</v>
-      </c>
-      <c r="E95" s="24">
-        <v>6.4682150000000002E-3</v>
-      </c>
-      <c r="F95" s="24">
-        <v>6.8847880000000002E-3</v>
-      </c>
-      <c r="G95" s="24">
-        <v>0.95413859999999995</v>
+        <v>21</v>
+      </c>
+      <c r="D95" s="10">
+        <v>1.139472</v>
+      </c>
+      <c r="E95" s="10">
+        <v>1.7369320000000001E-2</v>
+      </c>
+      <c r="F95" s="10">
+        <v>1.7332440000000001E-2</v>
+      </c>
+      <c r="G95" s="10">
+        <v>0.87759909999999997</v>
       </c>
       <c r="I95" s="17"/>
     </row>
@@ -2998,19 +2981,19 @@
         <v>67</v>
       </c>
       <c r="C96" s="18" t="s">
-        <v>63</v>
-      </c>
-      <c r="D96" s="24">
-        <v>1.0338099999999999</v>
-      </c>
-      <c r="E96" s="24">
-        <v>7.503773E-3</v>
-      </c>
-      <c r="F96" s="24">
-        <v>7.7324009999999999E-3</v>
-      </c>
-      <c r="G96" s="24">
-        <v>0.96729529999999997</v>
+        <v>24</v>
+      </c>
+      <c r="D96" s="10">
+        <v>1.102965</v>
+      </c>
+      <c r="E96" s="10">
+        <v>1.426169E-2</v>
+      </c>
+      <c r="F96" s="10">
+        <v>1.538747E-2</v>
+      </c>
+      <c r="G96" s="10">
+        <v>0.90664690000000003</v>
       </c>
       <c r="I96" s="17"/>
     </row>
@@ -3022,19 +3005,19 @@
         <v>67</v>
       </c>
       <c r="C97" s="18" t="s">
-        <v>64</v>
-      </c>
-      <c r="D97" s="24">
-        <v>1.1523920000000001</v>
-      </c>
-      <c r="E97" s="24">
-        <v>3.3531070000000003E-2</v>
-      </c>
-      <c r="F97" s="24">
-        <v>3.234277E-2</v>
-      </c>
-      <c r="G97" s="24">
-        <v>0.86776059999999999</v>
+        <v>25</v>
+      </c>
+      <c r="D97" s="10">
+        <v>1.221314</v>
+      </c>
+      <c r="E97" s="10">
+        <v>2.280635E-2</v>
+      </c>
+      <c r="F97" s="10">
+        <v>2.0922159999999999E-2</v>
+      </c>
+      <c r="G97" s="10">
+        <v>0.81879029999999997</v>
       </c>
       <c r="I97" s="17"/>
     </row>
@@ -3042,25 +3025,24 @@
       <c r="A98" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="B98" t="s">
+      <c r="B98" s="18" t="s">
         <v>67</v>
       </c>
       <c r="C98" s="18" t="s">
-        <v>65</v>
-      </c>
-      <c r="D98" s="24">
-        <v>1.179414</v>
-      </c>
-      <c r="E98" s="24">
-        <v>2.541759E-2</v>
-      </c>
-      <c r="F98" s="24">
-        <v>2.463885E-2</v>
-      </c>
-      <c r="G98" s="24">
-        <v>0.84787880000000004</v>
-      </c>
-      <c r="H98" s="10"/>
+        <v>23</v>
+      </c>
+      <c r="D98" s="10">
+        <v>1.1513150000000001</v>
+      </c>
+      <c r="E98" s="10">
+        <v>1.499059E-2</v>
+      </c>
+      <c r="F98" s="10">
+        <v>1.4701290000000001E-2</v>
+      </c>
+      <c r="G98" s="10">
+        <v>0.86857220000000002</v>
+      </c>
       <c r="I98" s="17"/>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.2">
@@ -3071,27 +3053,220 @@
         <v>67</v>
       </c>
       <c r="C99" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="D99" s="24">
+        <v>1.0888150000000001</v>
+      </c>
+      <c r="E99" s="24">
+        <v>1.786016E-2</v>
+      </c>
+      <c r="F99" s="24">
+        <v>1.7805720000000001E-2</v>
+      </c>
+      <c r="G99" s="24">
+        <v>0.91842959999999996</v>
+      </c>
+      <c r="I99" s="17"/>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A100" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="B100" t="s">
+        <v>67</v>
+      </c>
+      <c r="C100" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="D100" s="24">
+        <v>1.054991</v>
+      </c>
+      <c r="E100" s="24">
+        <v>6.9505510000000001E-3</v>
+      </c>
+      <c r="F100" s="24">
+        <v>7.376718E-3</v>
+      </c>
+      <c r="G100" s="24">
+        <v>0.94787509999999997</v>
+      </c>
+      <c r="I100" s="17"/>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A101" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="B101" t="s">
+        <v>67</v>
+      </c>
+      <c r="C101" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="D101" s="24">
+        <v>1.0540590000000001</v>
+      </c>
+      <c r="E101" s="24">
+        <v>7.8596450000000002E-3</v>
+      </c>
+      <c r="F101" s="24">
+        <v>8.4716840000000002E-3</v>
+      </c>
+      <c r="G101" s="24">
+        <v>0.94871369999999999</v>
+      </c>
+      <c r="I101" s="17"/>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A102" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="B102" t="s">
+        <v>67</v>
+      </c>
+      <c r="C102" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="D102" s="24">
+        <v>1.0575349999999999</v>
+      </c>
+      <c r="E102" s="24">
+        <v>1.657076E-2</v>
+      </c>
+      <c r="F102" s="24">
+        <v>1.6956740000000001E-2</v>
+      </c>
+      <c r="G102" s="24">
+        <v>0.94559530000000003</v>
+      </c>
+      <c r="I102" s="17"/>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A103" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="B103" t="s">
+        <v>67</v>
+      </c>
+      <c r="C103" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="D103" s="24">
+        <v>1.0480659999999999</v>
+      </c>
+      <c r="E103" s="24">
+        <v>6.4682150000000002E-3</v>
+      </c>
+      <c r="F103" s="24">
+        <v>6.8847880000000002E-3</v>
+      </c>
+      <c r="G103" s="24">
+        <v>0.95413859999999995</v>
+      </c>
+      <c r="I103" s="17"/>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A104" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="B104" t="s">
+        <v>67</v>
+      </c>
+      <c r="C104" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="D104" s="24">
+        <v>1.0338099999999999</v>
+      </c>
+      <c r="E104" s="24">
+        <v>7.503773E-3</v>
+      </c>
+      <c r="F104" s="24">
+        <v>7.7324009999999999E-3</v>
+      </c>
+      <c r="G104" s="24">
+        <v>0.96729529999999997</v>
+      </c>
+      <c r="I104" s="17"/>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A105" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="B105" t="s">
+        <v>67</v>
+      </c>
+      <c r="C105" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="D105" s="24">
+        <v>1.1523920000000001</v>
+      </c>
+      <c r="E105" s="24">
+        <v>3.3531070000000003E-2</v>
+      </c>
+      <c r="F105" s="24">
+        <v>3.234277E-2</v>
+      </c>
+      <c r="G105" s="24">
+        <v>0.86776059999999999</v>
+      </c>
+      <c r="I105" s="17"/>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A106" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="B106" t="s">
+        <v>67</v>
+      </c>
+      <c r="C106" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="D106" s="24">
+        <v>1.179414</v>
+      </c>
+      <c r="E106" s="24">
+        <v>2.541759E-2</v>
+      </c>
+      <c r="F106" s="24">
+        <v>2.463885E-2</v>
+      </c>
+      <c r="G106" s="24">
+        <v>0.84787880000000004</v>
+      </c>
+      <c r="H106" s="10"/>
+      <c r="I106" s="17"/>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A107" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="B107" t="s">
+        <v>67</v>
+      </c>
+      <c r="C107" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="D99" s="24">
+      <c r="D107" s="24">
         <v>1.1433800000000001</v>
       </c>
-      <c r="E99" s="24">
+      <c r="E107" s="24">
         <v>1.849079E-2</v>
       </c>
-      <c r="F99" s="24">
+      <c r="F107" s="24">
         <v>1.8065979999999999E-2</v>
       </c>
-      <c r="G99" s="24">
+      <c r="G107" s="24">
         <v>0.87460009999999999</v>
       </c>
-      <c r="I99" s="17"/>
-    </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="I100" s="17"/>
-    </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="I107" s="10"/>
+      <c r="I107" s="17"/>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I108" s="17"/>
+    </row>
+    <row r="115" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I115" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3103,7 +3278,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72036DB8-0B38-F34C-BC45-FD8C9084D1F2}">
   <dimension ref="A1:AR107"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="D1" zoomScale="109" workbookViewId="0">
       <selection activeCell="Y14" sqref="Y14"/>
     </sheetView>
   </sheetViews>
